--- a/DOC/基本設計/基本設計_emsm_社員情報リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_社員情報リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D5AD07-5842-4027-A828-92C92E9F9EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE3FD6-B249-4CDE-B82D-04D8EB958DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="833" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -2548,7 +2548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2879,789 +2879,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3741,6 +2958,256 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="3" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3756,6 +3223,129 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3765,8 +3355,452 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4683,16 +4717,16 @@
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -4705,54 +4739,54 @@
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="121"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="161"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="G19" s="122" t="s">
+      <c r="G19" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="124"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="164"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="127"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="167"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -4761,54 +4795,54 @@
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="G22" s="119" t="s">
+      <c r="G22" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="129"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="168"/>
+      <c r="R22" s="169"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="131"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="134"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="174"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -5802,34 +5836,34 @@
       <c r="BN1" s="83"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
       <c r="AA2" s="70"/>
       <c r="AB2" s="70"/>
       <c r="AC2" s="70"/>
@@ -5872,32 +5906,32 @@
       <c r="BN2" s="86"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
       <c r="AA3" s="70"/>
       <c r="AB3" s="70"/>
       <c r="AC3" s="70"/>
@@ -5940,166 +5974,166 @@
       <c r="BN3" s="87"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="173" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="176" t="s">
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="177"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="177"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="177"/>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="177"/>
-      <c r="AJ4" s="177"/>
-      <c r="AK4" s="177"/>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="177"/>
-      <c r="AN4" s="177"/>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="177"/>
-      <c r="AQ4" s="177"/>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="146" t="s">
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="217"/>
+      <c r="AH4" s="217"/>
+      <c r="AI4" s="217"/>
+      <c r="AJ4" s="217"/>
+      <c r="AK4" s="217"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="217"/>
+      <c r="AN4" s="217"/>
+      <c r="AO4" s="217"/>
+      <c r="AP4" s="217"/>
+      <c r="AQ4" s="217"/>
+      <c r="AR4" s="217"/>
+      <c r="AS4" s="217"/>
+      <c r="AT4" s="217"/>
+      <c r="AU4" s="217"/>
+      <c r="AV4" s="218"/>
+      <c r="AW4" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="147"/>
-      <c r="AY4" s="148"/>
-      <c r="AZ4" s="149">
+      <c r="AX4" s="187"/>
+      <c r="AY4" s="188"/>
+      <c r="AZ4" s="189">
         <v>45425</v>
       </c>
-      <c r="BA4" s="150"/>
-      <c r="BB4" s="150"/>
-      <c r="BC4" s="150"/>
-      <c r="BD4" s="150"/>
-      <c r="BE4" s="150"/>
-      <c r="BF4" s="146" t="s">
+      <c r="BA4" s="190"/>
+      <c r="BB4" s="190"/>
+      <c r="BC4" s="190"/>
+      <c r="BD4" s="190"/>
+      <c r="BE4" s="190"/>
+      <c r="BF4" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="147"/>
-      <c r="BH4" s="148"/>
-      <c r="BI4" s="151" t="s">
+      <c r="BG4" s="187"/>
+      <c r="BH4" s="188"/>
+      <c r="BI4" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="150"/>
-      <c r="BK4" s="150"/>
-      <c r="BL4" s="150"/>
-      <c r="BM4" s="150"/>
-      <c r="BN4" s="152"/>
+      <c r="BJ4" s="190"/>
+      <c r="BK4" s="190"/>
+      <c r="BL4" s="190"/>
+      <c r="BM4" s="190"/>
+      <c r="BN4" s="192"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="153" t="s">
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
-      <c r="AK5" s="159"/>
-      <c r="AL5" s="159"/>
-      <c r="AM5" s="159"/>
-      <c r="AN5" s="159"/>
-      <c r="AO5" s="159"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="159"/>
-      <c r="AR5" s="159"/>
-      <c r="AS5" s="159"/>
-      <c r="AT5" s="159"/>
-      <c r="AU5" s="159"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="161" t="s">
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="199"/>
+      <c r="AI5" s="199"/>
+      <c r="AJ5" s="199"/>
+      <c r="AK5" s="199"/>
+      <c r="AL5" s="199"/>
+      <c r="AM5" s="199"/>
+      <c r="AN5" s="199"/>
+      <c r="AO5" s="199"/>
+      <c r="AP5" s="199"/>
+      <c r="AQ5" s="199"/>
+      <c r="AR5" s="199"/>
+      <c r="AS5" s="199"/>
+      <c r="AT5" s="199"/>
+      <c r="AU5" s="199"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="161"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="161"/>
-      <c r="BA5" s="161"/>
-      <c r="BB5" s="161"/>
-      <c r="BC5" s="161"/>
-      <c r="BD5" s="161"/>
-      <c r="BE5" s="161"/>
-      <c r="BF5" s="163" t="s">
+      <c r="AX5" s="201"/>
+      <c r="AY5" s="202"/>
+      <c r="AZ5" s="201"/>
+      <c r="BA5" s="201"/>
+      <c r="BB5" s="201"/>
+      <c r="BC5" s="201"/>
+      <c r="BD5" s="201"/>
+      <c r="BE5" s="201"/>
+      <c r="BF5" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="161"/>
-      <c r="BH5" s="162"/>
-      <c r="BI5" s="161"/>
-      <c r="BJ5" s="164"/>
-      <c r="BK5" s="164"/>
-      <c r="BL5" s="164"/>
-      <c r="BM5" s="164"/>
-      <c r="BN5" s="160"/>
+      <c r="BG5" s="201"/>
+      <c r="BH5" s="202"/>
+      <c r="BI5" s="201"/>
+      <c r="BJ5" s="204"/>
+      <c r="BK5" s="204"/>
+      <c r="BL5" s="204"/>
+      <c r="BM5" s="204"/>
+      <c r="BN5" s="200"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="88"/>
@@ -6150,25 +6184,25 @@
       <c r="AT6" s="70"/>
       <c r="AU6" s="70"/>
       <c r="AV6" s="77"/>
-      <c r="AW6" s="140" t="s">
+      <c r="AW6" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="141"/>
-      <c r="AY6" s="141"/>
-      <c r="AZ6" s="141"/>
-      <c r="BA6" s="141"/>
-      <c r="BB6" s="141"/>
-      <c r="BC6" s="141"/>
-      <c r="BD6" s="141"/>
-      <c r="BE6" s="141"/>
-      <c r="BF6" s="141"/>
-      <c r="BG6" s="141"/>
-      <c r="BH6" s="141"/>
-      <c r="BI6" s="141"/>
-      <c r="BJ6" s="141"/>
-      <c r="BK6" s="141"/>
-      <c r="BL6" s="141"/>
-      <c r="BM6" s="142"/>
+      <c r="AX6" s="181"/>
+      <c r="AY6" s="181"/>
+      <c r="AZ6" s="181"/>
+      <c r="BA6" s="181"/>
+      <c r="BB6" s="181"/>
+      <c r="BC6" s="181"/>
+      <c r="BD6" s="181"/>
+      <c r="BE6" s="181"/>
+      <c r="BF6" s="181"/>
+      <c r="BG6" s="181"/>
+      <c r="BH6" s="181"/>
+      <c r="BI6" s="181"/>
+      <c r="BJ6" s="181"/>
+      <c r="BK6" s="181"/>
+      <c r="BL6" s="181"/>
+      <c r="BM6" s="182"/>
       <c r="BN6" s="77"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6220,23 +6254,23 @@
       <c r="AT7" s="70"/>
       <c r="AU7" s="70"/>
       <c r="AV7" s="77"/>
-      <c r="AW7" s="143"/>
-      <c r="AX7" s="144"/>
-      <c r="AY7" s="144"/>
-      <c r="AZ7" s="144"/>
-      <c r="BA7" s="144"/>
-      <c r="BB7" s="144"/>
-      <c r="BC7" s="144"/>
-      <c r="BD7" s="144"/>
-      <c r="BE7" s="144"/>
-      <c r="BF7" s="144"/>
-      <c r="BG7" s="144"/>
-      <c r="BH7" s="144"/>
-      <c r="BI7" s="144"/>
-      <c r="BJ7" s="144"/>
-      <c r="BK7" s="144"/>
-      <c r="BL7" s="144"/>
-      <c r="BM7" s="145"/>
+      <c r="AW7" s="183"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184"/>
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="184"/>
+      <c r="BM7" s="185"/>
       <c r="BN7" s="77"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6298,15 +6332,15 @@
       <c r="BB8" s="70"/>
       <c r="BC8" s="70"/>
       <c r="BD8" s="70"/>
-      <c r="BE8" s="139"/>
-      <c r="BF8" s="137"/>
-      <c r="BG8" s="137"/>
-      <c r="BH8" s="137"/>
-      <c r="BI8" s="137"/>
-      <c r="BJ8" s="137"/>
-      <c r="BK8" s="137"/>
-      <c r="BL8" s="137"/>
-      <c r="BM8" s="138"/>
+      <c r="BE8" s="179"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="177"/>
+      <c r="BI8" s="177"/>
+      <c r="BJ8" s="177"/>
+      <c r="BK8" s="177"/>
+      <c r="BL8" s="177"/>
+      <c r="BM8" s="178"/>
       <c r="BN8" s="77"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6368,15 +6402,15 @@
       <c r="BB9" s="70"/>
       <c r="BC9" s="70"/>
       <c r="BD9" s="70"/>
-      <c r="BE9" s="139"/>
-      <c r="BF9" s="137"/>
-      <c r="BG9" s="137"/>
-      <c r="BH9" s="137"/>
-      <c r="BI9" s="137"/>
-      <c r="BJ9" s="137"/>
-      <c r="BK9" s="137"/>
-      <c r="BL9" s="137"/>
-      <c r="BM9" s="138"/>
+      <c r="BE9" s="179"/>
+      <c r="BF9" s="177"/>
+      <c r="BG9" s="177"/>
+      <c r="BH9" s="177"/>
+      <c r="BI9" s="177"/>
+      <c r="BJ9" s="177"/>
+      <c r="BK9" s="177"/>
+      <c r="BL9" s="177"/>
+      <c r="BM9" s="178"/>
       <c r="BN9" s="77"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7524,15 +7558,15 @@
       <c r="BB26" s="70"/>
       <c r="BC26" s="70"/>
       <c r="BD26" s="70"/>
-      <c r="BE26" s="139"/>
-      <c r="BF26" s="137"/>
-      <c r="BG26" s="137"/>
-      <c r="BH26" s="137"/>
-      <c r="BI26" s="137"/>
-      <c r="BJ26" s="137"/>
-      <c r="BK26" s="137"/>
-      <c r="BL26" s="137"/>
-      <c r="BM26" s="138"/>
+      <c r="BE26" s="179"/>
+      <c r="BF26" s="177"/>
+      <c r="BG26" s="177"/>
+      <c r="BH26" s="177"/>
+      <c r="BI26" s="177"/>
+      <c r="BJ26" s="177"/>
+      <c r="BK26" s="177"/>
+      <c r="BL26" s="177"/>
+      <c r="BM26" s="178"/>
       <c r="BN26" s="77"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7592,15 +7626,15 @@
       <c r="BB27" s="70"/>
       <c r="BC27" s="70"/>
       <c r="BD27" s="70"/>
-      <c r="BE27" s="139"/>
-      <c r="BF27" s="137"/>
-      <c r="BG27" s="137"/>
-      <c r="BH27" s="137"/>
-      <c r="BI27" s="137"/>
-      <c r="BJ27" s="137"/>
-      <c r="BK27" s="137"/>
-      <c r="BL27" s="137"/>
-      <c r="BM27" s="138"/>
+      <c r="BE27" s="179"/>
+      <c r="BF27" s="177"/>
+      <c r="BG27" s="177"/>
+      <c r="BH27" s="177"/>
+      <c r="BI27" s="177"/>
+      <c r="BJ27" s="177"/>
+      <c r="BK27" s="177"/>
+      <c r="BL27" s="177"/>
+      <c r="BM27" s="178"/>
       <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7660,15 +7694,15 @@
       <c r="BB28" s="70"/>
       <c r="BC28" s="70"/>
       <c r="BD28" s="70"/>
-      <c r="BE28" s="139"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="137"/>
-      <c r="BL28" s="137"/>
-      <c r="BM28" s="138"/>
+      <c r="BE28" s="179"/>
+      <c r="BF28" s="177"/>
+      <c r="BG28" s="177"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="177"/>
+      <c r="BK28" s="177"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="178"/>
       <c r="BN28" s="77"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7728,15 +7762,15 @@
       <c r="BB29" s="70"/>
       <c r="BC29" s="70"/>
       <c r="BD29" s="70"/>
-      <c r="BE29" s="139"/>
-      <c r="BF29" s="137"/>
-      <c r="BG29" s="137"/>
-      <c r="BH29" s="137"/>
-      <c r="BI29" s="137"/>
-      <c r="BJ29" s="137"/>
-      <c r="BK29" s="137"/>
-      <c r="BL29" s="137"/>
-      <c r="BM29" s="138"/>
+      <c r="BE29" s="179"/>
+      <c r="BF29" s="177"/>
+      <c r="BG29" s="177"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="177"/>
+      <c r="BK29" s="177"/>
+      <c r="BL29" s="177"/>
+      <c r="BM29" s="178"/>
       <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7796,15 +7830,15 @@
       <c r="BB30" s="70"/>
       <c r="BC30" s="70"/>
       <c r="BD30" s="70"/>
-      <c r="BE30" s="137"/>
-      <c r="BF30" s="137"/>
-      <c r="BG30" s="137"/>
-      <c r="BH30" s="137"/>
-      <c r="BI30" s="137"/>
-      <c r="BJ30" s="137"/>
-      <c r="BK30" s="137"/>
-      <c r="BL30" s="137"/>
-      <c r="BM30" s="138"/>
+      <c r="BE30" s="177"/>
+      <c r="BF30" s="177"/>
+      <c r="BG30" s="177"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="178"/>
       <c r="BN30" s="77"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7864,15 +7898,15 @@
       <c r="BB31" s="70"/>
       <c r="BC31" s="70"/>
       <c r="BD31" s="70"/>
-      <c r="BE31" s="137"/>
-      <c r="BF31" s="137"/>
-      <c r="BG31" s="137"/>
-      <c r="BH31" s="137"/>
-      <c r="BI31" s="137"/>
-      <c r="BJ31" s="137"/>
-      <c r="BK31" s="137"/>
-      <c r="BL31" s="137"/>
-      <c r="BM31" s="138"/>
+      <c r="BE31" s="177"/>
+      <c r="BF31" s="177"/>
+      <c r="BG31" s="177"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="177"/>
+      <c r="BK31" s="177"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="178"/>
       <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7932,15 +7966,15 @@
       <c r="BB32" s="70"/>
       <c r="BC32" s="70"/>
       <c r="BD32" s="70"/>
-      <c r="BE32" s="137"/>
-      <c r="BF32" s="137"/>
-      <c r="BG32" s="137"/>
-      <c r="BH32" s="137"/>
-      <c r="BI32" s="137"/>
-      <c r="BJ32" s="137"/>
-      <c r="BK32" s="137"/>
-      <c r="BL32" s="137"/>
-      <c r="BM32" s="138"/>
+      <c r="BE32" s="177"/>
+      <c r="BF32" s="177"/>
+      <c r="BG32" s="177"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="177"/>
+      <c r="BK32" s="177"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="178"/>
       <c r="BN32" s="77"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8000,15 +8034,15 @@
       <c r="BB33" s="70"/>
       <c r="BC33" s="70"/>
       <c r="BD33" s="70"/>
-      <c r="BE33" s="139"/>
-      <c r="BF33" s="137"/>
-      <c r="BG33" s="137"/>
-      <c r="BH33" s="137"/>
-      <c r="BI33" s="137"/>
-      <c r="BJ33" s="137"/>
-      <c r="BK33" s="137"/>
-      <c r="BL33" s="137"/>
-      <c r="BM33" s="138"/>
+      <c r="BE33" s="179"/>
+      <c r="BF33" s="177"/>
+      <c r="BG33" s="177"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="178"/>
       <c r="BN33" s="77"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8068,15 +8102,15 @@
       <c r="BB34" s="70"/>
       <c r="BC34" s="70"/>
       <c r="BD34" s="70"/>
-      <c r="BE34" s="137"/>
-      <c r="BF34" s="137"/>
-      <c r="BG34" s="137"/>
-      <c r="BH34" s="137"/>
-      <c r="BI34" s="137"/>
-      <c r="BJ34" s="137"/>
-      <c r="BK34" s="137"/>
-      <c r="BL34" s="137"/>
-      <c r="BM34" s="138"/>
+      <c r="BE34" s="177"/>
+      <c r="BF34" s="177"/>
+      <c r="BG34" s="177"/>
+      <c r="BH34" s="177"/>
+      <c r="BI34" s="177"/>
+      <c r="BJ34" s="177"/>
+      <c r="BK34" s="177"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="178"/>
       <c r="BN34" s="77"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8136,15 +8170,15 @@
       <c r="BB35" s="70"/>
       <c r="BC35" s="70"/>
       <c r="BD35" s="70"/>
-      <c r="BE35" s="137"/>
-      <c r="BF35" s="137"/>
-      <c r="BG35" s="137"/>
-      <c r="BH35" s="137"/>
-      <c r="BI35" s="137"/>
-      <c r="BJ35" s="137"/>
-      <c r="BK35" s="137"/>
-      <c r="BL35" s="137"/>
-      <c r="BM35" s="138"/>
+      <c r="BE35" s="177"/>
+      <c r="BF35" s="177"/>
+      <c r="BG35" s="177"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="177"/>
+      <c r="BJ35" s="177"/>
+      <c r="BK35" s="177"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="178"/>
       <c r="BN35" s="77"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8204,15 +8238,15 @@
       <c r="BB36" s="70"/>
       <c r="BC36" s="70"/>
       <c r="BD36" s="70"/>
-      <c r="BE36" s="137"/>
-      <c r="BF36" s="137"/>
-      <c r="BG36" s="137"/>
-      <c r="BH36" s="137"/>
-      <c r="BI36" s="137"/>
-      <c r="BJ36" s="137"/>
-      <c r="BK36" s="137"/>
-      <c r="BL36" s="137"/>
-      <c r="BM36" s="138"/>
+      <c r="BE36" s="177"/>
+      <c r="BF36" s="177"/>
+      <c r="BG36" s="177"/>
+      <c r="BH36" s="177"/>
+      <c r="BI36" s="177"/>
+      <c r="BJ36" s="177"/>
+      <c r="BK36" s="177"/>
+      <c r="BL36" s="177"/>
+      <c r="BM36" s="178"/>
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8272,15 +8306,15 @@
       <c r="BB37" s="70"/>
       <c r="BC37" s="70"/>
       <c r="BD37" s="70"/>
-      <c r="BE37" s="137"/>
-      <c r="BF37" s="137"/>
-      <c r="BG37" s="137"/>
-      <c r="BH37" s="137"/>
-      <c r="BI37" s="137"/>
-      <c r="BJ37" s="137"/>
-      <c r="BK37" s="137"/>
-      <c r="BL37" s="137"/>
-      <c r="BM37" s="138"/>
+      <c r="BE37" s="177"/>
+      <c r="BF37" s="177"/>
+      <c r="BG37" s="177"/>
+      <c r="BH37" s="177"/>
+      <c r="BI37" s="177"/>
+      <c r="BJ37" s="177"/>
+      <c r="BK37" s="177"/>
+      <c r="BL37" s="177"/>
+      <c r="BM37" s="178"/>
       <c r="BN37" s="77"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8340,15 +8374,15 @@
       <c r="BB38" s="70"/>
       <c r="BC38" s="70"/>
       <c r="BD38" s="70"/>
-      <c r="BE38" s="137"/>
-      <c r="BF38" s="137"/>
-      <c r="BG38" s="137"/>
-      <c r="BH38" s="137"/>
-      <c r="BI38" s="137"/>
-      <c r="BJ38" s="137"/>
-      <c r="BK38" s="137"/>
-      <c r="BL38" s="137"/>
-      <c r="BM38" s="138"/>
+      <c r="BE38" s="177"/>
+      <c r="BF38" s="177"/>
+      <c r="BG38" s="177"/>
+      <c r="BH38" s="177"/>
+      <c r="BI38" s="177"/>
+      <c r="BJ38" s="177"/>
+      <c r="BK38" s="177"/>
+      <c r="BL38" s="177"/>
+      <c r="BM38" s="178"/>
       <c r="BN38" s="77"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8408,15 +8442,15 @@
       <c r="BB39" s="70"/>
       <c r="BC39" s="70"/>
       <c r="BD39" s="70"/>
-      <c r="BE39" s="137"/>
-      <c r="BF39" s="137"/>
-      <c r="BG39" s="137"/>
-      <c r="BH39" s="137"/>
-      <c r="BI39" s="137"/>
-      <c r="BJ39" s="137"/>
-      <c r="BK39" s="137"/>
-      <c r="BL39" s="137"/>
-      <c r="BM39" s="138"/>
+      <c r="BE39" s="177"/>
+      <c r="BF39" s="177"/>
+      <c r="BG39" s="177"/>
+      <c r="BH39" s="177"/>
+      <c r="BI39" s="177"/>
+      <c r="BJ39" s="177"/>
+      <c r="BK39" s="177"/>
+      <c r="BL39" s="177"/>
+      <c r="BM39" s="178"/>
       <c r="BN39" s="77"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8476,15 +8510,15 @@
       <c r="BB40" s="70"/>
       <c r="BC40" s="70"/>
       <c r="BD40" s="70"/>
-      <c r="BE40" s="137"/>
-      <c r="BF40" s="137"/>
-      <c r="BG40" s="137"/>
-      <c r="BH40" s="137"/>
-      <c r="BI40" s="137"/>
-      <c r="BJ40" s="137"/>
-      <c r="BK40" s="137"/>
-      <c r="BL40" s="137"/>
-      <c r="BM40" s="138"/>
+      <c r="BE40" s="177"/>
+      <c r="BF40" s="177"/>
+      <c r="BG40" s="177"/>
+      <c r="BH40" s="177"/>
+      <c r="BI40" s="177"/>
+      <c r="BJ40" s="177"/>
+      <c r="BK40" s="177"/>
+      <c r="BL40" s="177"/>
+      <c r="BM40" s="178"/>
       <c r="BN40" s="77"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8544,15 +8578,15 @@
       <c r="BB41" s="70"/>
       <c r="BC41" s="70"/>
       <c r="BD41" s="70"/>
-      <c r="BE41" s="137"/>
-      <c r="BF41" s="137"/>
-      <c r="BG41" s="137"/>
-      <c r="BH41" s="137"/>
-      <c r="BI41" s="137"/>
-      <c r="BJ41" s="137"/>
-      <c r="BK41" s="137"/>
-      <c r="BL41" s="137"/>
-      <c r="BM41" s="138"/>
+      <c r="BE41" s="177"/>
+      <c r="BF41" s="177"/>
+      <c r="BG41" s="177"/>
+      <c r="BH41" s="177"/>
+      <c r="BI41" s="177"/>
+      <c r="BJ41" s="177"/>
+      <c r="BK41" s="177"/>
+      <c r="BL41" s="177"/>
+      <c r="BM41" s="178"/>
       <c r="BN41" s="77"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8612,15 +8646,15 @@
       <c r="BB42" s="70"/>
       <c r="BC42" s="70"/>
       <c r="BD42" s="70"/>
-      <c r="BE42" s="137"/>
-      <c r="BF42" s="137"/>
-      <c r="BG42" s="137"/>
-      <c r="BH42" s="137"/>
-      <c r="BI42" s="137"/>
-      <c r="BJ42" s="137"/>
-      <c r="BK42" s="137"/>
-      <c r="BL42" s="137"/>
-      <c r="BM42" s="138"/>
+      <c r="BE42" s="177"/>
+      <c r="BF42" s="177"/>
+      <c r="BG42" s="177"/>
+      <c r="BH42" s="177"/>
+      <c r="BI42" s="177"/>
+      <c r="BJ42" s="177"/>
+      <c r="BK42" s="177"/>
+      <c r="BL42" s="177"/>
+      <c r="BM42" s="178"/>
       <c r="BN42" s="77"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8680,15 +8714,15 @@
       <c r="BB43" s="91"/>
       <c r="BC43" s="91"/>
       <c r="BD43" s="91"/>
-      <c r="BE43" s="135"/>
-      <c r="BF43" s="135"/>
-      <c r="BG43" s="135"/>
-      <c r="BH43" s="135"/>
-      <c r="BI43" s="135"/>
-      <c r="BJ43" s="135"/>
-      <c r="BK43" s="135"/>
-      <c r="BL43" s="135"/>
-      <c r="BM43" s="136"/>
+      <c r="BE43" s="175"/>
+      <c r="BF43" s="175"/>
+      <c r="BG43" s="175"/>
+      <c r="BH43" s="175"/>
+      <c r="BI43" s="175"/>
+      <c r="BJ43" s="175"/>
+      <c r="BK43" s="175"/>
+      <c r="BL43" s="175"/>
+      <c r="BM43" s="176"/>
       <c r="BN43" s="92"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8810,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -9014,34 +9048,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
+      <c r="V1" s="264"/>
+      <c r="W1" s="264"/>
+      <c r="X1" s="264"/>
+      <c r="Y1" s="264"/>
+      <c r="Z1" s="264"/>
       <c r="AQ1" s="25"/>
       <c r="AR1" s="25"/>
       <c r="AS1" s="25"/>
@@ -9068,166 +9102,166 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221" t="s">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="268" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="224" t="s">
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="227" t="s">
+      <c r="P2" s="272"/>
+      <c r="Q2" s="272"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="228"/>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="228"/>
-      <c r="AD2" s="228"/>
-      <c r="AE2" s="228"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="228"/>
-      <c r="AH2" s="228"/>
-      <c r="AI2" s="228"/>
-      <c r="AJ2" s="228"/>
-      <c r="AK2" s="228"/>
-      <c r="AL2" s="228"/>
-      <c r="AM2" s="228"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="228"/>
-      <c r="AP2" s="228"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="228"/>
-      <c r="AS2" s="228"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="229"/>
-      <c r="AW2" s="198" t="s">
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
+      <c r="AK2" s="275"/>
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="275"/>
+      <c r="AN2" s="275"/>
+      <c r="AO2" s="275"/>
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="275"/>
+      <c r="AR2" s="275"/>
+      <c r="AS2" s="275"/>
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="275"/>
+      <c r="AV2" s="276"/>
+      <c r="AW2" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="200"/>
-      <c r="AZ2" s="201">
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="247"/>
+      <c r="AZ2" s="248">
         <v>45425</v>
       </c>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="202"/>
-      <c r="BC2" s="202"/>
-      <c r="BD2" s="202"/>
-      <c r="BE2" s="202"/>
-      <c r="BF2" s="198" t="s">
+      <c r="BA2" s="249"/>
+      <c r="BB2" s="249"/>
+      <c r="BC2" s="249"/>
+      <c r="BD2" s="249"/>
+      <c r="BE2" s="249"/>
+      <c r="BF2" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="199"/>
-      <c r="BH2" s="200"/>
-      <c r="BI2" s="203" t="s">
+      <c r="BG2" s="246"/>
+      <c r="BH2" s="247"/>
+      <c r="BI2" s="250" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="202"/>
-      <c r="BK2" s="202"/>
-      <c r="BL2" s="202"/>
-      <c r="BM2" s="202"/>
-      <c r="BN2" s="204"/>
+      <c r="BJ2" s="249"/>
+      <c r="BK2" s="249"/>
+      <c r="BL2" s="249"/>
+      <c r="BM2" s="249"/>
+      <c r="BN2" s="251"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208" t="s">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="205" t="s">
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
-      <c r="AL3" s="211"/>
-      <c r="AM3" s="211"/>
-      <c r="AN3" s="211"/>
-      <c r="AO3" s="211"/>
-      <c r="AP3" s="211"/>
-      <c r="AQ3" s="211"/>
-      <c r="AR3" s="211"/>
-      <c r="AS3" s="211"/>
-      <c r="AT3" s="211"/>
-      <c r="AU3" s="211"/>
-      <c r="AV3" s="212"/>
-      <c r="AW3" s="213" t="s">
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="258"/>
+      <c r="AE3" s="258"/>
+      <c r="AF3" s="258"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="258"/>
+      <c r="AJ3" s="258"/>
+      <c r="AK3" s="258"/>
+      <c r="AL3" s="258"/>
+      <c r="AM3" s="258"/>
+      <c r="AN3" s="258"/>
+      <c r="AO3" s="258"/>
+      <c r="AP3" s="258"/>
+      <c r="AQ3" s="258"/>
+      <c r="AR3" s="258"/>
+      <c r="AS3" s="258"/>
+      <c r="AT3" s="258"/>
+      <c r="AU3" s="258"/>
+      <c r="AV3" s="259"/>
+      <c r="AW3" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="AX3" s="214"/>
-      <c r="AY3" s="215"/>
-      <c r="AZ3" s="214"/>
-      <c r="BA3" s="214"/>
-      <c r="BB3" s="214"/>
-      <c r="BC3" s="214"/>
-      <c r="BD3" s="214"/>
-      <c r="BE3" s="214"/>
-      <c r="BF3" s="213" t="s">
+      <c r="AX3" s="261"/>
+      <c r="AY3" s="262"/>
+      <c r="AZ3" s="261"/>
+      <c r="BA3" s="261"/>
+      <c r="BB3" s="261"/>
+      <c r="BC3" s="261"/>
+      <c r="BD3" s="261"/>
+      <c r="BE3" s="261"/>
+      <c r="BF3" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="214"/>
-      <c r="BH3" s="215"/>
-      <c r="BI3" s="214"/>
-      <c r="BJ3" s="211"/>
-      <c r="BK3" s="211"/>
-      <c r="BL3" s="211"/>
-      <c r="BM3" s="211"/>
-      <c r="BN3" s="212"/>
+      <c r="BG3" s="261"/>
+      <c r="BH3" s="262"/>
+      <c r="BI3" s="261"/>
+      <c r="BJ3" s="258"/>
+      <c r="BK3" s="258"/>
+      <c r="BL3" s="258"/>
+      <c r="BM3" s="258"/>
+      <c r="BN3" s="259"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
@@ -9271,36 +9305,36 @@
       <c r="AM4" s="29"/>
       <c r="AN4" s="29"/>
       <c r="AO4" s="29"/>
-      <c r="AP4" s="191" t="s">
+      <c r="AP4" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="192"/>
-      <c r="AR4" s="192"/>
-      <c r="AS4" s="193" t="s">
+      <c r="AQ4" s="239"/>
+      <c r="AR4" s="239"/>
+      <c r="AS4" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="193"/>
-      <c r="AV4" s="193"/>
-      <c r="AW4" s="193"/>
-      <c r="AX4" s="193"/>
-      <c r="AY4" s="193"/>
-      <c r="AZ4" s="193"/>
-      <c r="BA4" s="193"/>
-      <c r="BB4" s="193"/>
-      <c r="BC4" s="193"/>
-      <c r="BD4" s="193"/>
-      <c r="BE4" s="193" t="s">
+      <c r="AT4" s="240"/>
+      <c r="AU4" s="240"/>
+      <c r="AV4" s="240"/>
+      <c r="AW4" s="240"/>
+      <c r="AX4" s="240"/>
+      <c r="AY4" s="240"/>
+      <c r="AZ4" s="240"/>
+      <c r="BA4" s="240"/>
+      <c r="BB4" s="240"/>
+      <c r="BC4" s="240"/>
+      <c r="BD4" s="240"/>
+      <c r="BE4" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="BF4" s="192"/>
-      <c r="BG4" s="192"/>
-      <c r="BH4" s="192"/>
-      <c r="BI4" s="192"/>
-      <c r="BJ4" s="192"/>
-      <c r="BK4" s="192"/>
-      <c r="BL4" s="192"/>
-      <c r="BM4" s="192"/>
+      <c r="BF4" s="239"/>
+      <c r="BG4" s="239"/>
+      <c r="BH4" s="239"/>
+      <c r="BI4" s="239"/>
+      <c r="BJ4" s="239"/>
+      <c r="BK4" s="239"/>
+      <c r="BL4" s="239"/>
+      <c r="BM4" s="239"/>
       <c r="BN4" s="30"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9345,36 +9379,36 @@
       <c r="AM5" s="29"/>
       <c r="AN5" s="29"/>
       <c r="AO5" s="29"/>
-      <c r="AP5" s="179" t="s">
+      <c r="AP5" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="180"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="194" t="s">
+      <c r="AQ5" s="220"/>
+      <c r="AR5" s="221"/>
+      <c r="AS5" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="AT5" s="195"/>
-      <c r="AU5" s="195"/>
-      <c r="AV5" s="195"/>
-      <c r="AW5" s="195"/>
-      <c r="AX5" s="195"/>
-      <c r="AY5" s="195"/>
-      <c r="AZ5" s="195"/>
-      <c r="BA5" s="195"/>
-      <c r="BB5" s="195"/>
-      <c r="BC5" s="195"/>
-      <c r="BD5" s="196"/>
-      <c r="BE5" s="197" t="s">
+      <c r="AT5" s="242"/>
+      <c r="AU5" s="242"/>
+      <c r="AV5" s="242"/>
+      <c r="AW5" s="242"/>
+      <c r="AX5" s="242"/>
+      <c r="AY5" s="242"/>
+      <c r="AZ5" s="242"/>
+      <c r="BA5" s="242"/>
+      <c r="BB5" s="242"/>
+      <c r="BC5" s="242"/>
+      <c r="BD5" s="243"/>
+      <c r="BE5" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="195"/>
-      <c r="BG5" s="195"/>
-      <c r="BH5" s="195"/>
-      <c r="BI5" s="195"/>
-      <c r="BJ5" s="195"/>
-      <c r="BK5" s="195"/>
-      <c r="BL5" s="195"/>
-      <c r="BM5" s="196"/>
+      <c r="BF5" s="242"/>
+      <c r="BG5" s="242"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="242"/>
+      <c r="BJ5" s="242"/>
+      <c r="BK5" s="242"/>
+      <c r="BL5" s="242"/>
+      <c r="BM5" s="243"/>
       <c r="BN5" s="30"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9419,36 +9453,36 @@
       <c r="AM6" s="29"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
-      <c r="AP6" s="179" t="s">
+      <c r="AP6" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="AQ6" s="180"/>
-      <c r="AR6" s="181"/>
-      <c r="AS6" s="182" t="s">
+      <c r="AQ6" s="220"/>
+      <c r="AR6" s="221"/>
+      <c r="AS6" s="222" t="s">
         <v>44</v>
       </c>
-      <c r="AT6" s="183"/>
-      <c r="AU6" s="183"/>
-      <c r="AV6" s="183"/>
-      <c r="AW6" s="183"/>
-      <c r="AX6" s="183"/>
-      <c r="AY6" s="183"/>
-      <c r="AZ6" s="183"/>
-      <c r="BA6" s="183"/>
-      <c r="BB6" s="183"/>
-      <c r="BC6" s="183"/>
-      <c r="BD6" s="184"/>
-      <c r="BE6" s="182" t="s">
+      <c r="AT6" s="223"/>
+      <c r="AU6" s="223"/>
+      <c r="AV6" s="223"/>
+      <c r="AW6" s="223"/>
+      <c r="AX6" s="223"/>
+      <c r="AY6" s="223"/>
+      <c r="AZ6" s="223"/>
+      <c r="BA6" s="223"/>
+      <c r="BB6" s="223"/>
+      <c r="BC6" s="223"/>
+      <c r="BD6" s="224"/>
+      <c r="BE6" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="BF6" s="183"/>
-      <c r="BG6" s="183"/>
-      <c r="BH6" s="183"/>
-      <c r="BI6" s="183"/>
-      <c r="BJ6" s="183"/>
-      <c r="BK6" s="183"/>
-      <c r="BL6" s="183"/>
-      <c r="BM6" s="184"/>
+      <c r="BF6" s="223"/>
+      <c r="BG6" s="223"/>
+      <c r="BH6" s="223"/>
+      <c r="BI6" s="223"/>
+      <c r="BJ6" s="223"/>
+      <c r="BK6" s="223"/>
+      <c r="BL6" s="223"/>
+      <c r="BM6" s="224"/>
       <c r="BN6" s="30"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9493,11 +9527,11 @@
       <c r="AM7" s="29"/>
       <c r="AN7" s="29"/>
       <c r="AO7" s="29"/>
-      <c r="AP7" s="413" t="s">
+      <c r="AP7" s="277" t="s">
         <v>138</v>
       </c>
-      <c r="AQ7" s="414"/>
-      <c r="AR7" s="415"/>
+      <c r="AQ7" s="278"/>
+      <c r="AR7" s="279"/>
       <c r="AS7" s="62" t="s">
         <v>45</v>
       </c>
@@ -9566,30 +9600,30 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
       <c r="AO8" s="29"/>
-      <c r="AP8" s="410">
+      <c r="AP8" s="233">
         <v>4</v>
       </c>
-      <c r="AQ8" s="411"/>
-      <c r="AR8" s="412"/>
-      <c r="AS8" s="190" t="s">
+      <c r="AQ8" s="234"/>
+      <c r="AR8" s="235"/>
+      <c r="AS8" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="AT8" s="183"/>
-      <c r="AU8" s="183"/>
-      <c r="AV8" s="183"/>
-      <c r="AW8" s="183"/>
-      <c r="AX8" s="183"/>
-      <c r="AY8" s="183"/>
-      <c r="AZ8" s="183"/>
-      <c r="BA8" s="183"/>
-      <c r="BB8" s="183"/>
-      <c r="BC8" s="183"/>
-      <c r="BD8" s="184"/>
-      <c r="BE8" s="65" t="s">
+      <c r="AT8" s="223"/>
+      <c r="AU8" s="223"/>
+      <c r="AV8" s="223"/>
+      <c r="AW8" s="223"/>
+      <c r="AX8" s="223"/>
+      <c r="AY8" s="223"/>
+      <c r="AZ8" s="223"/>
+      <c r="BA8" s="223"/>
+      <c r="BB8" s="223"/>
+      <c r="BC8" s="223"/>
+      <c r="BD8" s="237"/>
+      <c r="BE8" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="142"/>
       <c r="BH8" s="51"/>
       <c r="BI8" s="51"/>
       <c r="BJ8" s="51"/>
@@ -9640,11 +9674,11 @@
       <c r="AM9" s="29"/>
       <c r="AN9" s="29"/>
       <c r="AO9" s="29"/>
-      <c r="AP9" s="410">
+      <c r="AP9" s="233">
         <v>5</v>
       </c>
-      <c r="AQ9" s="411"/>
-      <c r="AR9" s="412"/>
+      <c r="AQ9" s="234"/>
+      <c r="AR9" s="235"/>
       <c r="AS9" s="96" t="s">
         <v>63</v>
       </c>
@@ -9659,11 +9693,11 @@
       <c r="BB9" s="51"/>
       <c r="BC9" s="51"/>
       <c r="BD9" s="52"/>
-      <c r="BE9" s="62" t="s">
+      <c r="BE9" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
+      <c r="BF9" s="145"/>
+      <c r="BG9" s="145"/>
       <c r="BH9" s="60"/>
       <c r="BI9" s="60"/>
       <c r="BJ9" s="60"/>
@@ -9714,11 +9748,11 @@
       <c r="AM10" s="29"/>
       <c r="AN10" s="29"/>
       <c r="AO10" s="29"/>
-      <c r="AP10" s="410">
+      <c r="AP10" s="233">
         <v>6</v>
       </c>
-      <c r="AQ10" s="411"/>
-      <c r="AR10" s="412"/>
+      <c r="AQ10" s="234"/>
+      <c r="AR10" s="235"/>
       <c r="AS10" s="96" t="s">
         <v>64</v>
       </c>
@@ -9732,10 +9766,12 @@
       <c r="BA10" s="51"/>
       <c r="BB10" s="51"/>
       <c r="BC10" s="51"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="62" t="s">
+      <c r="BD10" s="151"/>
+      <c r="BE10" s="153" t="s">
         <v>21</v>
       </c>
+      <c r="BF10" s="155"/>
+      <c r="BG10" s="155"/>
       <c r="BM10" s="30"/>
       <c r="BN10" s="30"/>
     </row>
@@ -9781,11 +9817,11 @@
       <c r="AM11" s="29"/>
       <c r="AN11" s="29"/>
       <c r="AO11" s="29"/>
-      <c r="AP11" s="410">
+      <c r="AP11" s="233">
         <v>7</v>
       </c>
-      <c r="AQ11" s="411"/>
-      <c r="AR11" s="412"/>
+      <c r="AQ11" s="234"/>
+      <c r="AR11" s="235"/>
       <c r="AS11" s="96" t="s">
         <v>65</v>
       </c>
@@ -9799,12 +9835,12 @@
       <c r="BA11" s="51"/>
       <c r="BB11" s="51"/>
       <c r="BC11" s="51"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="62" t="s">
+      <c r="BD11" s="151"/>
+      <c r="BE11" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="60"/>
+      <c r="BF11" s="145"/>
+      <c r="BG11" s="152"/>
       <c r="BH11" s="60"/>
       <c r="BI11" s="60"/>
       <c r="BJ11" s="60"/>
@@ -9855,11 +9891,11 @@
       <c r="AM12" s="29"/>
       <c r="AN12" s="29"/>
       <c r="AO12" s="29"/>
-      <c r="AP12" s="179" t="s">
+      <c r="AP12" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="AQ12" s="180"/>
-      <c r="AR12" s="181"/>
+      <c r="AQ12" s="220"/>
+      <c r="AR12" s="221"/>
       <c r="AS12" s="96" t="s">
         <v>136</v>
       </c>
@@ -9874,10 +9910,12 @@
       <c r="BB12" s="51"/>
       <c r="BC12" s="51"/>
       <c r="BD12" s="52"/>
-      <c r="BE12" s="62" t="s">
+      <c r="BE12" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="BH12" s="60"/>
+      <c r="BF12" s="155"/>
+      <c r="BG12" s="155"/>
+      <c r="BH12" s="145"/>
       <c r="BI12" s="60"/>
       <c r="BJ12" s="60"/>
       <c r="BK12" s="60"/>
@@ -9927,11 +9965,11 @@
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
       <c r="AO13" s="29"/>
-      <c r="AP13" s="179" t="s">
+      <c r="AP13" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="AQ13" s="180"/>
-      <c r="AR13" s="181"/>
+      <c r="AQ13" s="220"/>
+      <c r="AR13" s="221"/>
       <c r="AS13" s="96" t="s">
         <v>66</v>
       </c>
@@ -9946,10 +9984,12 @@
       <c r="BB13" s="51"/>
       <c r="BC13" s="51"/>
       <c r="BD13" s="52"/>
-      <c r="BE13" s="62" t="s">
+      <c r="BE13" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="BH13" s="60"/>
+      <c r="BF13" s="155"/>
+      <c r="BG13" s="127"/>
+      <c r="BH13" s="152"/>
       <c r="BI13" s="60"/>
       <c r="BJ13" s="60"/>
       <c r="BK13" s="60"/>
@@ -9999,11 +10039,11 @@
       <c r="AM14" s="29"/>
       <c r="AN14" s="29"/>
       <c r="AO14" s="29"/>
-      <c r="AP14" s="410">
+      <c r="AP14" s="233">
         <v>10</v>
       </c>
-      <c r="AQ14" s="411"/>
-      <c r="AR14" s="412"/>
+      <c r="AQ14" s="234"/>
+      <c r="AR14" s="235"/>
       <c r="AS14" s="96" t="s">
         <v>67</v>
       </c>
@@ -10017,11 +10057,11 @@
       <c r="BA14" s="51"/>
       <c r="BB14" s="51"/>
       <c r="BC14" s="51"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="62" t="s">
+      <c r="BD14" s="151"/>
+      <c r="BE14" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="BF14" s="60"/>
+      <c r="BF14" s="152"/>
       <c r="BG14" s="60"/>
       <c r="BH14" s="60"/>
       <c r="BI14" s="60"/>
@@ -10073,11 +10113,11 @@
       <c r="AM15" s="29"/>
       <c r="AN15" s="29"/>
       <c r="AO15" s="29"/>
-      <c r="AP15" s="410">
+      <c r="AP15" s="233">
         <v>11</v>
       </c>
-      <c r="AQ15" s="411"/>
-      <c r="AR15" s="412"/>
+      <c r="AQ15" s="234"/>
+      <c r="AR15" s="235"/>
       <c r="AS15" s="96" t="s">
         <v>68</v>
       </c>
@@ -10091,11 +10131,11 @@
       <c r="BA15" s="51"/>
       <c r="BB15" s="51"/>
       <c r="BC15" s="51"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="62" t="s">
+      <c r="BD15" s="151"/>
+      <c r="BE15" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="BF15" s="60"/>
+      <c r="BF15" s="152"/>
       <c r="BG15" s="60"/>
       <c r="BH15" s="60"/>
       <c r="BI15" s="60"/>
@@ -10147,17 +10187,17 @@
       <c r="AM16" s="29"/>
       <c r="AN16" s="29"/>
       <c r="AO16" s="29"/>
-      <c r="AP16" s="410">
+      <c r="AP16" s="233">
         <v>12</v>
       </c>
-      <c r="AQ16" s="411"/>
-      <c r="AR16" s="412"/>
+      <c r="AQ16" s="234"/>
+      <c r="AR16" s="235"/>
       <c r="AS16" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="51"/>
+      <c r="AT16" s="144"/>
+      <c r="AU16" s="149"/>
+      <c r="AV16" s="144"/>
       <c r="AW16" s="51"/>
       <c r="AX16" s="51"/>
       <c r="AY16" s="51"/>
@@ -10166,10 +10206,10 @@
       <c r="BB16" s="51"/>
       <c r="BC16" s="51"/>
       <c r="BD16" s="52"/>
-      <c r="BE16" s="62" t="s">
+      <c r="BE16" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="BF16" s="60"/>
+      <c r="BF16" s="152"/>
       <c r="BG16" s="60"/>
       <c r="BH16" s="60"/>
       <c r="BI16" s="60"/>
@@ -10221,17 +10261,17 @@
       <c r="AM17" s="29"/>
       <c r="AN17" s="29"/>
       <c r="AO17" s="29"/>
-      <c r="AP17" s="410">
+      <c r="AP17" s="233">
         <v>13</v>
       </c>
-      <c r="AQ17" s="411"/>
-      <c r="AR17" s="412"/>
+      <c r="AQ17" s="234"/>
+      <c r="AR17" s="235"/>
       <c r="AS17" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="51"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="149"/>
+      <c r="AV17" s="144"/>
       <c r="AW17" s="51"/>
       <c r="AX17" s="51"/>
       <c r="AY17" s="51"/>
@@ -10240,10 +10280,10 @@
       <c r="BB17" s="51"/>
       <c r="BC17" s="51"/>
       <c r="BD17" s="52"/>
-      <c r="BE17" s="62" t="s">
+      <c r="BE17" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="BF17" s="60"/>
+      <c r="BF17" s="152"/>
       <c r="BG17" s="60"/>
       <c r="BH17" s="60"/>
       <c r="BI17" s="60"/>
@@ -10295,35 +10335,37 @@
       <c r="AM18" s="29"/>
       <c r="AN18" s="29"/>
       <c r="AO18" s="29"/>
-      <c r="AP18" s="416" t="s">
+      <c r="AP18" s="225" t="s">
         <v>139</v>
       </c>
-      <c r="AQ18" s="408"/>
-      <c r="AR18" s="409"/>
+      <c r="AQ18" s="231"/>
+      <c r="AR18" s="232"/>
       <c r="AS18" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="AT18" s="405"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="405"/>
-      <c r="AW18" s="405"/>
-      <c r="AX18" s="405"/>
-      <c r="AY18" s="405"/>
-      <c r="AZ18" s="405"/>
-      <c r="BA18" s="405"/>
-      <c r="BB18" s="405"/>
-      <c r="BC18" s="405"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="406"/>
-      <c r="BG18" s="406"/>
-      <c r="BH18" s="406"/>
-      <c r="BI18" s="406"/>
-      <c r="BJ18" s="406"/>
-      <c r="BK18" s="406"/>
-      <c r="BL18" s="406"/>
+      <c r="AT18" s="147"/>
+      <c r="AU18" s="148"/>
+      <c r="AV18" s="147"/>
+      <c r="AW18" s="144"/>
+      <c r="AX18" s="144"/>
+      <c r="AY18" s="144"/>
+      <c r="AZ18" s="144"/>
+      <c r="BA18" s="144"/>
+      <c r="BB18" s="144"/>
+      <c r="BC18" s="144"/>
+      <c r="BD18" s="151"/>
+      <c r="BE18" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF18" s="152"/>
+      <c r="BG18" s="145"/>
+      <c r="BH18" s="145"/>
+      <c r="BI18" s="145"/>
+      <c r="BJ18" s="145"/>
+      <c r="BK18" s="145"/>
+      <c r="BL18" s="145"/>
       <c r="BM18" s="61"/>
-      <c r="BN18" s="394"/>
+      <c r="BN18" s="133"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
@@ -10372,31 +10414,31 @@
         <v>15</v>
       </c>
       <c r="AR19" s="64"/>
-      <c r="AS19" s="182" t="s">
+      <c r="AS19" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="AT19" s="183"/>
-      <c r="AU19" s="183"/>
-      <c r="AV19" s="183"/>
-      <c r="AW19" s="183"/>
-      <c r="AX19" s="183"/>
-      <c r="AY19" s="183"/>
-      <c r="AZ19" s="183"/>
-      <c r="BA19" s="183"/>
-      <c r="BB19" s="183"/>
-      <c r="BC19" s="183"/>
-      <c r="BD19" s="184"/>
-      <c r="BE19" s="182" t="s">
+      <c r="AT19" s="223"/>
+      <c r="AU19" s="223"/>
+      <c r="AV19" s="223"/>
+      <c r="AW19" s="223"/>
+      <c r="AX19" s="223"/>
+      <c r="AY19" s="223"/>
+      <c r="AZ19" s="223"/>
+      <c r="BA19" s="223"/>
+      <c r="BB19" s="223"/>
+      <c r="BC19" s="223"/>
+      <c r="BD19" s="224"/>
+      <c r="BE19" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="BF19" s="183"/>
-      <c r="BG19" s="183"/>
-      <c r="BH19" s="183"/>
-      <c r="BI19" s="183"/>
-      <c r="BJ19" s="183"/>
-      <c r="BK19" s="183"/>
-      <c r="BL19" s="183"/>
-      <c r="BM19" s="184"/>
+      <c r="BF19" s="223"/>
+      <c r="BG19" s="223"/>
+      <c r="BH19" s="223"/>
+      <c r="BI19" s="223"/>
+      <c r="BJ19" s="223"/>
+      <c r="BK19" s="223"/>
+      <c r="BL19" s="223"/>
+      <c r="BM19" s="224"/>
       <c r="BN19" s="30"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10441,35 +10483,37 @@
       <c r="AM20" s="29"/>
       <c r="AN20" s="29"/>
       <c r="AO20" s="29"/>
-      <c r="AP20" s="416" t="s">
+      <c r="AP20" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="AQ20" s="408"/>
-      <c r="AR20" s="409"/>
-      <c r="AS20" s="407" t="s">
+      <c r="AQ20" s="231"/>
+      <c r="AR20" s="232"/>
+      <c r="AS20" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="AT20" s="403"/>
-      <c r="AU20" s="403"/>
-      <c r="AV20" s="403"/>
-      <c r="AW20" s="403"/>
-      <c r="AX20" s="403"/>
-      <c r="AY20" s="403"/>
-      <c r="AZ20" s="403"/>
-      <c r="BA20" s="403"/>
-      <c r="BB20" s="403"/>
-      <c r="BC20" s="403"/>
-      <c r="BD20" s="404"/>
-      <c r="BE20" s="402"/>
-      <c r="BF20" s="403"/>
-      <c r="BG20" s="403"/>
-      <c r="BH20" s="403"/>
-      <c r="BI20" s="403"/>
-      <c r="BJ20" s="403"/>
-      <c r="BK20" s="403"/>
-      <c r="BL20" s="403"/>
-      <c r="BM20" s="404"/>
-      <c r="BN20" s="394"/>
+      <c r="AT20" s="142"/>
+      <c r="AU20" s="142"/>
+      <c r="AV20" s="142"/>
+      <c r="AW20" s="142"/>
+      <c r="AX20" s="142"/>
+      <c r="AY20" s="142"/>
+      <c r="AZ20" s="142"/>
+      <c r="BA20" s="142"/>
+      <c r="BB20" s="142"/>
+      <c r="BC20" s="142"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF20" s="144"/>
+      <c r="BG20" s="142"/>
+      <c r="BH20" s="142"/>
+      <c r="BI20" s="142"/>
+      <c r="BJ20" s="142"/>
+      <c r="BK20" s="142"/>
+      <c r="BL20" s="142"/>
+      <c r="BM20" s="143"/>
+      <c r="BN20" s="133"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28"/>
@@ -10513,35 +10557,37 @@
       <c r="AM21" s="29"/>
       <c r="AN21" s="29"/>
       <c r="AO21" s="29"/>
-      <c r="AP21" s="416" t="s">
+      <c r="AP21" s="225" t="s">
         <v>141</v>
       </c>
-      <c r="AQ21" s="408"/>
-      <c r="AR21" s="409"/>
-      <c r="AS21" s="407" t="s">
+      <c r="AQ21" s="231"/>
+      <c r="AR21" s="232"/>
+      <c r="AS21" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="AT21" s="403"/>
-      <c r="AU21" s="403"/>
-      <c r="AV21" s="403"/>
-      <c r="AW21" s="403"/>
-      <c r="AX21" s="403"/>
-      <c r="AY21" s="403"/>
-      <c r="AZ21" s="403"/>
-      <c r="BA21" s="403"/>
-      <c r="BB21" s="403"/>
-      <c r="BC21" s="403"/>
-      <c r="BD21" s="404"/>
-      <c r="BE21" s="402"/>
-      <c r="BF21" s="403"/>
-      <c r="BG21" s="403"/>
-      <c r="BH21" s="403"/>
-      <c r="BI21" s="403"/>
-      <c r="BJ21" s="403"/>
-      <c r="BK21" s="403"/>
-      <c r="BL21" s="403"/>
-      <c r="BM21" s="404"/>
-      <c r="BN21" s="394"/>
+      <c r="AT21" s="142"/>
+      <c r="AU21" s="142"/>
+      <c r="AV21" s="142"/>
+      <c r="AW21" s="142"/>
+      <c r="AX21" s="142"/>
+      <c r="AY21" s="142"/>
+      <c r="AZ21" s="142"/>
+      <c r="BA21" s="142"/>
+      <c r="BB21" s="142"/>
+      <c r="BC21" s="142"/>
+      <c r="BD21" s="150"/>
+      <c r="BE21" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF21" s="141"/>
+      <c r="BG21" s="142"/>
+      <c r="BH21" s="142"/>
+      <c r="BI21" s="142"/>
+      <c r="BJ21" s="142"/>
+      <c r="BK21" s="142"/>
+      <c r="BL21" s="142"/>
+      <c r="BM21" s="143"/>
+      <c r="BN21" s="133"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="28"/>
@@ -10585,36 +10631,36 @@
       <c r="AM22" s="29"/>
       <c r="AN22" s="29"/>
       <c r="AO22" s="29"/>
-      <c r="AP22" s="416" t="s">
+      <c r="AP22" s="225" t="s">
         <v>142</v>
       </c>
-      <c r="AQ22" s="185"/>
-      <c r="AR22" s="186"/>
-      <c r="AS22" s="187" t="s">
+      <c r="AQ22" s="226"/>
+      <c r="AR22" s="227"/>
+      <c r="AS22" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="AT22" s="188"/>
-      <c r="AU22" s="188"/>
-      <c r="AV22" s="188"/>
-      <c r="AW22" s="188"/>
-      <c r="AX22" s="188"/>
-      <c r="AY22" s="188"/>
-      <c r="AZ22" s="188"/>
-      <c r="BA22" s="188"/>
-      <c r="BB22" s="188"/>
-      <c r="BC22" s="188"/>
-      <c r="BD22" s="189"/>
-      <c r="BE22" s="187" t="s">
+      <c r="AT22" s="229"/>
+      <c r="AU22" s="229"/>
+      <c r="AV22" s="229"/>
+      <c r="AW22" s="229"/>
+      <c r="AX22" s="229"/>
+      <c r="AY22" s="229"/>
+      <c r="AZ22" s="229"/>
+      <c r="BA22" s="229"/>
+      <c r="BB22" s="229"/>
+      <c r="BC22" s="229"/>
+      <c r="BD22" s="230"/>
+      <c r="BE22" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="BF22" s="188"/>
-      <c r="BG22" s="188"/>
-      <c r="BH22" s="188"/>
-      <c r="BI22" s="188"/>
-      <c r="BJ22" s="188"/>
-      <c r="BK22" s="188"/>
-      <c r="BL22" s="188"/>
-      <c r="BM22" s="189"/>
+      <c r="BF22" s="229"/>
+      <c r="BG22" s="229"/>
+      <c r="BH22" s="229"/>
+      <c r="BI22" s="229"/>
+      <c r="BJ22" s="229"/>
+      <c r="BK22" s="229"/>
+      <c r="BL22" s="229"/>
+      <c r="BM22" s="230"/>
       <c r="BN22" s="30"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10936,8 +10982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BK22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -11268,34 +11314,34 @@
       <c r="BK1" s="21"/>
     </row>
     <row r="2" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="264"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -11320,32 +11366,32 @@
       <c r="BK2" s="26"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="216"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
+      <c r="A3" s="263"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
@@ -11370,160 +11416,160 @@
       <c r="BK3" s="25"/>
     </row>
     <row r="4" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="263" t="s">
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="313" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="265"/>
-      <c r="O4" s="266" t="s">
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
-      <c r="U4" s="269" t="s">
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="318"/>
+      <c r="U4" s="319" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="270"/>
-      <c r="W4" s="270"/>
-      <c r="X4" s="270"/>
-      <c r="Y4" s="270"/>
-      <c r="Z4" s="270"/>
-      <c r="AA4" s="270"/>
-      <c r="AB4" s="270"/>
-      <c r="AC4" s="270"/>
-      <c r="AD4" s="270"/>
-      <c r="AE4" s="270"/>
-      <c r="AF4" s="270"/>
-      <c r="AG4" s="270"/>
-      <c r="AH4" s="270"/>
-      <c r="AI4" s="270"/>
-      <c r="AJ4" s="270"/>
-      <c r="AK4" s="270"/>
-      <c r="AL4" s="270"/>
-      <c r="AM4" s="270"/>
-      <c r="AN4" s="270"/>
-      <c r="AO4" s="270"/>
-      <c r="AP4" s="270"/>
-      <c r="AQ4" s="270"/>
-      <c r="AR4" s="270"/>
-      <c r="AS4" s="270"/>
-      <c r="AT4" s="270"/>
-      <c r="AU4" s="271"/>
-      <c r="AV4" s="235" t="s">
+      <c r="V4" s="320"/>
+      <c r="W4" s="320"/>
+      <c r="X4" s="320"/>
+      <c r="Y4" s="320"/>
+      <c r="Z4" s="320"/>
+      <c r="AA4" s="320"/>
+      <c r="AB4" s="320"/>
+      <c r="AC4" s="320"/>
+      <c r="AD4" s="320"/>
+      <c r="AE4" s="320"/>
+      <c r="AF4" s="320"/>
+      <c r="AG4" s="320"/>
+      <c r="AH4" s="320"/>
+      <c r="AI4" s="320"/>
+      <c r="AJ4" s="320"/>
+      <c r="AK4" s="320"/>
+      <c r="AL4" s="320"/>
+      <c r="AM4" s="320"/>
+      <c r="AN4" s="320"/>
+      <c r="AO4" s="320"/>
+      <c r="AP4" s="320"/>
+      <c r="AQ4" s="320"/>
+      <c r="AR4" s="320"/>
+      <c r="AS4" s="320"/>
+      <c r="AT4" s="320"/>
+      <c r="AU4" s="321"/>
+      <c r="AV4" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="236"/>
-      <c r="AX4" s="237"/>
-      <c r="AY4" s="238">
+      <c r="AW4" s="286"/>
+      <c r="AX4" s="287"/>
+      <c r="AY4" s="288">
         <v>45425</v>
       </c>
-      <c r="AZ4" s="239"/>
-      <c r="BA4" s="239"/>
-      <c r="BB4" s="239"/>
-      <c r="BC4" s="239"/>
-      <c r="BD4" s="239"/>
-      <c r="BE4" s="240" t="s">
+      <c r="AZ4" s="289"/>
+      <c r="BA4" s="289"/>
+      <c r="BB4" s="289"/>
+      <c r="BC4" s="289"/>
+      <c r="BD4" s="289"/>
+      <c r="BE4" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="BF4" s="241"/>
-      <c r="BG4" s="242"/>
-      <c r="BH4" s="243" t="s">
+      <c r="BF4" s="291"/>
+      <c r="BG4" s="292"/>
+      <c r="BH4" s="293" t="s">
         <v>55</v>
       </c>
-      <c r="BI4" s="244"/>
-      <c r="BJ4" s="244"/>
-      <c r="BK4" s="245"/>
+      <c r="BI4" s="294"/>
+      <c r="BJ4" s="294"/>
+      <c r="BK4" s="295"/>
     </row>
     <row r="5" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="249" t="s">
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="246" t="s">
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="300"/>
+      <c r="O5" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="248"/>
-      <c r="U5" s="251"/>
-      <c r="V5" s="252"/>
-      <c r="W5" s="252"/>
-      <c r="X5" s="252"/>
-      <c r="Y5" s="252"/>
-      <c r="Z5" s="252"/>
-      <c r="AA5" s="252"/>
-      <c r="AB5" s="252"/>
-      <c r="AC5" s="252"/>
-      <c r="AD5" s="252"/>
-      <c r="AE5" s="252"/>
-      <c r="AF5" s="252"/>
-      <c r="AG5" s="252"/>
-      <c r="AH5" s="252"/>
-      <c r="AI5" s="252"/>
-      <c r="AJ5" s="252"/>
-      <c r="AK5" s="252"/>
-      <c r="AL5" s="252"/>
-      <c r="AM5" s="252"/>
-      <c r="AN5" s="252"/>
-      <c r="AO5" s="252"/>
-      <c r="AP5" s="252"/>
-      <c r="AQ5" s="252"/>
-      <c r="AR5" s="252"/>
-      <c r="AS5" s="252"/>
-      <c r="AT5" s="252"/>
-      <c r="AU5" s="253"/>
-      <c r="AV5" s="254" t="s">
+      <c r="P5" s="297"/>
+      <c r="Q5" s="297"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="298"/>
+      <c r="U5" s="301"/>
+      <c r="V5" s="302"/>
+      <c r="W5" s="302"/>
+      <c r="X5" s="302"/>
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="302"/>
+      <c r="AA5" s="302"/>
+      <c r="AB5" s="302"/>
+      <c r="AC5" s="302"/>
+      <c r="AD5" s="302"/>
+      <c r="AE5" s="302"/>
+      <c r="AF5" s="302"/>
+      <c r="AG5" s="302"/>
+      <c r="AH5" s="302"/>
+      <c r="AI5" s="302"/>
+      <c r="AJ5" s="302"/>
+      <c r="AK5" s="302"/>
+      <c r="AL5" s="302"/>
+      <c r="AM5" s="302"/>
+      <c r="AN5" s="302"/>
+      <c r="AO5" s="302"/>
+      <c r="AP5" s="302"/>
+      <c r="AQ5" s="302"/>
+      <c r="AR5" s="302"/>
+      <c r="AS5" s="302"/>
+      <c r="AT5" s="302"/>
+      <c r="AU5" s="303"/>
+      <c r="AV5" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="255"/>
-      <c r="AX5" s="256"/>
-      <c r="AY5" s="255"/>
-      <c r="AZ5" s="255"/>
-      <c r="BA5" s="255"/>
-      <c r="BB5" s="255"/>
-      <c r="BC5" s="255"/>
-      <c r="BD5" s="255"/>
-      <c r="BE5" s="257" t="s">
+      <c r="AW5" s="305"/>
+      <c r="AX5" s="306"/>
+      <c r="AY5" s="305"/>
+      <c r="AZ5" s="305"/>
+      <c r="BA5" s="305"/>
+      <c r="BB5" s="305"/>
+      <c r="BC5" s="305"/>
+      <c r="BD5" s="305"/>
+      <c r="BE5" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="258"/>
-      <c r="BG5" s="259"/>
-      <c r="BH5" s="258"/>
-      <c r="BI5" s="244"/>
-      <c r="BJ5" s="244"/>
-      <c r="BK5" s="245"/>
+      <c r="BF5" s="308"/>
+      <c r="BG5" s="309"/>
+      <c r="BH5" s="308"/>
+      <c r="BI5" s="294"/>
+      <c r="BJ5" s="294"/>
+      <c r="BK5" s="295"/>
     </row>
     <row r="6" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
@@ -11565,96 +11611,96 @@
       <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
       <c r="AM6" s="33"/>
-      <c r="AN6" s="233"/>
-      <c r="AO6" s="234"/>
-      <c r="AP6" s="234"/>
-      <c r="AQ6" s="233"/>
-      <c r="AR6" s="233"/>
-      <c r="AS6" s="233"/>
-      <c r="AT6" s="233"/>
-      <c r="AU6" s="233"/>
-      <c r="AV6" s="233"/>
-      <c r="AW6" s="233"/>
-      <c r="AX6" s="233"/>
-      <c r="AY6" s="233"/>
-      <c r="AZ6" s="233"/>
-      <c r="BA6" s="233"/>
-      <c r="BB6" s="233"/>
-      <c r="BC6" s="233"/>
-      <c r="BD6" s="234"/>
-      <c r="BE6" s="234"/>
-      <c r="BF6" s="234"/>
-      <c r="BG6" s="234"/>
-      <c r="BH6" s="234"/>
-      <c r="BI6" s="234"/>
-      <c r="BJ6" s="234"/>
-      <c r="BK6" s="234"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="284"/>
+      <c r="AP6" s="284"/>
+      <c r="AQ6" s="283"/>
+      <c r="AR6" s="283"/>
+      <c r="AS6" s="283"/>
+      <c r="AT6" s="283"/>
+      <c r="AU6" s="283"/>
+      <c r="AV6" s="283"/>
+      <c r="AW6" s="283"/>
+      <c r="AX6" s="283"/>
+      <c r="AY6" s="283"/>
+      <c r="AZ6" s="283"/>
+      <c r="BA6" s="283"/>
+      <c r="BB6" s="283"/>
+      <c r="BC6" s="283"/>
+      <c r="BD6" s="284"/>
+      <c r="BE6" s="284"/>
+      <c r="BF6" s="284"/>
+      <c r="BG6" s="284"/>
+      <c r="BH6" s="284"/>
+      <c r="BI6" s="284"/>
+      <c r="BJ6" s="284"/>
+      <c r="BK6" s="284"/>
     </row>
     <row r="7" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="C7" s="230" t="s">
+      <c r="C7" s="280" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="231"/>
-      <c r="U7" s="231"/>
-      <c r="V7" s="231"/>
-      <c r="W7" s="231"/>
-      <c r="X7" s="231"/>
-      <c r="Y7" s="231"/>
-      <c r="Z7" s="231"/>
-      <c r="AA7" s="231"/>
-      <c r="AB7" s="231"/>
-      <c r="AC7" s="231"/>
-      <c r="AD7" s="231"/>
-      <c r="AE7" s="231"/>
-      <c r="AF7" s="231"/>
-      <c r="AG7" s="231"/>
-      <c r="AH7" s="231"/>
-      <c r="AI7" s="231"/>
-      <c r="AJ7" s="231"/>
-      <c r="AK7" s="231"/>
-      <c r="AL7" s="231"/>
-      <c r="AM7" s="231"/>
-      <c r="AN7" s="231"/>
-      <c r="AO7" s="231"/>
-      <c r="AP7" s="231"/>
-      <c r="AQ7" s="231"/>
-      <c r="AR7" s="231"/>
-      <c r="AS7" s="231"/>
-      <c r="AT7" s="231"/>
-      <c r="AU7" s="231"/>
-      <c r="AV7" s="231"/>
-      <c r="AW7" s="231"/>
-      <c r="AX7" s="231"/>
-      <c r="AY7" s="231"/>
-      <c r="AZ7" s="231"/>
-      <c r="BA7" s="231"/>
-      <c r="BB7" s="231"/>
-      <c r="BC7" s="231"/>
-      <c r="BD7" s="231"/>
-      <c r="BE7" s="231"/>
-      <c r="BF7" s="231"/>
-      <c r="BG7" s="231"/>
-      <c r="BH7" s="231"/>
-      <c r="BI7" s="231"/>
-      <c r="BJ7" s="231"/>
-      <c r="BK7" s="232"/>
+      <c r="D7" s="281"/>
+      <c r="E7" s="281"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
+      <c r="AJ7" s="281"/>
+      <c r="AK7" s="281"/>
+      <c r="AL7" s="281"/>
+      <c r="AM7" s="281"/>
+      <c r="AN7" s="281"/>
+      <c r="AO7" s="281"/>
+      <c r="AP7" s="281"/>
+      <c r="AQ7" s="281"/>
+      <c r="AR7" s="281"/>
+      <c r="AS7" s="281"/>
+      <c r="AT7" s="281"/>
+      <c r="AU7" s="281"/>
+      <c r="AV7" s="281"/>
+      <c r="AW7" s="281"/>
+      <c r="AX7" s="281"/>
+      <c r="AY7" s="281"/>
+      <c r="AZ7" s="281"/>
+      <c r="BA7" s="281"/>
+      <c r="BB7" s="281"/>
+      <c r="BC7" s="281"/>
+      <c r="BD7" s="281"/>
+      <c r="BE7" s="281"/>
+      <c r="BF7" s="281"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="281"/>
+      <c r="BI7" s="281"/>
+      <c r="BJ7" s="281"/>
+      <c r="BK7" s="282"/>
     </row>
     <row r="8" spans="1:63" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="73"/>
@@ -11724,7 +11770,7 @@
       <c r="A9" s="34"/>
       <c r="B9" s="36"/>
       <c r="C9" s="116"/>
-      <c r="D9" s="379" t="s">
+      <c r="D9" s="118" t="s">
         <v>125</v>
       </c>
       <c r="E9" s="37"/>
@@ -11855,757 +11901,757 @@
     <row r="11" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="230" t="s">
+      <c r="C11" s="280" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="231"/>
-      <c r="O11" s="231"/>
-      <c r="P11" s="231"/>
-      <c r="Q11" s="231"/>
-      <c r="R11" s="231"/>
-      <c r="S11" s="231"/>
-      <c r="T11" s="231"/>
-      <c r="U11" s="231"/>
-      <c r="V11" s="231"/>
-      <c r="W11" s="231"/>
-      <c r="X11" s="231"/>
-      <c r="Y11" s="231"/>
-      <c r="Z11" s="231"/>
-      <c r="AA11" s="231"/>
-      <c r="AB11" s="231"/>
-      <c r="AC11" s="231"/>
-      <c r="AD11" s="231"/>
-      <c r="AE11" s="231"/>
-      <c r="AF11" s="231"/>
-      <c r="AG11" s="231"/>
-      <c r="AH11" s="231"/>
-      <c r="AI11" s="231"/>
-      <c r="AJ11" s="231"/>
-      <c r="AK11" s="231"/>
-      <c r="AL11" s="231"/>
-      <c r="AM11" s="231"/>
-      <c r="AN11" s="231"/>
-      <c r="AO11" s="231"/>
-      <c r="AP11" s="231"/>
-      <c r="AQ11" s="231"/>
-      <c r="AR11" s="231"/>
-      <c r="AS11" s="231"/>
-      <c r="AT11" s="231"/>
-      <c r="AU11" s="231"/>
-      <c r="AV11" s="231"/>
-      <c r="AW11" s="231"/>
-      <c r="AX11" s="231"/>
-      <c r="AY11" s="231"/>
-      <c r="AZ11" s="231"/>
-      <c r="BA11" s="231"/>
-      <c r="BB11" s="231"/>
-      <c r="BC11" s="231"/>
-      <c r="BD11" s="231"/>
-      <c r="BE11" s="231"/>
-      <c r="BF11" s="231"/>
-      <c r="BG11" s="231"/>
-      <c r="BH11" s="231"/>
-      <c r="BI11" s="231"/>
-      <c r="BJ11" s="231"/>
-      <c r="BK11" s="232"/>
+      <c r="D11" s="281"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="281"/>
+      <c r="N11" s="281"/>
+      <c r="O11" s="281"/>
+      <c r="P11" s="281"/>
+      <c r="Q11" s="281"/>
+      <c r="R11" s="281"/>
+      <c r="S11" s="281"/>
+      <c r="T11" s="281"/>
+      <c r="U11" s="281"/>
+      <c r="V11" s="281"/>
+      <c r="W11" s="281"/>
+      <c r="X11" s="281"/>
+      <c r="Y11" s="281"/>
+      <c r="Z11" s="281"/>
+      <c r="AA11" s="281"/>
+      <c r="AB11" s="281"/>
+      <c r="AC11" s="281"/>
+      <c r="AD11" s="281"/>
+      <c r="AE11" s="281"/>
+      <c r="AF11" s="281"/>
+      <c r="AG11" s="281"/>
+      <c r="AH11" s="281"/>
+      <c r="AI11" s="281"/>
+      <c r="AJ11" s="281"/>
+      <c r="AK11" s="281"/>
+      <c r="AL11" s="281"/>
+      <c r="AM11" s="281"/>
+      <c r="AN11" s="281"/>
+      <c r="AO11" s="281"/>
+      <c r="AP11" s="281"/>
+      <c r="AQ11" s="281"/>
+      <c r="AR11" s="281"/>
+      <c r="AS11" s="281"/>
+      <c r="AT11" s="281"/>
+      <c r="AU11" s="281"/>
+      <c r="AV11" s="281"/>
+      <c r="AW11" s="281"/>
+      <c r="AX11" s="281"/>
+      <c r="AY11" s="281"/>
+      <c r="AZ11" s="281"/>
+      <c r="BA11" s="281"/>
+      <c r="BB11" s="281"/>
+      <c r="BC11" s="281"/>
+      <c r="BD11" s="281"/>
+      <c r="BE11" s="281"/>
+      <c r="BF11" s="281"/>
+      <c r="BG11" s="281"/>
+      <c r="BH11" s="281"/>
+      <c r="BI11" s="281"/>
+      <c r="BJ11" s="281"/>
+      <c r="BK11" s="282"/>
     </row>
     <row r="12" spans="1:63" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="390"/>
-      <c r="G12" s="390"/>
-      <c r="H12" s="390"/>
-      <c r="I12" s="390"/>
-      <c r="J12" s="390"/>
-      <c r="K12" s="390"/>
-      <c r="L12" s="390"/>
-      <c r="M12" s="390"/>
-      <c r="N12" s="390"/>
-      <c r="O12" s="390"/>
-      <c r="P12" s="390"/>
-      <c r="Q12" s="390"/>
-      <c r="R12" s="390"/>
-      <c r="S12" s="390"/>
-      <c r="T12" s="390"/>
-      <c r="U12" s="390"/>
-      <c r="V12" s="390"/>
-      <c r="W12" s="390"/>
-      <c r="X12" s="390"/>
-      <c r="Y12" s="390"/>
-      <c r="Z12" s="390"/>
-      <c r="AA12" s="390"/>
-      <c r="AB12" s="390"/>
-      <c r="AC12" s="390"/>
-      <c r="AD12" s="390"/>
-      <c r="AE12" s="390"/>
-      <c r="AF12" s="390"/>
-      <c r="AG12" s="390"/>
-      <c r="AH12" s="390"/>
-      <c r="AI12" s="390"/>
-      <c r="AJ12" s="390"/>
-      <c r="AK12" s="390"/>
-      <c r="AL12" s="390"/>
-      <c r="AM12" s="390"/>
-      <c r="AN12" s="390"/>
-      <c r="AO12" s="390"/>
-      <c r="AP12" s="390"/>
-      <c r="AQ12" s="390"/>
-      <c r="AR12" s="390"/>
-      <c r="AS12" s="390"/>
-      <c r="AT12" s="390"/>
-      <c r="AU12" s="390"/>
-      <c r="AV12" s="390"/>
-      <c r="AW12" s="390"/>
-      <c r="AX12" s="390"/>
-      <c r="AY12" s="390"/>
-      <c r="AZ12" s="390"/>
-      <c r="BA12" s="390"/>
-      <c r="BB12" s="390"/>
-      <c r="BC12" s="390"/>
-      <c r="BD12" s="390"/>
-      <c r="BE12" s="390"/>
-      <c r="BF12" s="390"/>
-      <c r="BG12" s="390"/>
-      <c r="BH12" s="390"/>
-      <c r="BI12" s="390"/>
-      <c r="BJ12" s="390"/>
-      <c r="BK12" s="391"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="129"/>
+      <c r="AJ12" s="129"/>
+      <c r="AK12" s="129"/>
+      <c r="AL12" s="129"/>
+      <c r="AM12" s="129"/>
+      <c r="AN12" s="129"/>
+      <c r="AO12" s="129"/>
+      <c r="AP12" s="129"/>
+      <c r="AQ12" s="129"/>
+      <c r="AR12" s="129"/>
+      <c r="AS12" s="129"/>
+      <c r="AT12" s="129"/>
+      <c r="AU12" s="129"/>
+      <c r="AV12" s="129"/>
+      <c r="AW12" s="129"/>
+      <c r="AX12" s="129"/>
+      <c r="AY12" s="129"/>
+      <c r="AZ12" s="129"/>
+      <c r="BA12" s="129"/>
+      <c r="BB12" s="129"/>
+      <c r="BC12" s="129"/>
+      <c r="BD12" s="129"/>
+      <c r="BE12" s="129"/>
+      <c r="BF12" s="129"/>
+      <c r="BG12" s="129"/>
+      <c r="BH12" s="129"/>
+      <c r="BI12" s="129"/>
+      <c r="BJ12" s="129"/>
+      <c r="BK12" s="130"/>
     </row>
     <row r="13" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="395" t="s">
+      <c r="C13" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="387" t="s">
+      <c r="D13" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="383"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="384"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="384"/>
-      <c r="J13" s="384"/>
-      <c r="K13" s="384"/>
-      <c r="L13" s="384"/>
-      <c r="M13" s="384"/>
-      <c r="N13" s="384"/>
-      <c r="O13" s="384"/>
-      <c r="P13" s="384"/>
-      <c r="Q13" s="384"/>
-      <c r="R13" s="384"/>
-      <c r="S13" s="384"/>
-      <c r="T13" s="384"/>
-      <c r="U13" s="384"/>
-      <c r="V13" s="384"/>
-      <c r="W13" s="384"/>
-      <c r="X13" s="384"/>
-      <c r="Y13" s="384"/>
-      <c r="Z13" s="384"/>
-      <c r="AA13" s="384"/>
-      <c r="AB13" s="384"/>
-      <c r="AC13" s="384"/>
-      <c r="AD13" s="384"/>
-      <c r="AE13" s="384"/>
-      <c r="AF13" s="384"/>
-      <c r="AG13" s="384"/>
-      <c r="AH13" s="384"/>
-      <c r="AI13" s="384"/>
-      <c r="AJ13" s="384"/>
-      <c r="AK13" s="384"/>
-      <c r="AL13" s="384"/>
-      <c r="AM13" s="384"/>
-      <c r="AN13" s="384"/>
-      <c r="AO13" s="385"/>
-      <c r="AP13" s="385"/>
-      <c r="AQ13" s="385"/>
-      <c r="AR13" s="385"/>
-      <c r="AS13" s="385"/>
-      <c r="AT13" s="385"/>
-      <c r="AU13" s="385"/>
-      <c r="AV13" s="385"/>
-      <c r="AW13" s="385"/>
-      <c r="AX13" s="385"/>
-      <c r="AY13" s="385"/>
-      <c r="AZ13" s="385"/>
-      <c r="BA13" s="385"/>
-      <c r="BB13" s="385"/>
-      <c r="BC13" s="385"/>
-      <c r="BD13" s="385"/>
-      <c r="BE13" s="385"/>
-      <c r="BF13" s="385"/>
-      <c r="BG13" s="385"/>
-      <c r="BH13" s="385"/>
-      <c r="BI13" s="385"/>
-      <c r="BJ13" s="385"/>
-      <c r="BK13" s="392"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="123"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="123"/>
+      <c r="AM13" s="123"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="124"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="124"/>
+      <c r="AW13" s="124"/>
+      <c r="AX13" s="124"/>
+      <c r="AY13" s="124"/>
+      <c r="AZ13" s="124"/>
+      <c r="BA13" s="124"/>
+      <c r="BB13" s="124"/>
+      <c r="BC13" s="124"/>
+      <c r="BD13" s="124"/>
+      <c r="BE13" s="124"/>
+      <c r="BF13" s="124"/>
+      <c r="BG13" s="124"/>
+      <c r="BH13" s="124"/>
+      <c r="BI13" s="124"/>
+      <c r="BJ13" s="124"/>
+      <c r="BK13" s="131"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="380"/>
-      <c r="D14" s="387" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="383"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="384"/>
-      <c r="H14" s="384"/>
-      <c r="I14" s="384"/>
-      <c r="J14" s="384"/>
-      <c r="K14" s="384"/>
-      <c r="L14" s="384"/>
-      <c r="M14" s="384"/>
-      <c r="N14" s="384"/>
-      <c r="O14" s="384"/>
-      <c r="P14" s="384"/>
-      <c r="Q14" s="384"/>
-      <c r="R14" s="384"/>
-      <c r="S14" s="384"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="384"/>
-      <c r="V14" s="384"/>
-      <c r="W14" s="384"/>
-      <c r="X14" s="384"/>
-      <c r="Y14" s="384"/>
-      <c r="Z14" s="384"/>
-      <c r="AA14" s="384"/>
-      <c r="AB14" s="384"/>
-      <c r="AC14" s="384"/>
-      <c r="AD14" s="384"/>
-      <c r="AE14" s="384"/>
-      <c r="AF14" s="384"/>
-      <c r="AG14" s="384"/>
-      <c r="AH14" s="384"/>
-      <c r="AI14" s="384"/>
-      <c r="AJ14" s="384"/>
-      <c r="AK14" s="384"/>
-      <c r="AL14" s="384"/>
-      <c r="AM14" s="384"/>
-      <c r="AN14" s="384"/>
-      <c r="AO14" s="384"/>
-      <c r="AP14" s="384"/>
-      <c r="AQ14" s="384"/>
-      <c r="AR14" s="384"/>
-      <c r="AS14" s="384"/>
-      <c r="AT14" s="384"/>
-      <c r="AU14" s="384"/>
-      <c r="AV14" s="384"/>
-      <c r="AW14" s="384"/>
-      <c r="AX14" s="384"/>
-      <c r="AY14" s="384"/>
-      <c r="AZ14" s="384"/>
-      <c r="BA14" s="384"/>
-      <c r="BB14" s="384"/>
-      <c r="BC14" s="384"/>
-      <c r="BD14" s="384"/>
-      <c r="BE14" s="384"/>
-      <c r="BF14" s="384"/>
-      <c r="BG14" s="384"/>
-      <c r="BH14" s="384"/>
-      <c r="BI14" s="384"/>
-      <c r="BJ14" s="384"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="123"/>
+      <c r="AO14" s="123"/>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="123"/>
+      <c r="AR14" s="123"/>
+      <c r="AS14" s="123"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="123"/>
+      <c r="AV14" s="123"/>
+      <c r="AW14" s="123"/>
+      <c r="AX14" s="123"/>
+      <c r="AY14" s="123"/>
+      <c r="AZ14" s="123"/>
+      <c r="BA14" s="123"/>
+      <c r="BB14" s="123"/>
+      <c r="BC14" s="123"/>
+      <c r="BD14" s="123"/>
+      <c r="BE14" s="123"/>
+      <c r="BF14" s="123"/>
+      <c r="BG14" s="123"/>
+      <c r="BH14" s="123"/>
+      <c r="BI14" s="123"/>
+      <c r="BJ14" s="123"/>
       <c r="BK14" s="117"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="C15" s="381"/>
-      <c r="D15" s="384"/>
-      <c r="E15" s="384"/>
-      <c r="F15" s="384"/>
-      <c r="G15" s="384"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="384"/>
-      <c r="J15" s="384"/>
-      <c r="K15" s="384"/>
-      <c r="L15" s="384"/>
-      <c r="M15" s="384"/>
-      <c r="N15" s="384"/>
-      <c r="O15" s="384"/>
-      <c r="P15" s="384"/>
-      <c r="Q15" s="384"/>
-      <c r="R15" s="384"/>
-      <c r="S15" s="384"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="384"/>
-      <c r="V15" s="384"/>
-      <c r="W15" s="384"/>
-      <c r="X15" s="384"/>
-      <c r="Y15" s="384"/>
-      <c r="Z15" s="384"/>
-      <c r="AA15" s="384"/>
-      <c r="AB15" s="384"/>
-      <c r="AC15" s="384"/>
-      <c r="AD15" s="384"/>
-      <c r="AE15" s="384"/>
-      <c r="AF15" s="384"/>
-      <c r="AG15" s="384"/>
-      <c r="AH15" s="384"/>
-      <c r="AI15" s="384"/>
-      <c r="AJ15" s="384"/>
-      <c r="AK15" s="384"/>
-      <c r="AL15" s="384"/>
-      <c r="AM15" s="384"/>
-      <c r="AN15" s="384"/>
-      <c r="AO15" s="386"/>
-      <c r="AP15" s="386"/>
-      <c r="AQ15" s="386"/>
-      <c r="AR15" s="386"/>
-      <c r="AS15" s="386"/>
-      <c r="AT15" s="386"/>
-      <c r="AU15" s="386"/>
-      <c r="AV15" s="386"/>
-      <c r="AW15" s="386"/>
-      <c r="AX15" s="386"/>
-      <c r="AY15" s="386"/>
-      <c r="AZ15" s="386"/>
-      <c r="BA15" s="386"/>
-      <c r="BB15" s="386"/>
-      <c r="BC15" s="386"/>
-      <c r="BD15" s="386"/>
-      <c r="BE15" s="386"/>
-      <c r="BF15" s="386"/>
-      <c r="BG15" s="386"/>
-      <c r="BH15" s="386"/>
-      <c r="BI15" s="386"/>
-      <c r="BJ15" s="386"/>
-      <c r="BK15" s="393"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
+      <c r="AQ15" s="125"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="125"/>
+      <c r="AV15" s="125"/>
+      <c r="AW15" s="125"/>
+      <c r="AX15" s="125"/>
+      <c r="AY15" s="125"/>
+      <c r="AZ15" s="125"/>
+      <c r="BA15" s="125"/>
+      <c r="BB15" s="125"/>
+      <c r="BC15" s="125"/>
+      <c r="BD15" s="125"/>
+      <c r="BE15" s="125"/>
+      <c r="BF15" s="125"/>
+      <c r="BG15" s="125"/>
+      <c r="BH15" s="125"/>
+      <c r="BI15" s="125"/>
+      <c r="BJ15" s="125"/>
+      <c r="BK15" s="132"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C16" s="382" t="s">
+      <c r="C16" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="387" t="s">
+      <c r="D16" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="396"/>
-      <c r="F16" s="396"/>
-      <c r="G16" s="396"/>
-      <c r="H16" s="396"/>
-      <c r="I16" s="396"/>
-      <c r="J16" s="396"/>
-      <c r="K16" s="396"/>
-      <c r="L16" s="396"/>
-      <c r="M16" s="396"/>
-      <c r="N16" s="396"/>
-      <c r="O16" s="396"/>
-      <c r="P16" s="396"/>
-      <c r="Q16" s="396"/>
-      <c r="R16" s="396"/>
-      <c r="S16" s="396"/>
-      <c r="T16" s="396"/>
-      <c r="U16" s="396"/>
-      <c r="V16" s="396"/>
-      <c r="W16" s="396"/>
-      <c r="X16" s="396"/>
-      <c r="Y16" s="396"/>
-      <c r="Z16" s="396"/>
-      <c r="AA16" s="396"/>
-      <c r="AB16" s="396"/>
-      <c r="AC16" s="396"/>
-      <c r="AD16" s="396"/>
-      <c r="AE16" s="396"/>
-      <c r="AF16" s="396"/>
-      <c r="AG16" s="396"/>
-      <c r="AH16" s="384"/>
-      <c r="AI16" s="384"/>
-      <c r="AJ16" s="384"/>
-      <c r="AK16" s="384"/>
-      <c r="AL16" s="384"/>
-      <c r="AM16" s="384"/>
-      <c r="AN16" s="384"/>
-      <c r="AO16" s="388"/>
-      <c r="AP16" s="388"/>
-      <c r="AQ16" s="388"/>
-      <c r="AR16" s="388"/>
-      <c r="AS16" s="388"/>
-      <c r="AT16" s="388"/>
-      <c r="AU16" s="388"/>
-      <c r="AV16" s="388"/>
-      <c r="AW16" s="388"/>
-      <c r="AX16" s="388"/>
-      <c r="AY16" s="388"/>
-      <c r="AZ16" s="388"/>
-      <c r="BA16" s="388"/>
-      <c r="BB16" s="388"/>
-      <c r="BC16" s="388"/>
-      <c r="BD16" s="388"/>
-      <c r="BE16" s="388"/>
-      <c r="BF16" s="388"/>
-      <c r="BG16" s="388"/>
-      <c r="BH16" s="388"/>
-      <c r="BI16" s="388"/>
-      <c r="BJ16" s="388"/>
-      <c r="BK16" s="394"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="135"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="123"/>
+      <c r="AJ16" s="123"/>
+      <c r="AK16" s="123"/>
+      <c r="AL16" s="123"/>
+      <c r="AM16" s="123"/>
+      <c r="AN16" s="123"/>
+      <c r="AO16" s="127"/>
+      <c r="AP16" s="127"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="127"/>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="127"/>
+      <c r="BA16" s="127"/>
+      <c r="BB16" s="127"/>
+      <c r="BC16" s="127"/>
+      <c r="BD16" s="127"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
+      <c r="BG16" s="127"/>
+      <c r="BH16" s="127"/>
+      <c r="BI16" s="127"/>
+      <c r="BJ16" s="127"/>
+      <c r="BK16" s="133"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C17" s="382"/>
-      <c r="D17" s="387" t="s">
+      <c r="C17" s="121"/>
+      <c r="D17" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="396"/>
-      <c r="G17" s="396"/>
-      <c r="H17" s="396"/>
-      <c r="I17" s="396"/>
-      <c r="J17" s="396"/>
-      <c r="K17" s="396"/>
-      <c r="L17" s="396"/>
-      <c r="M17" s="396"/>
-      <c r="N17" s="396"/>
-      <c r="O17" s="396"/>
-      <c r="P17" s="396"/>
-      <c r="Q17" s="396"/>
-      <c r="R17" s="396"/>
-      <c r="S17" s="396"/>
-      <c r="T17" s="396"/>
-      <c r="U17" s="396"/>
-      <c r="V17" s="396"/>
-      <c r="W17" s="396"/>
-      <c r="X17" s="396"/>
-      <c r="Y17" s="396"/>
-      <c r="Z17" s="396"/>
-      <c r="AA17" s="396"/>
-      <c r="AB17" s="396"/>
-      <c r="AC17" s="396"/>
-      <c r="AD17" s="396"/>
-      <c r="AE17" s="396"/>
-      <c r="AF17" s="396"/>
-      <c r="AG17" s="396"/>
-      <c r="AH17" s="384"/>
-      <c r="AI17" s="384"/>
-      <c r="AJ17" s="384"/>
-      <c r="AK17" s="384"/>
-      <c r="AL17" s="384"/>
-      <c r="AM17" s="384"/>
-      <c r="AN17" s="384"/>
-      <c r="AO17" s="388"/>
-      <c r="AP17" s="388"/>
-      <c r="AQ17" s="388"/>
-      <c r="AR17" s="388"/>
-      <c r="AS17" s="388"/>
-      <c r="AT17" s="388"/>
-      <c r="AU17" s="388"/>
-      <c r="AV17" s="388"/>
-      <c r="AW17" s="388"/>
-      <c r="AX17" s="388"/>
-      <c r="AY17" s="388"/>
-      <c r="AZ17" s="388"/>
-      <c r="BA17" s="388"/>
-      <c r="BB17" s="388"/>
-      <c r="BC17" s="388"/>
-      <c r="BD17" s="388"/>
-      <c r="BE17" s="388"/>
-      <c r="BF17" s="388"/>
-      <c r="BG17" s="388"/>
-      <c r="BH17" s="388"/>
-      <c r="BI17" s="388"/>
-      <c r="BJ17" s="388"/>
-      <c r="BK17" s="394"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="123"/>
+      <c r="AJ17" s="123"/>
+      <c r="AK17" s="123"/>
+      <c r="AL17" s="123"/>
+      <c r="AM17" s="123"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="127"/>
+      <c r="AP17" s="127"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="127"/>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
+      <c r="BI17" s="127"/>
+      <c r="BJ17" s="127"/>
+      <c r="BK17" s="133"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C18" s="397"/>
-      <c r="D18" s="398"/>
-      <c r="E18" s="398"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="398"/>
-      <c r="H18" s="398"/>
-      <c r="I18" s="398"/>
-      <c r="J18" s="398"/>
-      <c r="K18" s="398"/>
-      <c r="L18" s="398"/>
-      <c r="M18" s="398"/>
-      <c r="N18" s="398"/>
-      <c r="O18" s="398"/>
-      <c r="P18" s="398"/>
-      <c r="Q18" s="398"/>
-      <c r="R18" s="398"/>
-      <c r="S18" s="398"/>
-      <c r="T18" s="398"/>
-      <c r="U18" s="398"/>
-      <c r="V18" s="398"/>
-      <c r="W18" s="398"/>
-      <c r="X18" s="398"/>
-      <c r="Y18" s="398"/>
-      <c r="Z18" s="398"/>
-      <c r="AA18" s="398"/>
-      <c r="AB18" s="398"/>
-      <c r="AC18" s="398"/>
-      <c r="AD18" s="398"/>
-      <c r="AE18" s="398"/>
-      <c r="AF18" s="398"/>
-      <c r="AG18" s="398"/>
-      <c r="AH18" s="386"/>
-      <c r="AI18" s="386"/>
-      <c r="AJ18" s="386"/>
-      <c r="AK18" s="386"/>
-      <c r="AL18" s="386"/>
-      <c r="AM18" s="386"/>
-      <c r="AN18" s="386"/>
-      <c r="AO18" s="388"/>
-      <c r="AP18" s="388"/>
-      <c r="AQ18" s="388"/>
-      <c r="AR18" s="388"/>
-      <c r="AS18" s="388"/>
-      <c r="AT18" s="388"/>
-      <c r="AU18" s="388"/>
-      <c r="AV18" s="388"/>
-      <c r="AW18" s="388"/>
-      <c r="AX18" s="388"/>
-      <c r="AY18" s="388"/>
-      <c r="AZ18" s="388"/>
-      <c r="BA18" s="388"/>
-      <c r="BB18" s="388"/>
-      <c r="BC18" s="388"/>
-      <c r="BD18" s="388"/>
-      <c r="BE18" s="388"/>
-      <c r="BF18" s="388"/>
-      <c r="BG18" s="388"/>
-      <c r="BH18" s="388"/>
-      <c r="BI18" s="388"/>
-      <c r="BJ18" s="388"/>
-      <c r="BK18" s="394"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="125"/>
+      <c r="AJ18" s="125"/>
+      <c r="AK18" s="125"/>
+      <c r="AL18" s="125"/>
+      <c r="AM18" s="125"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="127"/>
+      <c r="AP18" s="127"/>
+      <c r="AQ18" s="127"/>
+      <c r="AR18" s="127"/>
+      <c r="AS18" s="127"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="127"/>
+      <c r="AV18" s="127"/>
+      <c r="AW18" s="127"/>
+      <c r="AX18" s="127"/>
+      <c r="AY18" s="127"/>
+      <c r="AZ18" s="127"/>
+      <c r="BA18" s="127"/>
+      <c r="BB18" s="127"/>
+      <c r="BC18" s="127"/>
+      <c r="BD18" s="127"/>
+      <c r="BE18" s="127"/>
+      <c r="BF18" s="127"/>
+      <c r="BG18" s="127"/>
+      <c r="BH18" s="127"/>
+      <c r="BI18" s="127"/>
+      <c r="BJ18" s="127"/>
+      <c r="BK18" s="133"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C19" s="382" t="s">
+      <c r="C19" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="387" t="s">
+      <c r="D19" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="396"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="398"/>
-      <c r="H19" s="398"/>
-      <c r="I19" s="398"/>
-      <c r="J19" s="398"/>
-      <c r="K19" s="398"/>
-      <c r="L19" s="398"/>
-      <c r="M19" s="398"/>
-      <c r="N19" s="398"/>
-      <c r="O19" s="398"/>
-      <c r="P19" s="398"/>
-      <c r="Q19" s="398"/>
-      <c r="R19" s="398"/>
-      <c r="S19" s="398"/>
-      <c r="T19" s="398"/>
-      <c r="U19" s="398"/>
-      <c r="V19" s="398"/>
-      <c r="W19" s="398"/>
-      <c r="X19" s="398"/>
-      <c r="Y19" s="398"/>
-      <c r="Z19" s="398"/>
-      <c r="AA19" s="398"/>
-      <c r="AB19" s="398"/>
-      <c r="AC19" s="398"/>
-      <c r="AD19" s="398"/>
-      <c r="AE19" s="398"/>
-      <c r="AF19" s="398"/>
-      <c r="AG19" s="398"/>
-      <c r="AH19" s="386"/>
-      <c r="AI19" s="386"/>
-      <c r="AJ19" s="386"/>
-      <c r="AK19" s="386"/>
-      <c r="AL19" s="386"/>
-      <c r="AM19" s="386"/>
-      <c r="AN19" s="386"/>
-      <c r="AO19" s="388"/>
-      <c r="AP19" s="388"/>
-      <c r="AQ19" s="388"/>
-      <c r="AR19" s="388"/>
-      <c r="AS19" s="388"/>
-      <c r="AT19" s="388"/>
-      <c r="AU19" s="388"/>
-      <c r="AV19" s="388"/>
-      <c r="AW19" s="388"/>
-      <c r="AX19" s="388"/>
-      <c r="AY19" s="388"/>
-      <c r="AZ19" s="388"/>
-      <c r="BA19" s="388"/>
-      <c r="BB19" s="388"/>
-      <c r="BC19" s="388"/>
-      <c r="BD19" s="388"/>
-      <c r="BE19" s="388"/>
-      <c r="BF19" s="388"/>
-      <c r="BG19" s="388"/>
-      <c r="BH19" s="388"/>
-      <c r="BI19" s="388"/>
-      <c r="BJ19" s="388"/>
-      <c r="BK19" s="394"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="125"/>
+      <c r="AJ19" s="125"/>
+      <c r="AK19" s="125"/>
+      <c r="AL19" s="125"/>
+      <c r="AM19" s="125"/>
+      <c r="AN19" s="125"/>
+      <c r="AO19" s="127"/>
+      <c r="AP19" s="127"/>
+      <c r="AQ19" s="127"/>
+      <c r="AR19" s="127"/>
+      <c r="AS19" s="127"/>
+      <c r="AT19" s="127"/>
+      <c r="AU19" s="127"/>
+      <c r="AV19" s="127"/>
+      <c r="AW19" s="127"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="127"/>
+      <c r="AZ19" s="127"/>
+      <c r="BA19" s="127"/>
+      <c r="BB19" s="127"/>
+      <c r="BC19" s="127"/>
+      <c r="BD19" s="127"/>
+      <c r="BE19" s="127"/>
+      <c r="BF19" s="127"/>
+      <c r="BG19" s="127"/>
+      <c r="BH19" s="127"/>
+      <c r="BI19" s="127"/>
+      <c r="BJ19" s="127"/>
+      <c r="BK19" s="133"/>
     </row>
     <row r="20" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C20" s="382"/>
-      <c r="D20" s="387" t="s">
+      <c r="C20" s="121"/>
+      <c r="D20" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="396"/>
-      <c r="F20" s="398"/>
-      <c r="G20" s="398"/>
-      <c r="H20" s="398"/>
-      <c r="I20" s="398"/>
-      <c r="J20" s="398"/>
-      <c r="K20" s="398"/>
-      <c r="L20" s="398"/>
-      <c r="M20" s="398"/>
-      <c r="N20" s="398"/>
-      <c r="O20" s="398"/>
-      <c r="P20" s="398"/>
-      <c r="Q20" s="398"/>
-      <c r="R20" s="398"/>
-      <c r="S20" s="398"/>
-      <c r="T20" s="398"/>
-      <c r="U20" s="398"/>
-      <c r="V20" s="398"/>
-      <c r="W20" s="398"/>
-      <c r="X20" s="398"/>
-      <c r="Y20" s="398"/>
-      <c r="Z20" s="398"/>
-      <c r="AA20" s="398"/>
-      <c r="AB20" s="398"/>
-      <c r="AC20" s="398"/>
-      <c r="AD20" s="398"/>
-      <c r="AE20" s="398"/>
-      <c r="AF20" s="398"/>
-      <c r="AG20" s="398"/>
-      <c r="AH20" s="386"/>
-      <c r="AI20" s="386"/>
-      <c r="AJ20" s="386"/>
-      <c r="AK20" s="386"/>
-      <c r="AL20" s="386"/>
-      <c r="AM20" s="386"/>
-      <c r="AN20" s="386"/>
-      <c r="AO20" s="388"/>
-      <c r="AP20" s="388"/>
-      <c r="AQ20" s="388"/>
-      <c r="AR20" s="388"/>
-      <c r="AS20" s="388"/>
-      <c r="AT20" s="388"/>
-      <c r="AU20" s="388"/>
-      <c r="AV20" s="388"/>
-      <c r="AW20" s="388"/>
-      <c r="AX20" s="388"/>
-      <c r="AY20" s="388"/>
-      <c r="AZ20" s="388"/>
-      <c r="BA20" s="388"/>
-      <c r="BB20" s="388"/>
-      <c r="BC20" s="388"/>
-      <c r="BD20" s="388"/>
-      <c r="BE20" s="388"/>
-      <c r="BF20" s="388"/>
-      <c r="BG20" s="388"/>
-      <c r="BH20" s="388"/>
-      <c r="BI20" s="388"/>
-      <c r="BJ20" s="388"/>
-      <c r="BK20" s="394"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="137"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="125"/>
+      <c r="AJ20" s="125"/>
+      <c r="AK20" s="125"/>
+      <c r="AL20" s="125"/>
+      <c r="AM20" s="125"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="127"/>
+      <c r="AT20" s="127"/>
+      <c r="AU20" s="127"/>
+      <c r="AV20" s="127"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="127"/>
+      <c r="BA20" s="127"/>
+      <c r="BB20" s="127"/>
+      <c r="BC20" s="127"/>
+      <c r="BD20" s="127"/>
+      <c r="BE20" s="127"/>
+      <c r="BF20" s="127"/>
+      <c r="BG20" s="127"/>
+      <c r="BH20" s="127"/>
+      <c r="BI20" s="127"/>
+      <c r="BJ20" s="127"/>
+      <c r="BK20" s="133"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C21" s="399"/>
-      <c r="D21" s="398"/>
-      <c r="E21" s="398"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="398"/>
-      <c r="H21" s="398"/>
-      <c r="I21" s="398"/>
-      <c r="J21" s="398"/>
-      <c r="K21" s="398"/>
-      <c r="L21" s="398"/>
-      <c r="M21" s="398"/>
-      <c r="N21" s="398"/>
-      <c r="O21" s="398"/>
-      <c r="P21" s="398"/>
-      <c r="Q21" s="398"/>
-      <c r="R21" s="398"/>
-      <c r="S21" s="398"/>
-      <c r="T21" s="398"/>
-      <c r="U21" s="398"/>
-      <c r="V21" s="398"/>
-      <c r="W21" s="398"/>
-      <c r="X21" s="398"/>
-      <c r="Y21" s="398"/>
-      <c r="Z21" s="398"/>
-      <c r="AA21" s="398"/>
-      <c r="AB21" s="398"/>
-      <c r="AC21" s="398"/>
-      <c r="AD21" s="398"/>
-      <c r="AE21" s="398"/>
-      <c r="AF21" s="398"/>
-      <c r="AG21" s="398"/>
-      <c r="AH21" s="386"/>
-      <c r="AI21" s="386"/>
-      <c r="AJ21" s="386"/>
-      <c r="AK21" s="386"/>
-      <c r="AL21" s="386"/>
-      <c r="AM21" s="386"/>
-      <c r="AN21" s="386"/>
-      <c r="AO21" s="388"/>
-      <c r="AP21" s="388"/>
-      <c r="AQ21" s="388"/>
-      <c r="AR21" s="388"/>
-      <c r="AS21" s="388"/>
-      <c r="AT21" s="388"/>
-      <c r="AU21" s="388"/>
-      <c r="AV21" s="388"/>
-      <c r="AW21" s="388"/>
-      <c r="AX21" s="388"/>
-      <c r="AY21" s="388"/>
-      <c r="AZ21" s="388"/>
-      <c r="BA21" s="388"/>
-      <c r="BB21" s="388"/>
-      <c r="BC21" s="388"/>
-      <c r="BD21" s="388"/>
-      <c r="BE21" s="388"/>
-      <c r="BF21" s="388"/>
-      <c r="BG21" s="388"/>
-      <c r="BH21" s="388"/>
-      <c r="BI21" s="388"/>
-      <c r="BJ21" s="388"/>
-      <c r="BK21" s="394"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="125"/>
+      <c r="AJ21" s="125"/>
+      <c r="AK21" s="125"/>
+      <c r="AL21" s="125"/>
+      <c r="AM21" s="125"/>
+      <c r="AN21" s="125"/>
+      <c r="AO21" s="127"/>
+      <c r="AP21" s="127"/>
+      <c r="AQ21" s="127"/>
+      <c r="AR21" s="127"/>
+      <c r="AS21" s="127"/>
+      <c r="AT21" s="127"/>
+      <c r="AU21" s="127"/>
+      <c r="AV21" s="127"/>
+      <c r="AW21" s="127"/>
+      <c r="AX21" s="127"/>
+      <c r="AY21" s="127"/>
+      <c r="AZ21" s="127"/>
+      <c r="BA21" s="127"/>
+      <c r="BB21" s="127"/>
+      <c r="BC21" s="127"/>
+      <c r="BD21" s="127"/>
+      <c r="BE21" s="127"/>
+      <c r="BF21" s="127"/>
+      <c r="BG21" s="127"/>
+      <c r="BH21" s="127"/>
+      <c r="BI21" s="127"/>
+      <c r="BJ21" s="127"/>
+      <c r="BK21" s="133"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.15">
-      <c r="C22" s="400"/>
-      <c r="D22" s="401"/>
-      <c r="E22" s="401"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="401"/>
-      <c r="H22" s="401"/>
-      <c r="I22" s="401"/>
-      <c r="J22" s="401"/>
-      <c r="K22" s="401"/>
-      <c r="L22" s="401"/>
-      <c r="M22" s="401"/>
-      <c r="N22" s="401"/>
-      <c r="O22" s="401"/>
-      <c r="P22" s="401"/>
-      <c r="Q22" s="401"/>
-      <c r="R22" s="401"/>
-      <c r="S22" s="401"/>
-      <c r="T22" s="401"/>
-      <c r="U22" s="401"/>
-      <c r="V22" s="401"/>
-      <c r="W22" s="401"/>
-      <c r="X22" s="401"/>
-      <c r="Y22" s="401"/>
-      <c r="Z22" s="401"/>
-      <c r="AA22" s="401"/>
-      <c r="AB22" s="401"/>
-      <c r="AC22" s="401"/>
-      <c r="AD22" s="401"/>
-      <c r="AE22" s="401"/>
-      <c r="AF22" s="401"/>
-      <c r="AG22" s="401"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="140"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="140"/>
       <c r="AH22" s="42"/>
       <c r="AI22" s="42"/>
       <c r="AJ22" s="42"/>
@@ -12671,8 +12717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="BI4" sqref="BI4:BL4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -12881,35 +12927,35 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="263" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="264"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -12935,33 +12981,33 @@
       <c r="BL2" s="26"/>
     </row>
     <row r="3" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="355"/>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="356"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
-      <c r="O3" s="356"/>
-      <c r="P3" s="356"/>
-      <c r="Q3" s="356"/>
-      <c r="R3" s="356"/>
-      <c r="S3" s="356"/>
-      <c r="T3" s="356"/>
-      <c r="U3" s="356"/>
-      <c r="V3" s="356"/>
-      <c r="W3" s="356"/>
-      <c r="X3" s="356"/>
-      <c r="Y3" s="356"/>
-      <c r="Z3" s="356"/>
-      <c r="AA3" s="356"/>
+      <c r="A3" s="405"/>
+      <c r="B3" s="406"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="406"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="406"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="406"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="406"/>
+      <c r="R3" s="406"/>
+      <c r="S3" s="406"/>
+      <c r="T3" s="406"/>
+      <c r="U3" s="406"/>
+      <c r="V3" s="406"/>
+      <c r="W3" s="406"/>
+      <c r="X3" s="406"/>
+      <c r="Y3" s="406"/>
+      <c r="Z3" s="406"/>
+      <c r="AA3" s="406"/>
       <c r="AB3" s="42"/>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
@@ -13001,402 +13047,402 @@
       <c r="BL3" s="66"/>
     </row>
     <row r="4" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="407" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="358"/>
-      <c r="D4" s="358"/>
-      <c r="E4" s="358"/>
-      <c r="F4" s="359"/>
-      <c r="G4" s="360" t="s">
+      <c r="B4" s="408"/>
+      <c r="C4" s="408"/>
+      <c r="D4" s="408"/>
+      <c r="E4" s="408"/>
+      <c r="F4" s="409"/>
+      <c r="G4" s="410" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="361"/>
-      <c r="I4" s="361"/>
-      <c r="J4" s="361"/>
-      <c r="K4" s="361"/>
-      <c r="L4" s="361"/>
-      <c r="M4" s="361"/>
-      <c r="N4" s="361"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="363" t="s">
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="411"/>
+      <c r="L4" s="411"/>
+      <c r="M4" s="411"/>
+      <c r="N4" s="411"/>
+      <c r="O4" s="412"/>
+      <c r="P4" s="413" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="364"/>
-      <c r="R4" s="364"/>
-      <c r="S4" s="364"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="365"/>
-      <c r="V4" s="366" t="s">
+      <c r="Q4" s="414"/>
+      <c r="R4" s="414"/>
+      <c r="S4" s="414"/>
+      <c r="T4" s="414"/>
+      <c r="U4" s="415"/>
+      <c r="V4" s="416" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="367"/>
-      <c r="X4" s="367"/>
-      <c r="Y4" s="367"/>
-      <c r="Z4" s="367"/>
-      <c r="AA4" s="367"/>
-      <c r="AB4" s="367"/>
-      <c r="AC4" s="367"/>
-      <c r="AD4" s="367"/>
-      <c r="AE4" s="367"/>
-      <c r="AF4" s="367"/>
-      <c r="AG4" s="367"/>
-      <c r="AH4" s="367"/>
-      <c r="AI4" s="367"/>
-      <c r="AJ4" s="367"/>
-      <c r="AK4" s="367"/>
-      <c r="AL4" s="367"/>
-      <c r="AM4" s="367"/>
-      <c r="AN4" s="367"/>
-      <c r="AO4" s="367"/>
-      <c r="AP4" s="367"/>
-      <c r="AQ4" s="367"/>
-      <c r="AR4" s="367"/>
-      <c r="AS4" s="367"/>
-      <c r="AT4" s="367"/>
-      <c r="AU4" s="367"/>
-      <c r="AV4" s="368"/>
-      <c r="AW4" s="369" t="s">
+      <c r="W4" s="417"/>
+      <c r="X4" s="417"/>
+      <c r="Y4" s="417"/>
+      <c r="Z4" s="417"/>
+      <c r="AA4" s="417"/>
+      <c r="AB4" s="417"/>
+      <c r="AC4" s="417"/>
+      <c r="AD4" s="417"/>
+      <c r="AE4" s="417"/>
+      <c r="AF4" s="417"/>
+      <c r="AG4" s="417"/>
+      <c r="AH4" s="417"/>
+      <c r="AI4" s="417"/>
+      <c r="AJ4" s="417"/>
+      <c r="AK4" s="417"/>
+      <c r="AL4" s="417"/>
+      <c r="AM4" s="417"/>
+      <c r="AN4" s="417"/>
+      <c r="AO4" s="417"/>
+      <c r="AP4" s="417"/>
+      <c r="AQ4" s="417"/>
+      <c r="AR4" s="417"/>
+      <c r="AS4" s="417"/>
+      <c r="AT4" s="417"/>
+      <c r="AU4" s="417"/>
+      <c r="AV4" s="418"/>
+      <c r="AW4" s="419" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="370"/>
-      <c r="AY4" s="371"/>
-      <c r="AZ4" s="238">
+      <c r="AX4" s="420"/>
+      <c r="AY4" s="421"/>
+      <c r="AZ4" s="288">
         <v>45425</v>
       </c>
-      <c r="BA4" s="239"/>
-      <c r="BB4" s="239"/>
-      <c r="BC4" s="239"/>
-      <c r="BD4" s="239"/>
-      <c r="BE4" s="239"/>
-      <c r="BF4" s="369" t="s">
+      <c r="BA4" s="289"/>
+      <c r="BB4" s="289"/>
+      <c r="BC4" s="289"/>
+      <c r="BD4" s="289"/>
+      <c r="BE4" s="289"/>
+      <c r="BF4" s="419" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="370"/>
-      <c r="BH4" s="372"/>
-      <c r="BI4" s="373" t="s">
+      <c r="BG4" s="420"/>
+      <c r="BH4" s="422"/>
+      <c r="BI4" s="423" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="244"/>
-      <c r="BK4" s="244"/>
-      <c r="BL4" s="245"/>
+      <c r="BJ4" s="294"/>
+      <c r="BK4" s="294"/>
+      <c r="BL4" s="295"/>
     </row>
     <row r="5" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="345" t="s">
+      <c r="A5" s="395" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="346"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="348"/>
-      <c r="P5" s="345" t="s">
+      <c r="B5" s="396"/>
+      <c r="C5" s="396"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="398"/>
+      <c r="P5" s="395" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="346"/>
-      <c r="R5" s="346"/>
-      <c r="S5" s="346"/>
-      <c r="T5" s="346"/>
-      <c r="U5" s="347"/>
-      <c r="V5" s="349"/>
-      <c r="W5" s="202"/>
-      <c r="X5" s="202"/>
-      <c r="Y5" s="202"/>
-      <c r="Z5" s="202"/>
-      <c r="AA5" s="202"/>
-      <c r="AB5" s="202"/>
-      <c r="AC5" s="202"/>
-      <c r="AD5" s="202"/>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
-      <c r="AH5" s="202"/>
-      <c r="AI5" s="202"/>
-      <c r="AJ5" s="202"/>
-      <c r="AK5" s="202"/>
-      <c r="AL5" s="202"/>
-      <c r="AM5" s="202"/>
-      <c r="AN5" s="202"/>
-      <c r="AO5" s="350"/>
-      <c r="AP5" s="350"/>
-      <c r="AQ5" s="350"/>
-      <c r="AR5" s="350"/>
-      <c r="AS5" s="350"/>
-      <c r="AT5" s="350"/>
-      <c r="AU5" s="350"/>
-      <c r="AV5" s="351"/>
-      <c r="AW5" s="352" t="s">
+      <c r="Q5" s="396"/>
+      <c r="R5" s="396"/>
+      <c r="S5" s="396"/>
+      <c r="T5" s="396"/>
+      <c r="U5" s="397"/>
+      <c r="V5" s="399"/>
+      <c r="W5" s="249"/>
+      <c r="X5" s="249"/>
+      <c r="Y5" s="249"/>
+      <c r="Z5" s="249"/>
+      <c r="AA5" s="249"/>
+      <c r="AB5" s="249"/>
+      <c r="AC5" s="249"/>
+      <c r="AD5" s="249"/>
+      <c r="AE5" s="249"/>
+      <c r="AF5" s="249"/>
+      <c r="AG5" s="249"/>
+      <c r="AH5" s="249"/>
+      <c r="AI5" s="249"/>
+      <c r="AJ5" s="249"/>
+      <c r="AK5" s="249"/>
+      <c r="AL5" s="249"/>
+      <c r="AM5" s="249"/>
+      <c r="AN5" s="249"/>
+      <c r="AO5" s="400"/>
+      <c r="AP5" s="400"/>
+      <c r="AQ5" s="400"/>
+      <c r="AR5" s="400"/>
+      <c r="AS5" s="400"/>
+      <c r="AT5" s="400"/>
+      <c r="AU5" s="400"/>
+      <c r="AV5" s="401"/>
+      <c r="AW5" s="402" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="353"/>
-      <c r="AY5" s="354"/>
-      <c r="AZ5" s="353"/>
-      <c r="BA5" s="353"/>
-      <c r="BB5" s="353"/>
-      <c r="BC5" s="353"/>
-      <c r="BD5" s="353"/>
-      <c r="BE5" s="353"/>
-      <c r="BF5" s="352" t="s">
+      <c r="AX5" s="403"/>
+      <c r="AY5" s="404"/>
+      <c r="AZ5" s="403"/>
+      <c r="BA5" s="403"/>
+      <c r="BB5" s="403"/>
+      <c r="BC5" s="403"/>
+      <c r="BD5" s="403"/>
+      <c r="BE5" s="403"/>
+      <c r="BF5" s="402" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="353"/>
-      <c r="BH5" s="353"/>
-      <c r="BI5" s="352"/>
-      <c r="BJ5" s="350"/>
-      <c r="BK5" s="350"/>
-      <c r="BL5" s="351"/>
+      <c r="BG5" s="403"/>
+      <c r="BH5" s="403"/>
+      <c r="BI5" s="402"/>
+      <c r="BJ5" s="400"/>
+      <c r="BK5" s="400"/>
+      <c r="BL5" s="401"/>
     </row>
     <row r="6" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="302" t="s">
+      <c r="A6" s="352" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="303"/>
-      <c r="W6" s="303"/>
-      <c r="X6" s="303"/>
-      <c r="Y6" s="303"/>
-      <c r="Z6" s="303"/>
-      <c r="AA6" s="303"/>
-      <c r="AB6" s="303"/>
-      <c r="AC6" s="303"/>
-      <c r="AD6" s="303"/>
-      <c r="AE6" s="303"/>
-      <c r="AF6" s="303"/>
-      <c r="AG6" s="304"/>
-      <c r="AH6" s="305" t="s">
+      <c r="B6" s="353"/>
+      <c r="C6" s="353"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="353"/>
+      <c r="H6" s="353"/>
+      <c r="I6" s="353"/>
+      <c r="J6" s="353"/>
+      <c r="K6" s="353"/>
+      <c r="L6" s="353"/>
+      <c r="M6" s="353"/>
+      <c r="N6" s="353"/>
+      <c r="O6" s="353"/>
+      <c r="P6" s="353"/>
+      <c r="Q6" s="353"/>
+      <c r="R6" s="353"/>
+      <c r="S6" s="353"/>
+      <c r="T6" s="353"/>
+      <c r="U6" s="353"/>
+      <c r="V6" s="353"/>
+      <c r="W6" s="353"/>
+      <c r="X6" s="353"/>
+      <c r="Y6" s="353"/>
+      <c r="Z6" s="353"/>
+      <c r="AA6" s="353"/>
+      <c r="AB6" s="353"/>
+      <c r="AC6" s="353"/>
+      <c r="AD6" s="353"/>
+      <c r="AE6" s="353"/>
+      <c r="AF6" s="353"/>
+      <c r="AG6" s="354"/>
+      <c r="AH6" s="355" t="s">
         <v>73</v>
       </c>
-      <c r="AI6" s="306"/>
-      <c r="AJ6" s="306"/>
-      <c r="AK6" s="306"/>
-      <c r="AL6" s="306"/>
-      <c r="AM6" s="306"/>
-      <c r="AN6" s="306"/>
-      <c r="AO6" s="306"/>
-      <c r="AP6" s="306"/>
-      <c r="AQ6" s="306"/>
-      <c r="AR6" s="306"/>
-      <c r="AS6" s="307"/>
-      <c r="AT6" s="308" t="s">
+      <c r="AI6" s="356"/>
+      <c r="AJ6" s="356"/>
+      <c r="AK6" s="356"/>
+      <c r="AL6" s="356"/>
+      <c r="AM6" s="356"/>
+      <c r="AN6" s="356"/>
+      <c r="AO6" s="356"/>
+      <c r="AP6" s="356"/>
+      <c r="AQ6" s="356"/>
+      <c r="AR6" s="356"/>
+      <c r="AS6" s="357"/>
+      <c r="AT6" s="358" t="s">
         <v>29</v>
       </c>
-      <c r="AU6" s="309"/>
-      <c r="AV6" s="309"/>
-      <c r="AW6" s="309"/>
-      <c r="AX6" s="309"/>
-      <c r="AY6" s="309"/>
-      <c r="AZ6" s="309"/>
-      <c r="BA6" s="309"/>
-      <c r="BB6" s="309"/>
-      <c r="BC6" s="309"/>
-      <c r="BD6" s="309"/>
-      <c r="BE6" s="309"/>
-      <c r="BF6" s="309"/>
-      <c r="BG6" s="309"/>
-      <c r="BH6" s="309"/>
-      <c r="BI6" s="309"/>
-      <c r="BJ6" s="310"/>
+      <c r="AU6" s="359"/>
+      <c r="AV6" s="359"/>
+      <c r="AW6" s="359"/>
+      <c r="AX6" s="359"/>
+      <c r="AY6" s="359"/>
+      <c r="AZ6" s="359"/>
+      <c r="BA6" s="359"/>
+      <c r="BB6" s="359"/>
+      <c r="BC6" s="359"/>
+      <c r="BD6" s="359"/>
+      <c r="BE6" s="359"/>
+      <c r="BF6" s="359"/>
+      <c r="BG6" s="359"/>
+      <c r="BH6" s="359"/>
+      <c r="BI6" s="359"/>
+      <c r="BJ6" s="360"/>
     </row>
     <row r="7" spans="1:64" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="364" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="314" t="s">
+      <c r="C7" s="365"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="365"/>
+      <c r="F7" s="365"/>
+      <c r="G7" s="365"/>
+      <c r="H7" s="365"/>
+      <c r="I7" s="365"/>
+      <c r="J7" s="365"/>
+      <c r="K7" s="365"/>
+      <c r="L7" s="366"/>
+      <c r="M7" s="364" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="315"/>
-      <c r="O7" s="315"/>
-      <c r="P7" s="316"/>
-      <c r="Q7" s="314" t="s">
+      <c r="N7" s="365"/>
+      <c r="O7" s="365"/>
+      <c r="P7" s="366"/>
+      <c r="Q7" s="364" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="315"/>
-      <c r="S7" s="315"/>
-      <c r="T7" s="315"/>
-      <c r="U7" s="317"/>
-      <c r="V7" s="318" t="s">
+      <c r="R7" s="365"/>
+      <c r="S7" s="365"/>
+      <c r="T7" s="365"/>
+      <c r="U7" s="367"/>
+      <c r="V7" s="368" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="316"/>
-      <c r="X7" s="314" t="s">
+      <c r="W7" s="366"/>
+      <c r="X7" s="364" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="316"/>
-      <c r="Z7" s="314" t="s">
+      <c r="Y7" s="366"/>
+      <c r="Z7" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="316"/>
-      <c r="AB7" s="314" t="s">
+      <c r="AA7" s="366"/>
+      <c r="AB7" s="364" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="316"/>
-      <c r="AD7" s="314" t="s">
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="315"/>
-      <c r="AG7" s="317"/>
-      <c r="AH7" s="319" t="s">
+      <c r="AE7" s="365"/>
+      <c r="AF7" s="365"/>
+      <c r="AG7" s="367"/>
+      <c r="AH7" s="369" t="s">
         <v>35</v>
       </c>
-      <c r="AI7" s="320"/>
-      <c r="AJ7" s="320"/>
-      <c r="AK7" s="320"/>
-      <c r="AL7" s="321"/>
-      <c r="AM7" s="322" t="s">
+      <c r="AI7" s="370"/>
+      <c r="AJ7" s="370"/>
+      <c r="AK7" s="370"/>
+      <c r="AL7" s="371"/>
+      <c r="AM7" s="372" t="s">
         <v>19</v>
       </c>
-      <c r="AN7" s="320"/>
-      <c r="AO7" s="320"/>
-      <c r="AP7" s="320"/>
-      <c r="AQ7" s="320"/>
-      <c r="AR7" s="320"/>
-      <c r="AS7" s="323"/>
-      <c r="AT7" s="311"/>
-      <c r="AU7" s="312"/>
-      <c r="AV7" s="312"/>
-      <c r="AW7" s="312"/>
-      <c r="AX7" s="312"/>
-      <c r="AY7" s="312"/>
-      <c r="AZ7" s="312"/>
-      <c r="BA7" s="312"/>
-      <c r="BB7" s="312"/>
-      <c r="BC7" s="312"/>
-      <c r="BD7" s="312"/>
-      <c r="BE7" s="312"/>
-      <c r="BF7" s="312"/>
-      <c r="BG7" s="312"/>
-      <c r="BH7" s="312"/>
-      <c r="BI7" s="312"/>
-      <c r="BJ7" s="313"/>
+      <c r="AN7" s="370"/>
+      <c r="AO7" s="370"/>
+      <c r="AP7" s="370"/>
+      <c r="AQ7" s="370"/>
+      <c r="AR7" s="370"/>
+      <c r="AS7" s="373"/>
+      <c r="AT7" s="361"/>
+      <c r="AU7" s="362"/>
+      <c r="AV7" s="362"/>
+      <c r="AW7" s="362"/>
+      <c r="AX7" s="362"/>
+      <c r="AY7" s="362"/>
+      <c r="AZ7" s="362"/>
+      <c r="BA7" s="362"/>
+      <c r="BB7" s="362"/>
+      <c r="BC7" s="362"/>
+      <c r="BD7" s="362"/>
+      <c r="BE7" s="362"/>
+      <c r="BF7" s="362"/>
+      <c r="BG7" s="362"/>
+      <c r="BH7" s="362"/>
+      <c r="BI7" s="362"/>
+      <c r="BJ7" s="363"/>
     </row>
     <row r="8" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="342" t="s">
+      <c r="B8" s="392" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="343"/>
-      <c r="D8" s="343"/>
-      <c r="E8" s="343"/>
-      <c r="F8" s="343"/>
-      <c r="G8" s="343"/>
-      <c r="H8" s="343"/>
-      <c r="I8" s="343"/>
-      <c r="J8" s="343"/>
-      <c r="K8" s="343"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="329" t="s">
+      <c r="C8" s="393"/>
+      <c r="D8" s="393"/>
+      <c r="E8" s="393"/>
+      <c r="F8" s="393"/>
+      <c r="G8" s="393"/>
+      <c r="H8" s="393"/>
+      <c r="I8" s="393"/>
+      <c r="J8" s="393"/>
+      <c r="K8" s="393"/>
+      <c r="L8" s="394"/>
+      <c r="M8" s="379" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="330"/>
-      <c r="O8" s="330"/>
-      <c r="P8" s="333"/>
-      <c r="Q8" s="324" t="s">
+      <c r="N8" s="380"/>
+      <c r="O8" s="380"/>
+      <c r="P8" s="383"/>
+      <c r="Q8" s="374" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="306"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="325">
+      <c r="R8" s="356"/>
+      <c r="S8" s="356"/>
+      <c r="T8" s="356"/>
+      <c r="U8" s="357"/>
+      <c r="V8" s="375">
         <v>50</v>
       </c>
-      <c r="W8" s="326"/>
-      <c r="X8" s="281" t="s">
+      <c r="W8" s="376"/>
+      <c r="X8" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y8" s="282"/>
-      <c r="Z8" s="281" t="s">
+      <c r="Y8" s="332"/>
+      <c r="Z8" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA8" s="282"/>
-      <c r="AB8" s="327" t="s">
+      <c r="AA8" s="332"/>
+      <c r="AB8" s="377" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="328"/>
-      <c r="AD8" s="329" t="s">
+      <c r="AC8" s="378"/>
+      <c r="AD8" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="AE8" s="330"/>
-      <c r="AF8" s="330"/>
-      <c r="AG8" s="331"/>
-      <c r="AH8" s="332" t="s">
+      <c r="AE8" s="380"/>
+      <c r="AF8" s="380"/>
+      <c r="AG8" s="381"/>
+      <c r="AH8" s="382" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="330"/>
-      <c r="AJ8" s="330"/>
-      <c r="AK8" s="330"/>
-      <c r="AL8" s="333"/>
-      <c r="AM8" s="339" t="s">
+      <c r="AI8" s="380"/>
+      <c r="AJ8" s="380"/>
+      <c r="AK8" s="380"/>
+      <c r="AL8" s="383"/>
+      <c r="AM8" s="389" t="s">
         <v>79</v>
       </c>
-      <c r="AN8" s="340"/>
-      <c r="AO8" s="340"/>
-      <c r="AP8" s="340"/>
-      <c r="AQ8" s="340"/>
-      <c r="AR8" s="340"/>
-      <c r="AS8" s="341"/>
-      <c r="AT8" s="332"/>
-      <c r="AU8" s="330"/>
-      <c r="AV8" s="330"/>
-      <c r="AW8" s="330"/>
-      <c r="AX8" s="330"/>
-      <c r="AY8" s="330"/>
-      <c r="AZ8" s="330"/>
-      <c r="BA8" s="330"/>
-      <c r="BB8" s="330"/>
-      <c r="BC8" s="330"/>
-      <c r="BD8" s="330"/>
-      <c r="BE8" s="330"/>
-      <c r="BF8" s="330"/>
-      <c r="BG8" s="330"/>
-      <c r="BH8" s="330"/>
-      <c r="BI8" s="330"/>
-      <c r="BJ8" s="331"/>
+      <c r="AN8" s="390"/>
+      <c r="AO8" s="390"/>
+      <c r="AP8" s="390"/>
+      <c r="AQ8" s="390"/>
+      <c r="AR8" s="390"/>
+      <c r="AS8" s="391"/>
+      <c r="AT8" s="382"/>
+      <c r="AU8" s="380"/>
+      <c r="AV8" s="380"/>
+      <c r="AW8" s="380"/>
+      <c r="AX8" s="380"/>
+      <c r="AY8" s="380"/>
+      <c r="AZ8" s="380"/>
+      <c r="BA8" s="380"/>
+      <c r="BB8" s="380"/>
+      <c r="BC8" s="380"/>
+      <c r="BD8" s="380"/>
+      <c r="BE8" s="380"/>
+      <c r="BF8" s="380"/>
+      <c r="BG8" s="380"/>
+      <c r="BH8" s="380"/>
+      <c r="BI8" s="380"/>
+      <c r="BJ8" s="381"/>
     </row>
     <row r="9" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
@@ -13415,41 +13461,41 @@
       <c r="J9" s="99"/>
       <c r="K9" s="99"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="285" t="s">
+      <c r="M9" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="273"/>
-      <c r="O9" s="273"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="278" t="s">
+      <c r="N9" s="323"/>
+      <c r="O9" s="323"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="279"/>
-      <c r="S9" s="279"/>
-      <c r="T9" s="279"/>
-      <c r="U9" s="280"/>
+      <c r="R9" s="329"/>
+      <c r="S9" s="329"/>
+      <c r="T9" s="329"/>
+      <c r="U9" s="330"/>
       <c r="V9" s="102"/>
       <c r="W9" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="281" t="s">
+      <c r="X9" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y9" s="282"/>
-      <c r="Z9" s="281" t="s">
+      <c r="Y9" s="332"/>
+      <c r="Z9" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA9" s="282"/>
-      <c r="AB9" s="283" t="s">
+      <c r="AA9" s="332"/>
+      <c r="AB9" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC9" s="284"/>
-      <c r="AD9" s="285" t="s">
+      <c r="AC9" s="334"/>
+      <c r="AD9" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE9" s="273"/>
-      <c r="AF9" s="273"/>
-      <c r="AG9" s="274"/>
+      <c r="AE9" s="323"/>
+      <c r="AF9" s="323"/>
+      <c r="AG9" s="324"/>
       <c r="AH9" s="56"/>
       <c r="AI9" s="57"/>
       <c r="AJ9" s="57"/>
@@ -13497,41 +13543,41 @@
       <c r="J10" s="99"/>
       <c r="K10" s="99"/>
       <c r="L10" s="100"/>
-      <c r="M10" s="285" t="s">
+      <c r="M10" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="N10" s="273"/>
-      <c r="O10" s="273"/>
-      <c r="P10" s="286"/>
-      <c r="Q10" s="278" t="s">
+      <c r="N10" s="323"/>
+      <c r="O10" s="323"/>
+      <c r="P10" s="336"/>
+      <c r="Q10" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="279"/>
-      <c r="S10" s="279"/>
-      <c r="T10" s="279"/>
-      <c r="U10" s="280"/>
+      <c r="R10" s="329"/>
+      <c r="S10" s="329"/>
+      <c r="T10" s="329"/>
+      <c r="U10" s="330"/>
       <c r="V10" s="102"/>
       <c r="W10" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="281" t="s">
+      <c r="X10" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y10" s="282"/>
-      <c r="Z10" s="281" t="s">
+      <c r="Y10" s="332"/>
+      <c r="Z10" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA10" s="282"/>
-      <c r="AB10" s="283" t="s">
+      <c r="AA10" s="332"/>
+      <c r="AB10" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC10" s="284"/>
-      <c r="AD10" s="285" t="s">
+      <c r="AC10" s="334"/>
+      <c r="AD10" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE10" s="273"/>
-      <c r="AF10" s="273"/>
-      <c r="AG10" s="274"/>
+      <c r="AE10" s="323"/>
+      <c r="AF10" s="323"/>
+      <c r="AG10" s="324"/>
       <c r="AH10" s="56"/>
       <c r="AI10" s="57"/>
       <c r="AJ10" s="57"/>
@@ -13579,57 +13625,57 @@
       <c r="J11" s="99"/>
       <c r="K11" s="99"/>
       <c r="L11" s="100"/>
-      <c r="M11" s="275" t="s">
+      <c r="M11" s="325" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="276"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="277"/>
-      <c r="Q11" s="278" t="s">
+      <c r="N11" s="326"/>
+      <c r="O11" s="326"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="279"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="279"/>
-      <c r="U11" s="280"/>
+      <c r="R11" s="329"/>
+      <c r="S11" s="329"/>
+      <c r="T11" s="329"/>
+      <c r="U11" s="330"/>
       <c r="V11" s="102"/>
       <c r="W11" s="103">
         <v>6</v>
       </c>
-      <c r="X11" s="281" t="s">
+      <c r="X11" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="282"/>
-      <c r="Z11" s="281" t="s">
+      <c r="Y11" s="332"/>
+      <c r="Z11" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA11" s="282"/>
-      <c r="AB11" s="283" t="s">
+      <c r="AA11" s="332"/>
+      <c r="AB11" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC11" s="284"/>
-      <c r="AD11" s="285" t="s">
+      <c r="AC11" s="334"/>
+      <c r="AD11" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE11" s="273"/>
-      <c r="AF11" s="273"/>
-      <c r="AG11" s="274"/>
-      <c r="AH11" s="272" t="s">
+      <c r="AE11" s="323"/>
+      <c r="AF11" s="323"/>
+      <c r="AG11" s="324"/>
+      <c r="AH11" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI11" s="273"/>
-      <c r="AJ11" s="273"/>
-      <c r="AK11" s="273"/>
-      <c r="AL11" s="286"/>
-      <c r="AM11" s="289" t="s">
+      <c r="AI11" s="323"/>
+      <c r="AJ11" s="323"/>
+      <c r="AK11" s="323"/>
+      <c r="AL11" s="336"/>
+      <c r="AM11" s="339" t="s">
         <v>87</v>
       </c>
-      <c r="AN11" s="290"/>
-      <c r="AO11" s="290"/>
-      <c r="AP11" s="290"/>
-      <c r="AQ11" s="290"/>
-      <c r="AR11" s="290"/>
-      <c r="AS11" s="291"/>
+      <c r="AN11" s="340"/>
+      <c r="AO11" s="340"/>
+      <c r="AP11" s="340"/>
+      <c r="AQ11" s="340"/>
+      <c r="AR11" s="340"/>
+      <c r="AS11" s="341"/>
       <c r="AT11" s="56"/>
       <c r="AU11" s="57"/>
       <c r="AV11" s="57"/>
@@ -13652,156 +13698,156 @@
       <c r="A12" s="45">
         <v>5</v>
       </c>
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="287"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="285" t="s">
+      <c r="C12" s="337"/>
+      <c r="D12" s="337"/>
+      <c r="E12" s="337"/>
+      <c r="F12" s="337"/>
+      <c r="G12" s="337"/>
+      <c r="H12" s="337"/>
+      <c r="I12" s="337"/>
+      <c r="J12" s="337"/>
+      <c r="K12" s="337"/>
+      <c r="L12" s="338"/>
+      <c r="M12" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="273"/>
-      <c r="O12" s="273"/>
-      <c r="P12" s="286"/>
-      <c r="Q12" s="278" t="s">
+      <c r="N12" s="323"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="336"/>
+      <c r="Q12" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="279"/>
-      <c r="S12" s="279"/>
-      <c r="T12" s="279"/>
-      <c r="U12" s="280"/>
-      <c r="V12" s="337">
+      <c r="R12" s="329"/>
+      <c r="S12" s="329"/>
+      <c r="T12" s="329"/>
+      <c r="U12" s="330"/>
+      <c r="V12" s="387">
         <v>50</v>
       </c>
-      <c r="W12" s="338"/>
-      <c r="X12" s="281" t="s">
+      <c r="W12" s="388"/>
+      <c r="X12" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y12" s="282"/>
-      <c r="Z12" s="281" t="s">
+      <c r="Y12" s="332"/>
+      <c r="Z12" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA12" s="282"/>
-      <c r="AB12" s="283" t="s">
+      <c r="AA12" s="332"/>
+      <c r="AB12" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC12" s="284"/>
-      <c r="AD12" s="285" t="s">
+      <c r="AC12" s="334"/>
+      <c r="AD12" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE12" s="273"/>
-      <c r="AF12" s="273"/>
-      <c r="AG12" s="274"/>
-      <c r="AH12" s="272" t="s">
+      <c r="AE12" s="323"/>
+      <c r="AF12" s="323"/>
+      <c r="AG12" s="324"/>
+      <c r="AH12" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI12" s="273"/>
-      <c r="AJ12" s="273"/>
-      <c r="AK12" s="273"/>
-      <c r="AL12" s="286"/>
-      <c r="AM12" s="289" t="s">
+      <c r="AI12" s="323"/>
+      <c r="AJ12" s="323"/>
+      <c r="AK12" s="323"/>
+      <c r="AL12" s="336"/>
+      <c r="AM12" s="339" t="s">
         <v>87</v>
       </c>
-      <c r="AN12" s="290"/>
-      <c r="AO12" s="290"/>
-      <c r="AP12" s="290"/>
-      <c r="AQ12" s="290"/>
-      <c r="AR12" s="290"/>
-      <c r="AS12" s="291"/>
-      <c r="AT12" s="272"/>
-      <c r="AU12" s="273"/>
-      <c r="AV12" s="273"/>
-      <c r="AW12" s="273"/>
-      <c r="AX12" s="273"/>
-      <c r="AY12" s="273"/>
-      <c r="AZ12" s="273"/>
-      <c r="BA12" s="273"/>
-      <c r="BB12" s="273"/>
-      <c r="BC12" s="273"/>
-      <c r="BD12" s="273"/>
-      <c r="BE12" s="273"/>
-      <c r="BF12" s="273"/>
-      <c r="BG12" s="273"/>
-      <c r="BH12" s="273"/>
-      <c r="BI12" s="273"/>
-      <c r="BJ12" s="274"/>
+      <c r="AN12" s="340"/>
+      <c r="AO12" s="340"/>
+      <c r="AP12" s="340"/>
+      <c r="AQ12" s="340"/>
+      <c r="AR12" s="340"/>
+      <c r="AS12" s="341"/>
+      <c r="AT12" s="322"/>
+      <c r="AU12" s="323"/>
+      <c r="AV12" s="323"/>
+      <c r="AW12" s="323"/>
+      <c r="AX12" s="323"/>
+      <c r="AY12" s="323"/>
+      <c r="AZ12" s="323"/>
+      <c r="BA12" s="323"/>
+      <c r="BB12" s="323"/>
+      <c r="BC12" s="323"/>
+      <c r="BD12" s="323"/>
+      <c r="BE12" s="323"/>
+      <c r="BF12" s="323"/>
+      <c r="BG12" s="323"/>
+      <c r="BH12" s="323"/>
+      <c r="BI12" s="323"/>
+      <c r="BJ12" s="324"/>
     </row>
     <row r="13" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
         <v>6</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="285" t="s">
+      <c r="C13" s="337"/>
+      <c r="D13" s="337"/>
+      <c r="E13" s="337"/>
+      <c r="F13" s="337"/>
+      <c r="G13" s="337"/>
+      <c r="H13" s="337"/>
+      <c r="I13" s="337"/>
+      <c r="J13" s="337"/>
+      <c r="K13" s="337"/>
+      <c r="L13" s="338"/>
+      <c r="M13" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="273"/>
-      <c r="O13" s="273"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="292" t="s">
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="336"/>
+      <c r="Q13" s="342" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="293"/>
-      <c r="S13" s="293"/>
-      <c r="T13" s="293"/>
-      <c r="U13" s="294"/>
+      <c r="R13" s="343"/>
+      <c r="S13" s="343"/>
+      <c r="T13" s="343"/>
+      <c r="U13" s="344"/>
       <c r="V13" s="115"/>
       <c r="W13" s="114">
         <v>1</v>
       </c>
-      <c r="X13" s="281" t="s">
+      <c r="X13" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y13" s="282"/>
-      <c r="Z13" s="281" t="s">
+      <c r="Y13" s="332"/>
+      <c r="Z13" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA13" s="282"/>
-      <c r="AB13" s="283" t="s">
+      <c r="AA13" s="332"/>
+      <c r="AB13" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC13" s="284"/>
-      <c r="AD13" s="285" t="s">
+      <c r="AC13" s="334"/>
+      <c r="AD13" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE13" s="273"/>
-      <c r="AF13" s="273"/>
-      <c r="AG13" s="274"/>
-      <c r="AH13" s="272" t="s">
+      <c r="AE13" s="323"/>
+      <c r="AF13" s="323"/>
+      <c r="AG13" s="324"/>
+      <c r="AH13" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI13" s="273"/>
-      <c r="AJ13" s="273"/>
-      <c r="AK13" s="273"/>
-      <c r="AL13" s="286"/>
-      <c r="AM13" s="295" t="s">
+      <c r="AI13" s="323"/>
+      <c r="AJ13" s="323"/>
+      <c r="AK13" s="323"/>
+      <c r="AL13" s="336"/>
+      <c r="AM13" s="345" t="s">
         <v>92</v>
       </c>
-      <c r="AN13" s="296"/>
-      <c r="AO13" s="296"/>
-      <c r="AP13" s="296"/>
-      <c r="AQ13" s="296"/>
-      <c r="AR13" s="296"/>
-      <c r="AS13" s="297"/>
+      <c r="AN13" s="346"/>
+      <c r="AO13" s="346"/>
+      <c r="AP13" s="346"/>
+      <c r="AQ13" s="346"/>
+      <c r="AR13" s="346"/>
+      <c r="AS13" s="347"/>
       <c r="AT13" s="109"/>
       <c r="AU13" s="101"/>
       <c r="AV13" s="101"/>
@@ -13824,758 +13870,758 @@
       <c r="A14" s="45">
         <v>7</v>
       </c>
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="236" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="285" t="s">
+      <c r="C14" s="337"/>
+      <c r="D14" s="337"/>
+      <c r="E14" s="337"/>
+      <c r="F14" s="337"/>
+      <c r="G14" s="337"/>
+      <c r="H14" s="337"/>
+      <c r="I14" s="337"/>
+      <c r="J14" s="337"/>
+      <c r="K14" s="337"/>
+      <c r="L14" s="338"/>
+      <c r="M14" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="273"/>
-      <c r="O14" s="273"/>
-      <c r="P14" s="286"/>
-      <c r="Q14" s="278" t="s">
+      <c r="N14" s="323"/>
+      <c r="O14" s="323"/>
+      <c r="P14" s="336"/>
+      <c r="Q14" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="279"/>
-      <c r="S14" s="279"/>
-      <c r="T14" s="279"/>
-      <c r="U14" s="280"/>
-      <c r="V14" s="337">
+      <c r="R14" s="329"/>
+      <c r="S14" s="329"/>
+      <c r="T14" s="329"/>
+      <c r="U14" s="330"/>
+      <c r="V14" s="387">
         <v>1</v>
       </c>
-      <c r="W14" s="338"/>
-      <c r="X14" s="281" t="s">
+      <c r="W14" s="388"/>
+      <c r="X14" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y14" s="282"/>
-      <c r="Z14" s="281" t="s">
+      <c r="Y14" s="332"/>
+      <c r="Z14" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA14" s="282"/>
-      <c r="AB14" s="283" t="s">
+      <c r="AA14" s="332"/>
+      <c r="AB14" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC14" s="284"/>
-      <c r="AD14" s="285" t="s">
+      <c r="AC14" s="334"/>
+      <c r="AD14" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE14" s="273"/>
-      <c r="AF14" s="273"/>
-      <c r="AG14" s="274"/>
-      <c r="AH14" s="272" t="s">
+      <c r="AE14" s="323"/>
+      <c r="AF14" s="323"/>
+      <c r="AG14" s="324"/>
+      <c r="AH14" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI14" s="273"/>
-      <c r="AJ14" s="273"/>
-      <c r="AK14" s="273"/>
-      <c r="AL14" s="286"/>
-      <c r="AM14" s="289" t="s">
+      <c r="AI14" s="323"/>
+      <c r="AJ14" s="323"/>
+      <c r="AK14" s="323"/>
+      <c r="AL14" s="336"/>
+      <c r="AM14" s="339" t="s">
         <v>95</v>
       </c>
-      <c r="AN14" s="290"/>
-      <c r="AO14" s="290"/>
-      <c r="AP14" s="290"/>
-      <c r="AQ14" s="290"/>
-      <c r="AR14" s="290"/>
-      <c r="AS14" s="291"/>
-      <c r="AT14" s="272"/>
-      <c r="AU14" s="273"/>
-      <c r="AV14" s="273"/>
-      <c r="AW14" s="273"/>
-      <c r="AX14" s="273"/>
-      <c r="AY14" s="273"/>
-      <c r="AZ14" s="273"/>
-      <c r="BA14" s="273"/>
-      <c r="BB14" s="273"/>
-      <c r="BC14" s="273"/>
-      <c r="BD14" s="273"/>
-      <c r="BE14" s="273"/>
-      <c r="BF14" s="273"/>
-      <c r="BG14" s="273"/>
-      <c r="BH14" s="273"/>
-      <c r="BI14" s="273"/>
-      <c r="BJ14" s="274"/>
+      <c r="AN14" s="340"/>
+      <c r="AO14" s="340"/>
+      <c r="AP14" s="340"/>
+      <c r="AQ14" s="340"/>
+      <c r="AR14" s="340"/>
+      <c r="AS14" s="341"/>
+      <c r="AT14" s="322"/>
+      <c r="AU14" s="323"/>
+      <c r="AV14" s="323"/>
+      <c r="AW14" s="323"/>
+      <c r="AX14" s="323"/>
+      <c r="AY14" s="323"/>
+      <c r="AZ14" s="323"/>
+      <c r="BA14" s="323"/>
+      <c r="BB14" s="323"/>
+      <c r="BC14" s="323"/>
+      <c r="BD14" s="323"/>
+      <c r="BE14" s="323"/>
+      <c r="BF14" s="323"/>
+      <c r="BG14" s="323"/>
+      <c r="BH14" s="323"/>
+      <c r="BI14" s="323"/>
+      <c r="BJ14" s="324"/>
     </row>
     <row r="15" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45">
         <v>8</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="236" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="287"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="285" t="s">
+      <c r="C15" s="337"/>
+      <c r="D15" s="337"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="337"/>
+      <c r="G15" s="337"/>
+      <c r="H15" s="337"/>
+      <c r="I15" s="337"/>
+      <c r="J15" s="337"/>
+      <c r="K15" s="337"/>
+      <c r="L15" s="338"/>
+      <c r="M15" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="273"/>
-      <c r="O15" s="273"/>
-      <c r="P15" s="286"/>
-      <c r="Q15" s="278" t="s">
+      <c r="N15" s="323"/>
+      <c r="O15" s="323"/>
+      <c r="P15" s="336"/>
+      <c r="Q15" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="279"/>
-      <c r="S15" s="279"/>
-      <c r="T15" s="279"/>
-      <c r="U15" s="280"/>
-      <c r="V15" s="337">
+      <c r="R15" s="329"/>
+      <c r="S15" s="329"/>
+      <c r="T15" s="329"/>
+      <c r="U15" s="330"/>
+      <c r="V15" s="387">
         <v>2</v>
       </c>
-      <c r="W15" s="338"/>
-      <c r="X15" s="281" t="s">
+      <c r="W15" s="388"/>
+      <c r="X15" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y15" s="282"/>
-      <c r="Z15" s="281" t="s">
+      <c r="Y15" s="332"/>
+      <c r="Z15" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA15" s="282"/>
-      <c r="AB15" s="283" t="s">
+      <c r="AA15" s="332"/>
+      <c r="AB15" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC15" s="284"/>
-      <c r="AD15" s="285" t="s">
+      <c r="AC15" s="334"/>
+      <c r="AD15" s="335" t="s">
         <v>98</v>
       </c>
-      <c r="AE15" s="273"/>
-      <c r="AF15" s="273"/>
-      <c r="AG15" s="274"/>
-      <c r="AH15" s="272" t="s">
+      <c r="AE15" s="323"/>
+      <c r="AF15" s="323"/>
+      <c r="AG15" s="324"/>
+      <c r="AH15" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI15" s="273"/>
-      <c r="AJ15" s="273"/>
-      <c r="AK15" s="273"/>
-      <c r="AL15" s="286"/>
-      <c r="AM15" s="289" t="s">
+      <c r="AI15" s="323"/>
+      <c r="AJ15" s="323"/>
+      <c r="AK15" s="323"/>
+      <c r="AL15" s="336"/>
+      <c r="AM15" s="339" t="s">
         <v>99</v>
       </c>
-      <c r="AN15" s="290"/>
-      <c r="AO15" s="290"/>
-      <c r="AP15" s="290"/>
-      <c r="AQ15" s="290"/>
-      <c r="AR15" s="290"/>
-      <c r="AS15" s="291"/>
-      <c r="AT15" s="272"/>
-      <c r="AU15" s="273"/>
-      <c r="AV15" s="273"/>
-      <c r="AW15" s="273"/>
-      <c r="AX15" s="273"/>
-      <c r="AY15" s="273"/>
-      <c r="AZ15" s="273"/>
-      <c r="BA15" s="273"/>
-      <c r="BB15" s="273"/>
-      <c r="BC15" s="273"/>
-      <c r="BD15" s="273"/>
-      <c r="BE15" s="273"/>
-      <c r="BF15" s="273"/>
-      <c r="BG15" s="273"/>
-      <c r="BH15" s="273"/>
-      <c r="BI15" s="273"/>
-      <c r="BJ15" s="274"/>
+      <c r="AN15" s="340"/>
+      <c r="AO15" s="340"/>
+      <c r="AP15" s="340"/>
+      <c r="AQ15" s="340"/>
+      <c r="AR15" s="340"/>
+      <c r="AS15" s="341"/>
+      <c r="AT15" s="322"/>
+      <c r="AU15" s="323"/>
+      <c r="AV15" s="323"/>
+      <c r="AW15" s="323"/>
+      <c r="AX15" s="323"/>
+      <c r="AY15" s="323"/>
+      <c r="AZ15" s="323"/>
+      <c r="BA15" s="323"/>
+      <c r="BB15" s="323"/>
+      <c r="BC15" s="323"/>
+      <c r="BD15" s="323"/>
+      <c r="BE15" s="323"/>
+      <c r="BF15" s="323"/>
+      <c r="BG15" s="323"/>
+      <c r="BH15" s="323"/>
+      <c r="BI15" s="323"/>
+      <c r="BJ15" s="324"/>
     </row>
     <row r="16" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45">
         <v>9</v>
       </c>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="236" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="287"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="288"/>
-      <c r="M16" s="285" t="s">
+      <c r="C16" s="337"/>
+      <c r="D16" s="337"/>
+      <c r="E16" s="337"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="337"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="337"/>
+      <c r="J16" s="337"/>
+      <c r="K16" s="337"/>
+      <c r="L16" s="338"/>
+      <c r="M16" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="278" t="s">
+      <c r="N16" s="323"/>
+      <c r="O16" s="323"/>
+      <c r="P16" s="336"/>
+      <c r="Q16" s="328" t="s">
         <v>101</v>
       </c>
-      <c r="R16" s="279"/>
-      <c r="S16" s="279"/>
-      <c r="T16" s="279"/>
-      <c r="U16" s="280"/>
+      <c r="R16" s="329"/>
+      <c r="S16" s="329"/>
+      <c r="T16" s="329"/>
+      <c r="U16" s="330"/>
       <c r="V16" s="115"/>
       <c r="W16" s="114">
         <v>10</v>
       </c>
-      <c r="X16" s="281" t="s">
+      <c r="X16" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y16" s="282"/>
-      <c r="Z16" s="281" t="s">
+      <c r="Y16" s="332"/>
+      <c r="Z16" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA16" s="282"/>
-      <c r="AB16" s="283" t="s">
+      <c r="AA16" s="332"/>
+      <c r="AB16" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC16" s="284"/>
-      <c r="AD16" s="285" t="s">
+      <c r="AC16" s="334"/>
+      <c r="AD16" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="273"/>
-      <c r="AF16" s="273"/>
-      <c r="AG16" s="274"/>
-      <c r="AH16" s="272" t="s">
+      <c r="AE16" s="323"/>
+      <c r="AF16" s="323"/>
+      <c r="AG16" s="324"/>
+      <c r="AH16" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI16" s="273"/>
-      <c r="AJ16" s="273"/>
-      <c r="AK16" s="273"/>
-      <c r="AL16" s="286"/>
-      <c r="AM16" s="289" t="s">
+      <c r="AI16" s="323"/>
+      <c r="AJ16" s="323"/>
+      <c r="AK16" s="323"/>
+      <c r="AL16" s="336"/>
+      <c r="AM16" s="339" t="s">
         <v>102</v>
       </c>
-      <c r="AN16" s="290"/>
-      <c r="AO16" s="290"/>
-      <c r="AP16" s="290"/>
-      <c r="AQ16" s="290"/>
-      <c r="AR16" s="290"/>
-      <c r="AS16" s="291"/>
-      <c r="AT16" s="272"/>
-      <c r="AU16" s="273"/>
-      <c r="AV16" s="273"/>
-      <c r="AW16" s="273"/>
-      <c r="AX16" s="273"/>
-      <c r="AY16" s="273"/>
-      <c r="AZ16" s="273"/>
-      <c r="BA16" s="273"/>
-      <c r="BB16" s="273"/>
-      <c r="BC16" s="273"/>
-      <c r="BD16" s="273"/>
-      <c r="BE16" s="273"/>
-      <c r="BF16" s="273"/>
-      <c r="BG16" s="273"/>
-      <c r="BH16" s="273"/>
-      <c r="BI16" s="273"/>
-      <c r="BJ16" s="274"/>
+      <c r="AN16" s="340"/>
+      <c r="AO16" s="340"/>
+      <c r="AP16" s="340"/>
+      <c r="AQ16" s="340"/>
+      <c r="AR16" s="340"/>
+      <c r="AS16" s="341"/>
+      <c r="AT16" s="322"/>
+      <c r="AU16" s="323"/>
+      <c r="AV16" s="323"/>
+      <c r="AW16" s="323"/>
+      <c r="AX16" s="323"/>
+      <c r="AY16" s="323"/>
+      <c r="AZ16" s="323"/>
+      <c r="BA16" s="323"/>
+      <c r="BB16" s="323"/>
+      <c r="BC16" s="323"/>
+      <c r="BD16" s="323"/>
+      <c r="BE16" s="323"/>
+      <c r="BF16" s="323"/>
+      <c r="BG16" s="323"/>
+      <c r="BH16" s="323"/>
+      <c r="BI16" s="323"/>
+      <c r="BJ16" s="324"/>
     </row>
     <row r="17" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
         <v>10</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="288"/>
-      <c r="M17" s="285" t="s">
+      <c r="C17" s="337"/>
+      <c r="D17" s="337"/>
+      <c r="E17" s="337"/>
+      <c r="F17" s="337"/>
+      <c r="G17" s="337"/>
+      <c r="H17" s="337"/>
+      <c r="I17" s="337"/>
+      <c r="J17" s="337"/>
+      <c r="K17" s="337"/>
+      <c r="L17" s="338"/>
+      <c r="M17" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="273"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="286"/>
-      <c r="Q17" s="278" t="s">
+      <c r="N17" s="323"/>
+      <c r="O17" s="323"/>
+      <c r="P17" s="336"/>
+      <c r="Q17" s="328" t="s">
         <v>104</v>
       </c>
-      <c r="R17" s="279"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="279"/>
-      <c r="U17" s="280"/>
+      <c r="R17" s="329"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="329"/>
+      <c r="U17" s="330"/>
       <c r="V17" s="115"/>
       <c r="W17" s="114">
         <v>2</v>
       </c>
-      <c r="X17" s="281" t="s">
+      <c r="X17" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y17" s="282"/>
-      <c r="Z17" s="281" t="s">
+      <c r="Y17" s="332"/>
+      <c r="Z17" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA17" s="282"/>
-      <c r="AB17" s="283" t="s">
+      <c r="AA17" s="332"/>
+      <c r="AB17" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC17" s="284"/>
-      <c r="AD17" s="285" t="s">
+      <c r="AC17" s="334"/>
+      <c r="AD17" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE17" s="273"/>
-      <c r="AF17" s="273"/>
-      <c r="AG17" s="274"/>
-      <c r="AH17" s="272" t="s">
+      <c r="AE17" s="323"/>
+      <c r="AF17" s="323"/>
+      <c r="AG17" s="324"/>
+      <c r="AH17" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI17" s="273"/>
-      <c r="AJ17" s="273"/>
-      <c r="AK17" s="273"/>
-      <c r="AL17" s="286"/>
-      <c r="AM17" s="289" t="s">
+      <c r="AI17" s="323"/>
+      <c r="AJ17" s="323"/>
+      <c r="AK17" s="323"/>
+      <c r="AL17" s="336"/>
+      <c r="AM17" s="339" t="s">
         <v>105</v>
       </c>
-      <c r="AN17" s="290"/>
-      <c r="AO17" s="290"/>
-      <c r="AP17" s="290"/>
-      <c r="AQ17" s="290"/>
-      <c r="AR17" s="290"/>
-      <c r="AS17" s="291"/>
-      <c r="AT17" s="272"/>
-      <c r="AU17" s="273"/>
-      <c r="AV17" s="273"/>
-      <c r="AW17" s="273"/>
-      <c r="AX17" s="273"/>
-      <c r="AY17" s="273"/>
-      <c r="AZ17" s="273"/>
-      <c r="BA17" s="273"/>
-      <c r="BB17" s="273"/>
-      <c r="BC17" s="273"/>
-      <c r="BD17" s="273"/>
-      <c r="BE17" s="273"/>
-      <c r="BF17" s="273"/>
-      <c r="BG17" s="273"/>
-      <c r="BH17" s="273"/>
-      <c r="BI17" s="273"/>
-      <c r="BJ17" s="274"/>
+      <c r="AN17" s="340"/>
+      <c r="AO17" s="340"/>
+      <c r="AP17" s="340"/>
+      <c r="AQ17" s="340"/>
+      <c r="AR17" s="340"/>
+      <c r="AS17" s="341"/>
+      <c r="AT17" s="322"/>
+      <c r="AU17" s="323"/>
+      <c r="AV17" s="323"/>
+      <c r="AW17" s="323"/>
+      <c r="AX17" s="323"/>
+      <c r="AY17" s="323"/>
+      <c r="AZ17" s="323"/>
+      <c r="BA17" s="323"/>
+      <c r="BB17" s="323"/>
+      <c r="BC17" s="323"/>
+      <c r="BD17" s="323"/>
+      <c r="BE17" s="323"/>
+      <c r="BF17" s="323"/>
+      <c r="BG17" s="323"/>
+      <c r="BH17" s="323"/>
+      <c r="BI17" s="323"/>
+      <c r="BJ17" s="324"/>
     </row>
     <row r="18" spans="1:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45">
         <v>11</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="236" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="287"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="285" t="s">
+      <c r="C18" s="337"/>
+      <c r="D18" s="337"/>
+      <c r="E18" s="337"/>
+      <c r="F18" s="337"/>
+      <c r="G18" s="337"/>
+      <c r="H18" s="337"/>
+      <c r="I18" s="337"/>
+      <c r="J18" s="337"/>
+      <c r="K18" s="337"/>
+      <c r="L18" s="338"/>
+      <c r="M18" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="273"/>
-      <c r="O18" s="273"/>
-      <c r="P18" s="286"/>
-      <c r="Q18" s="278" t="s">
+      <c r="N18" s="323"/>
+      <c r="O18" s="323"/>
+      <c r="P18" s="336"/>
+      <c r="Q18" s="328" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="279"/>
-      <c r="S18" s="279"/>
-      <c r="T18" s="279"/>
-      <c r="U18" s="280"/>
+      <c r="R18" s="329"/>
+      <c r="S18" s="329"/>
+      <c r="T18" s="329"/>
+      <c r="U18" s="330"/>
       <c r="V18" s="115"/>
       <c r="W18" s="114">
         <v>8</v>
       </c>
-      <c r="X18" s="281" t="s">
+      <c r="X18" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y18" s="282"/>
-      <c r="Z18" s="281" t="s">
+      <c r="Y18" s="332"/>
+      <c r="Z18" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA18" s="282"/>
-      <c r="AB18" s="283" t="s">
+      <c r="AA18" s="332"/>
+      <c r="AB18" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC18" s="284"/>
-      <c r="AD18" s="285" t="s">
+      <c r="AC18" s="334"/>
+      <c r="AD18" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="AE18" s="273"/>
-      <c r="AF18" s="273"/>
-      <c r="AG18" s="274"/>
-      <c r="AH18" s="272" t="s">
+      <c r="AE18" s="323"/>
+      <c r="AF18" s="323"/>
+      <c r="AG18" s="324"/>
+      <c r="AH18" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI18" s="273"/>
-      <c r="AJ18" s="273"/>
-      <c r="AK18" s="273"/>
-      <c r="AL18" s="286"/>
-      <c r="AM18" s="289" t="s">
+      <c r="AI18" s="323"/>
+      <c r="AJ18" s="323"/>
+      <c r="AK18" s="323"/>
+      <c r="AL18" s="336"/>
+      <c r="AM18" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="AN18" s="290"/>
-      <c r="AO18" s="290"/>
-      <c r="AP18" s="290"/>
-      <c r="AQ18" s="290"/>
-      <c r="AR18" s="290"/>
-      <c r="AS18" s="291"/>
-      <c r="AT18" s="272"/>
-      <c r="AU18" s="273"/>
-      <c r="AV18" s="273"/>
-      <c r="AW18" s="273"/>
-      <c r="AX18" s="273"/>
-      <c r="AY18" s="273"/>
-      <c r="AZ18" s="273"/>
-      <c r="BA18" s="273"/>
-      <c r="BB18" s="273"/>
-      <c r="BC18" s="273"/>
-      <c r="BD18" s="273"/>
-      <c r="BE18" s="273"/>
-      <c r="BF18" s="273"/>
-      <c r="BG18" s="273"/>
-      <c r="BH18" s="273"/>
-      <c r="BI18" s="273"/>
-      <c r="BJ18" s="274"/>
+      <c r="AN18" s="340"/>
+      <c r="AO18" s="340"/>
+      <c r="AP18" s="340"/>
+      <c r="AQ18" s="340"/>
+      <c r="AR18" s="340"/>
+      <c r="AS18" s="341"/>
+      <c r="AT18" s="322"/>
+      <c r="AU18" s="323"/>
+      <c r="AV18" s="323"/>
+      <c r="AW18" s="323"/>
+      <c r="AX18" s="323"/>
+      <c r="AY18" s="323"/>
+      <c r="AZ18" s="323"/>
+      <c r="BA18" s="323"/>
+      <c r="BB18" s="323"/>
+      <c r="BC18" s="323"/>
+      <c r="BD18" s="323"/>
+      <c r="BE18" s="323"/>
+      <c r="BF18" s="323"/>
+      <c r="BG18" s="323"/>
+      <c r="BH18" s="323"/>
+      <c r="BI18" s="323"/>
+      <c r="BJ18" s="324"/>
     </row>
     <row r="19" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="45">
         <v>12</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="236" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="287"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="287"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="285" t="s">
+      <c r="C19" s="337"/>
+      <c r="D19" s="337"/>
+      <c r="E19" s="337"/>
+      <c r="F19" s="337"/>
+      <c r="G19" s="337"/>
+      <c r="H19" s="337"/>
+      <c r="I19" s="337"/>
+      <c r="J19" s="337"/>
+      <c r="K19" s="337"/>
+      <c r="L19" s="338"/>
+      <c r="M19" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="273"/>
-      <c r="O19" s="273"/>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="298" t="s">
+      <c r="N19" s="323"/>
+      <c r="O19" s="323"/>
+      <c r="P19" s="336"/>
+      <c r="Q19" s="348" t="s">
         <v>110</v>
       </c>
-      <c r="R19" s="299"/>
-      <c r="S19" s="299"/>
-      <c r="T19" s="299"/>
-      <c r="U19" s="300"/>
+      <c r="R19" s="349"/>
+      <c r="S19" s="349"/>
+      <c r="T19" s="349"/>
+      <c r="U19" s="350"/>
       <c r="V19" s="115"/>
       <c r="W19" s="114">
         <v>2</v>
       </c>
-      <c r="X19" s="281" t="s">
+      <c r="X19" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y19" s="282"/>
-      <c r="Z19" s="281" t="s">
+      <c r="Y19" s="332"/>
+      <c r="Z19" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA19" s="282"/>
-      <c r="AB19" s="283" t="s">
+      <c r="AA19" s="332"/>
+      <c r="AB19" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC19" s="284"/>
-      <c r="AD19" s="285" t="s">
+      <c r="AC19" s="334"/>
+      <c r="AD19" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE19" s="273"/>
-      <c r="AF19" s="273"/>
-      <c r="AG19" s="274"/>
-      <c r="AH19" s="272" t="s">
+      <c r="AE19" s="323"/>
+      <c r="AF19" s="323"/>
+      <c r="AG19" s="324"/>
+      <c r="AH19" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI19" s="273"/>
-      <c r="AJ19" s="273"/>
-      <c r="AK19" s="273"/>
-      <c r="AL19" s="286"/>
-      <c r="AM19" s="289" t="s">
+      <c r="AI19" s="323"/>
+      <c r="AJ19" s="323"/>
+      <c r="AK19" s="323"/>
+      <c r="AL19" s="336"/>
+      <c r="AM19" s="339" t="s">
         <v>111</v>
       </c>
-      <c r="AN19" s="290"/>
-      <c r="AO19" s="290"/>
-      <c r="AP19" s="290"/>
-      <c r="AQ19" s="290"/>
-      <c r="AR19" s="290"/>
-      <c r="AS19" s="291"/>
-      <c r="AT19" s="272"/>
-      <c r="AU19" s="273"/>
-      <c r="AV19" s="273"/>
-      <c r="AW19" s="273"/>
-      <c r="AX19" s="273"/>
-      <c r="AY19" s="273"/>
-      <c r="AZ19" s="273"/>
-      <c r="BA19" s="273"/>
-      <c r="BB19" s="273"/>
-      <c r="BC19" s="273"/>
-      <c r="BD19" s="273"/>
-      <c r="BE19" s="273"/>
-      <c r="BF19" s="273"/>
-      <c r="BG19" s="273"/>
-      <c r="BH19" s="273"/>
-      <c r="BI19" s="273"/>
-      <c r="BJ19" s="274"/>
+      <c r="AN19" s="340"/>
+      <c r="AO19" s="340"/>
+      <c r="AP19" s="340"/>
+      <c r="AQ19" s="340"/>
+      <c r="AR19" s="340"/>
+      <c r="AS19" s="341"/>
+      <c r="AT19" s="322"/>
+      <c r="AU19" s="323"/>
+      <c r="AV19" s="323"/>
+      <c r="AW19" s="323"/>
+      <c r="AX19" s="323"/>
+      <c r="AY19" s="323"/>
+      <c r="AZ19" s="323"/>
+      <c r="BA19" s="323"/>
+      <c r="BB19" s="323"/>
+      <c r="BC19" s="323"/>
+      <c r="BD19" s="323"/>
+      <c r="BE19" s="323"/>
+      <c r="BF19" s="323"/>
+      <c r="BG19" s="323"/>
+      <c r="BH19" s="323"/>
+      <c r="BI19" s="323"/>
+      <c r="BJ19" s="324"/>
     </row>
     <row r="20" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="45">
         <v>13</v>
       </c>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="236" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="287"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="285" t="s">
+      <c r="C20" s="337"/>
+      <c r="D20" s="337"/>
+      <c r="E20" s="337"/>
+      <c r="F20" s="337"/>
+      <c r="G20" s="337"/>
+      <c r="H20" s="337"/>
+      <c r="I20" s="337"/>
+      <c r="J20" s="337"/>
+      <c r="K20" s="337"/>
+      <c r="L20" s="338"/>
+      <c r="M20" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="273"/>
-      <c r="O20" s="273"/>
-      <c r="P20" s="286"/>
-      <c r="Q20" s="334" t="s">
+      <c r="N20" s="323"/>
+      <c r="O20" s="323"/>
+      <c r="P20" s="336"/>
+      <c r="Q20" s="384" t="s">
         <v>113</v>
       </c>
-      <c r="R20" s="335"/>
-      <c r="S20" s="335"/>
-      <c r="T20" s="335"/>
-      <c r="U20" s="336"/>
+      <c r="R20" s="385"/>
+      <c r="S20" s="385"/>
+      <c r="T20" s="385"/>
+      <c r="U20" s="386"/>
       <c r="V20" s="115"/>
       <c r="W20" s="114">
         <v>7</v>
       </c>
-      <c r="X20" s="281" t="s">
+      <c r="X20" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y20" s="282"/>
-      <c r="Z20" s="281" t="s">
+      <c r="Y20" s="332"/>
+      <c r="Z20" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA20" s="282"/>
-      <c r="AB20" s="283" t="s">
+      <c r="AA20" s="332"/>
+      <c r="AB20" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC20" s="284"/>
-      <c r="AD20" s="285" t="s">
+      <c r="AC20" s="334"/>
+      <c r="AD20" s="335" t="s">
         <v>114</v>
       </c>
-      <c r="AE20" s="273"/>
-      <c r="AF20" s="273"/>
-      <c r="AG20" s="274"/>
-      <c r="AH20" s="272" t="s">
+      <c r="AE20" s="323"/>
+      <c r="AF20" s="323"/>
+      <c r="AG20" s="324"/>
+      <c r="AH20" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI20" s="273"/>
-      <c r="AJ20" s="273"/>
-      <c r="AK20" s="273"/>
-      <c r="AL20" s="286"/>
-      <c r="AM20" s="289" t="s">
+      <c r="AI20" s="323"/>
+      <c r="AJ20" s="323"/>
+      <c r="AK20" s="323"/>
+      <c r="AL20" s="336"/>
+      <c r="AM20" s="339" t="s">
         <v>113</v>
       </c>
-      <c r="AN20" s="290"/>
-      <c r="AO20" s="290"/>
-      <c r="AP20" s="290"/>
-      <c r="AQ20" s="290"/>
-      <c r="AR20" s="290"/>
-      <c r="AS20" s="291"/>
-      <c r="AT20" s="272"/>
-      <c r="AU20" s="273"/>
-      <c r="AV20" s="273"/>
-      <c r="AW20" s="273"/>
-      <c r="AX20" s="273"/>
-      <c r="AY20" s="273"/>
-      <c r="AZ20" s="273"/>
-      <c r="BA20" s="273"/>
-      <c r="BB20" s="273"/>
-      <c r="BC20" s="273"/>
-      <c r="BD20" s="273"/>
-      <c r="BE20" s="273"/>
-      <c r="BF20" s="273"/>
-      <c r="BG20" s="273"/>
-      <c r="BH20" s="273"/>
-      <c r="BI20" s="273"/>
-      <c r="BJ20" s="274"/>
+      <c r="AN20" s="340"/>
+      <c r="AO20" s="340"/>
+      <c r="AP20" s="340"/>
+      <c r="AQ20" s="340"/>
+      <c r="AR20" s="340"/>
+      <c r="AS20" s="341"/>
+      <c r="AT20" s="322"/>
+      <c r="AU20" s="323"/>
+      <c r="AV20" s="323"/>
+      <c r="AW20" s="323"/>
+      <c r="AX20" s="323"/>
+      <c r="AY20" s="323"/>
+      <c r="AZ20" s="323"/>
+      <c r="BA20" s="323"/>
+      <c r="BB20" s="323"/>
+      <c r="BC20" s="323"/>
+      <c r="BD20" s="323"/>
+      <c r="BE20" s="323"/>
+      <c r="BF20" s="323"/>
+      <c r="BG20" s="323"/>
+      <c r="BH20" s="323"/>
+      <c r="BI20" s="323"/>
+      <c r="BJ20" s="324"/>
     </row>
     <row r="21" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45">
         <v>14</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="287"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="285" t="s">
+      <c r="C21" s="337"/>
+      <c r="D21" s="337"/>
+      <c r="E21" s="337"/>
+      <c r="F21" s="337"/>
+      <c r="G21" s="337"/>
+      <c r="H21" s="337"/>
+      <c r="I21" s="337"/>
+      <c r="J21" s="337"/>
+      <c r="K21" s="337"/>
+      <c r="L21" s="338"/>
+      <c r="M21" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="273"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="298" t="s">
+      <c r="N21" s="323"/>
+      <c r="O21" s="323"/>
+      <c r="P21" s="336"/>
+      <c r="Q21" s="348" t="s">
         <v>116</v>
       </c>
-      <c r="R21" s="299"/>
-      <c r="S21" s="299"/>
-      <c r="T21" s="299"/>
-      <c r="U21" s="300"/>
+      <c r="R21" s="349"/>
+      <c r="S21" s="349"/>
+      <c r="T21" s="349"/>
+      <c r="U21" s="350"/>
       <c r="V21" s="115"/>
       <c r="W21" s="114">
         <v>200</v>
       </c>
-      <c r="X21" s="281" t="s">
+      <c r="X21" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y21" s="282"/>
-      <c r="Z21" s="281" t="s">
+      <c r="Y21" s="332"/>
+      <c r="Z21" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA21" s="282"/>
-      <c r="AB21" s="283" t="s">
+      <c r="AA21" s="332"/>
+      <c r="AB21" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC21" s="284"/>
-      <c r="AD21" s="285" t="s">
+      <c r="AC21" s="334"/>
+      <c r="AD21" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE21" s="273"/>
-      <c r="AF21" s="273"/>
-      <c r="AG21" s="274"/>
-      <c r="AH21" s="272" t="s">
+      <c r="AE21" s="323"/>
+      <c r="AF21" s="323"/>
+      <c r="AG21" s="324"/>
+      <c r="AH21" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI21" s="273"/>
-      <c r="AJ21" s="273"/>
-      <c r="AK21" s="273"/>
-      <c r="AL21" s="286"/>
-      <c r="AM21" s="289" t="s">
+      <c r="AI21" s="323"/>
+      <c r="AJ21" s="323"/>
+      <c r="AK21" s="323"/>
+      <c r="AL21" s="336"/>
+      <c r="AM21" s="339" t="s">
         <v>117</v>
       </c>
-      <c r="AN21" s="290"/>
-      <c r="AO21" s="290"/>
-      <c r="AP21" s="290"/>
-      <c r="AQ21" s="290"/>
-      <c r="AR21" s="290"/>
-      <c r="AS21" s="291"/>
-      <c r="AT21" s="272"/>
-      <c r="AU21" s="273"/>
-      <c r="AV21" s="273"/>
-      <c r="AW21" s="273"/>
-      <c r="AX21" s="273"/>
-      <c r="AY21" s="273"/>
-      <c r="AZ21" s="273"/>
-      <c r="BA21" s="273"/>
-      <c r="BB21" s="273"/>
-      <c r="BC21" s="273"/>
-      <c r="BD21" s="273"/>
-      <c r="BE21" s="273"/>
-      <c r="BF21" s="273"/>
-      <c r="BG21" s="273"/>
-      <c r="BH21" s="273"/>
-      <c r="BI21" s="273"/>
-      <c r="BJ21" s="274"/>
+      <c r="AN21" s="340"/>
+      <c r="AO21" s="340"/>
+      <c r="AP21" s="340"/>
+      <c r="AQ21" s="340"/>
+      <c r="AR21" s="340"/>
+      <c r="AS21" s="341"/>
+      <c r="AT21" s="322"/>
+      <c r="AU21" s="323"/>
+      <c r="AV21" s="323"/>
+      <c r="AW21" s="323"/>
+      <c r="AX21" s="323"/>
+      <c r="AY21" s="323"/>
+      <c r="AZ21" s="323"/>
+      <c r="BA21" s="323"/>
+      <c r="BB21" s="323"/>
+      <c r="BC21" s="323"/>
+      <c r="BD21" s="323"/>
+      <c r="BE21" s="323"/>
+      <c r="BF21" s="323"/>
+      <c r="BG21" s="323"/>
+      <c r="BH21" s="323"/>
+      <c r="BI21" s="323"/>
+      <c r="BJ21" s="324"/>
     </row>
     <row r="22" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="45">
         <v>15</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="287"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="287"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="285" t="s">
+      <c r="C22" s="337"/>
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="337"/>
+      <c r="H22" s="337"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
+      <c r="K22" s="337"/>
+      <c r="L22" s="338"/>
+      <c r="M22" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="286"/>
-      <c r="Q22" s="334" t="s">
+      <c r="N22" s="323"/>
+      <c r="O22" s="323"/>
+      <c r="P22" s="336"/>
+      <c r="Q22" s="384" t="s">
         <v>119</v>
       </c>
-      <c r="R22" s="335"/>
-      <c r="S22" s="335"/>
-      <c r="T22" s="335"/>
-      <c r="U22" s="336"/>
-      <c r="V22" s="337">
+      <c r="R22" s="385"/>
+      <c r="S22" s="385"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="386"/>
+      <c r="V22" s="387">
         <v>15</v>
       </c>
-      <c r="W22" s="338"/>
-      <c r="X22" s="281" t="s">
+      <c r="W22" s="388"/>
+      <c r="X22" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y22" s="282"/>
-      <c r="Z22" s="281" t="s">
+      <c r="Y22" s="332"/>
+      <c r="Z22" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA22" s="282"/>
-      <c r="AB22" s="283" t="s">
+      <c r="AA22" s="332"/>
+      <c r="AB22" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC22" s="284"/>
-      <c r="AD22" s="285" t="s">
+      <c r="AC22" s="334"/>
+      <c r="AD22" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE22" s="273"/>
-      <c r="AF22" s="273"/>
-      <c r="AG22" s="274"/>
-      <c r="AH22" s="272" t="s">
+      <c r="AE22" s="323"/>
+      <c r="AF22" s="323"/>
+      <c r="AG22" s="324"/>
+      <c r="AH22" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI22" s="273"/>
-      <c r="AJ22" s="273"/>
-      <c r="AK22" s="273"/>
-      <c r="AL22" s="286"/>
-      <c r="AM22" s="289" t="s">
+      <c r="AI22" s="323"/>
+      <c r="AJ22" s="323"/>
+      <c r="AK22" s="323"/>
+      <c r="AL22" s="336"/>
+      <c r="AM22" s="339" t="s">
         <v>120</v>
       </c>
-      <c r="AN22" s="290"/>
-      <c r="AO22" s="290"/>
-      <c r="AP22" s="290"/>
-      <c r="AQ22" s="290"/>
-      <c r="AR22" s="290"/>
-      <c r="AS22" s="291"/>
+      <c r="AN22" s="340"/>
+      <c r="AO22" s="340"/>
+      <c r="AP22" s="340"/>
+      <c r="AQ22" s="340"/>
+      <c r="AR22" s="340"/>
+      <c r="AS22" s="341"/>
       <c r="AT22" s="109"/>
       <c r="AU22" s="101"/>
       <c r="AV22" s="101"/>
@@ -14611,57 +14657,57 @@
       <c r="J23" s="113"/>
       <c r="K23" s="113"/>
       <c r="L23" s="59"/>
-      <c r="M23" s="285" t="s">
+      <c r="M23" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="273"/>
-      <c r="O23" s="273"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="292" t="s">
+      <c r="N23" s="323"/>
+      <c r="O23" s="323"/>
+      <c r="P23" s="336"/>
+      <c r="Q23" s="342" t="s">
         <v>121</v>
       </c>
-      <c r="R23" s="293"/>
-      <c r="S23" s="293"/>
-      <c r="T23" s="293"/>
-      <c r="U23" s="294"/>
+      <c r="R23" s="343"/>
+      <c r="S23" s="343"/>
+      <c r="T23" s="343"/>
+      <c r="U23" s="344"/>
       <c r="V23" s="115"/>
       <c r="W23" s="114">
         <v>1</v>
       </c>
-      <c r="X23" s="281" t="s">
+      <c r="X23" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y23" s="282"/>
-      <c r="Z23" s="281" t="s">
+      <c r="Y23" s="332"/>
+      <c r="Z23" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA23" s="282"/>
-      <c r="AB23" s="283" t="s">
+      <c r="AA23" s="332"/>
+      <c r="AB23" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC23" s="284"/>
-      <c r="AD23" s="285" t="s">
+      <c r="AC23" s="334"/>
+      <c r="AD23" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE23" s="273"/>
-      <c r="AF23" s="273"/>
-      <c r="AG23" s="274"/>
-      <c r="AH23" s="272" t="s">
+      <c r="AE23" s="323"/>
+      <c r="AF23" s="323"/>
+      <c r="AG23" s="324"/>
+      <c r="AH23" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI23" s="273"/>
-      <c r="AJ23" s="273"/>
-      <c r="AK23" s="273"/>
-      <c r="AL23" s="286"/>
-      <c r="AM23" s="295" t="s">
+      <c r="AI23" s="323"/>
+      <c r="AJ23" s="323"/>
+      <c r="AK23" s="323"/>
+      <c r="AL23" s="336"/>
+      <c r="AM23" s="345" t="s">
         <v>121</v>
       </c>
-      <c r="AN23" s="296"/>
-      <c r="AO23" s="296"/>
-      <c r="AP23" s="296"/>
-      <c r="AQ23" s="296"/>
-      <c r="AR23" s="296"/>
-      <c r="AS23" s="297"/>
+      <c r="AN23" s="346"/>
+      <c r="AO23" s="346"/>
+      <c r="AP23" s="346"/>
+      <c r="AQ23" s="346"/>
+      <c r="AR23" s="346"/>
+      <c r="AS23" s="347"/>
       <c r="AT23" s="109"/>
       <c r="AU23" s="101"/>
       <c r="AV23" s="101"/>
@@ -14684,87 +14730,87 @@
       <c r="A24" s="45">
         <v>17</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="287"/>
-      <c r="K24" s="287"/>
-      <c r="L24" s="288"/>
-      <c r="M24" s="285" t="s">
+      <c r="C24" s="337"/>
+      <c r="D24" s="337"/>
+      <c r="E24" s="337"/>
+      <c r="F24" s="337"/>
+      <c r="G24" s="337"/>
+      <c r="H24" s="337"/>
+      <c r="I24" s="337"/>
+      <c r="J24" s="337"/>
+      <c r="K24" s="337"/>
+      <c r="L24" s="338"/>
+      <c r="M24" s="335" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="273"/>
-      <c r="O24" s="273"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="278" t="s">
+      <c r="N24" s="323"/>
+      <c r="O24" s="323"/>
+      <c r="P24" s="336"/>
+      <c r="Q24" s="328" t="s">
         <v>122</v>
       </c>
-      <c r="R24" s="279"/>
-      <c r="S24" s="279"/>
-      <c r="T24" s="279"/>
-      <c r="U24" s="280"/>
+      <c r="R24" s="329"/>
+      <c r="S24" s="329"/>
+      <c r="T24" s="329"/>
+      <c r="U24" s="330"/>
       <c r="V24" s="115"/>
       <c r="W24" s="114">
         <v>40</v>
       </c>
-      <c r="X24" s="281" t="s">
+      <c r="X24" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y24" s="282"/>
-      <c r="Z24" s="281" t="s">
+      <c r="Y24" s="332"/>
+      <c r="Z24" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA24" s="282"/>
-      <c r="AB24" s="283" t="s">
+      <c r="AA24" s="332"/>
+      <c r="AB24" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC24" s="284"/>
-      <c r="AD24" s="285" t="s">
+      <c r="AC24" s="334"/>
+      <c r="AD24" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE24" s="273"/>
-      <c r="AF24" s="273"/>
-      <c r="AG24" s="274"/>
-      <c r="AH24" s="272" t="s">
+      <c r="AE24" s="323"/>
+      <c r="AF24" s="323"/>
+      <c r="AG24" s="324"/>
+      <c r="AH24" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AI24" s="273"/>
-      <c r="AJ24" s="273"/>
-      <c r="AK24" s="273"/>
-      <c r="AL24" s="286"/>
-      <c r="AM24" s="289" t="s">
+      <c r="AI24" s="323"/>
+      <c r="AJ24" s="323"/>
+      <c r="AK24" s="323"/>
+      <c r="AL24" s="336"/>
+      <c r="AM24" s="339" t="s">
         <v>122</v>
       </c>
-      <c r="AN24" s="290"/>
-      <c r="AO24" s="290"/>
-      <c r="AP24" s="290"/>
-      <c r="AQ24" s="290"/>
-      <c r="AR24" s="290"/>
-      <c r="AS24" s="291"/>
-      <c r="AT24" s="272"/>
-      <c r="AU24" s="273"/>
-      <c r="AV24" s="273"/>
-      <c r="AW24" s="273"/>
-      <c r="AX24" s="273"/>
-      <c r="AY24" s="273"/>
-      <c r="AZ24" s="273"/>
-      <c r="BA24" s="273"/>
-      <c r="BB24" s="273"/>
-      <c r="BC24" s="273"/>
-      <c r="BD24" s="273"/>
-      <c r="BE24" s="273"/>
-      <c r="BF24" s="273"/>
-      <c r="BG24" s="273"/>
-      <c r="BH24" s="273"/>
-      <c r="BI24" s="273"/>
-      <c r="BJ24" s="274"/>
+      <c r="AN24" s="340"/>
+      <c r="AO24" s="340"/>
+      <c r="AP24" s="340"/>
+      <c r="AQ24" s="340"/>
+      <c r="AR24" s="340"/>
+      <c r="AS24" s="341"/>
+      <c r="AT24" s="322"/>
+      <c r="AU24" s="323"/>
+      <c r="AV24" s="323"/>
+      <c r="AW24" s="323"/>
+      <c r="AX24" s="323"/>
+      <c r="AY24" s="323"/>
+      <c r="AZ24" s="323"/>
+      <c r="BA24" s="323"/>
+      <c r="BB24" s="323"/>
+      <c r="BC24" s="323"/>
+      <c r="BD24" s="323"/>
+      <c r="BE24" s="323"/>
+      <c r="BF24" s="323"/>
+      <c r="BG24" s="323"/>
+      <c r="BH24" s="323"/>
+      <c r="BI24" s="323"/>
+      <c r="BJ24" s="324"/>
     </row>
     <row r="25" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="45">
@@ -14783,41 +14829,41 @@
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
       <c r="L25" s="59"/>
-      <c r="M25" s="275" t="s">
+      <c r="M25" s="325" t="s">
         <v>85</v>
       </c>
-      <c r="N25" s="276"/>
-      <c r="O25" s="276"/>
-      <c r="P25" s="277"/>
-      <c r="Q25" s="278" t="s">
+      <c r="N25" s="326"/>
+      <c r="O25" s="326"/>
+      <c r="P25" s="327"/>
+      <c r="Q25" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="R25" s="279"/>
-      <c r="S25" s="279"/>
-      <c r="T25" s="279"/>
-      <c r="U25" s="280"/>
+      <c r="R25" s="329"/>
+      <c r="S25" s="329"/>
+      <c r="T25" s="329"/>
+      <c r="U25" s="330"/>
       <c r="V25" s="115"/>
       <c r="W25" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="X25" s="281" t="s">
+      <c r="X25" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y25" s="282"/>
-      <c r="Z25" s="281" t="s">
+      <c r="Y25" s="332"/>
+      <c r="Z25" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA25" s="282"/>
-      <c r="AB25" s="283" t="s">
+      <c r="AA25" s="332"/>
+      <c r="AB25" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC25" s="284"/>
-      <c r="AD25" s="285" t="s">
+      <c r="AC25" s="334"/>
+      <c r="AD25" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE25" s="273"/>
-      <c r="AF25" s="273"/>
-      <c r="AG25" s="274"/>
+      <c r="AE25" s="323"/>
+      <c r="AF25" s="323"/>
+      <c r="AG25" s="324"/>
       <c r="AH25" s="109"/>
       <c r="AI25" s="101"/>
       <c r="AJ25" s="101" t="s">
@@ -14869,41 +14915,41 @@
       <c r="J26" s="113"/>
       <c r="K26" s="113"/>
       <c r="L26" s="59"/>
-      <c r="M26" s="285" t="s">
+      <c r="M26" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="N26" s="273"/>
-      <c r="O26" s="273"/>
-      <c r="P26" s="286"/>
-      <c r="Q26" s="278" t="s">
+      <c r="N26" s="323"/>
+      <c r="O26" s="323"/>
+      <c r="P26" s="336"/>
+      <c r="Q26" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="R26" s="279"/>
-      <c r="S26" s="279"/>
-      <c r="T26" s="279"/>
-      <c r="U26" s="280"/>
+      <c r="R26" s="329"/>
+      <c r="S26" s="329"/>
+      <c r="T26" s="329"/>
+      <c r="U26" s="330"/>
       <c r="V26" s="115"/>
       <c r="W26" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="X26" s="281" t="s">
+      <c r="X26" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="Y26" s="282"/>
-      <c r="Z26" s="281" t="s">
+      <c r="Y26" s="332"/>
+      <c r="Z26" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA26" s="282"/>
-      <c r="AB26" s="283" t="s">
+      <c r="AA26" s="332"/>
+      <c r="AB26" s="333" t="s">
         <v>82</v>
       </c>
-      <c r="AC26" s="284"/>
-      <c r="AD26" s="285" t="s">
+      <c r="AC26" s="334"/>
+      <c r="AD26" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="AE26" s="273"/>
-      <c r="AF26" s="273"/>
-      <c r="AG26" s="274"/>
+      <c r="AE26" s="323"/>
+      <c r="AF26" s="323"/>
+      <c r="AG26" s="324"/>
       <c r="AH26" s="109"/>
       <c r="AI26" s="101"/>
       <c r="AJ26" s="101" t="s">
@@ -14947,32 +14993,32 @@
       <c r="B28" s="46"/>
     </row>
     <row r="29" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="301"/>
-      <c r="B29" s="301"/>
+      <c r="A29" s="351"/>
+      <c r="B29" s="351"/>
     </row>
     <row r="30" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="301"/>
-      <c r="B30" s="301"/>
+      <c r="A30" s="351"/>
+      <c r="B30" s="351"/>
     </row>
     <row r="31" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="301"/>
-      <c r="B31" s="301"/>
+      <c r="A31" s="351"/>
+      <c r="B31" s="351"/>
     </row>
     <row r="32" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="301"/>
-      <c r="B32" s="301"/>
+      <c r="A32" s="351"/>
+      <c r="B32" s="351"/>
     </row>
     <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="301"/>
-      <c r="B33" s="301"/>
+      <c r="A33" s="351"/>
+      <c r="B33" s="351"/>
     </row>
     <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="301"/>
-      <c r="B34" s="301"/>
+      <c r="A34" s="351"/>
+      <c r="B34" s="351"/>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="301"/>
-      <c r="B35" s="301"/>
+      <c r="A35" s="351"/>
+      <c r="B35" s="351"/>
     </row>
   </sheetData>
   <mergeCells count="210">
@@ -15196,7 +15242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
@@ -15400,35 +15446,35 @@
       <c r="BC1" s="23"/>
     </row>
     <row r="2" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="264"/>
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
       <c r="AJ2" s="25"/>
@@ -15453,33 +15499,33 @@
       <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A3" s="355"/>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="356"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
-      <c r="O3" s="356"/>
-      <c r="P3" s="356"/>
-      <c r="Q3" s="356"/>
-      <c r="R3" s="356"/>
-      <c r="S3" s="356"/>
-      <c r="T3" s="356"/>
-      <c r="U3" s="356"/>
-      <c r="V3" s="356"/>
-      <c r="W3" s="356"/>
-      <c r="X3" s="356"/>
-      <c r="Y3" s="356"/>
-      <c r="Z3" s="356"/>
-      <c r="AA3" s="356"/>
+      <c r="A3" s="405"/>
+      <c r="B3" s="406"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="406"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="406"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="406"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="406"/>
+      <c r="R3" s="406"/>
+      <c r="S3" s="406"/>
+      <c r="T3" s="406"/>
+      <c r="U3" s="406"/>
+      <c r="V3" s="406"/>
+      <c r="W3" s="406"/>
+      <c r="X3" s="406"/>
+      <c r="Y3" s="406"/>
+      <c r="Z3" s="406"/>
+      <c r="AA3" s="406"/>
       <c r="AB3" s="42"/>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
@@ -15510,144 +15556,144 @@
       <c r="BC3" s="44"/>
     </row>
     <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="407" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="358"/>
-      <c r="C4" s="358"/>
-      <c r="D4" s="358"/>
-      <c r="E4" s="358"/>
-      <c r="F4" s="359"/>
-      <c r="G4" s="360" t="s">
+      <c r="B4" s="408"/>
+      <c r="C4" s="408"/>
+      <c r="D4" s="408"/>
+      <c r="E4" s="408"/>
+      <c r="F4" s="409"/>
+      <c r="G4" s="410" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="361"/>
-      <c r="I4" s="361"/>
-      <c r="J4" s="361"/>
-      <c r="K4" s="361"/>
-      <c r="L4" s="361"/>
-      <c r="M4" s="361"/>
-      <c r="N4" s="361"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="363" t="s">
+      <c r="H4" s="411"/>
+      <c r="I4" s="411"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="411"/>
+      <c r="L4" s="411"/>
+      <c r="M4" s="411"/>
+      <c r="N4" s="411"/>
+      <c r="O4" s="412"/>
+      <c r="P4" s="413" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="364"/>
-      <c r="R4" s="364"/>
-      <c r="S4" s="364"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="365"/>
-      <c r="V4" s="366" t="s">
+      <c r="Q4" s="414"/>
+      <c r="R4" s="414"/>
+      <c r="S4" s="414"/>
+      <c r="T4" s="414"/>
+      <c r="U4" s="415"/>
+      <c r="V4" s="416" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="367"/>
-      <c r="X4" s="367"/>
-      <c r="Y4" s="367"/>
-      <c r="Z4" s="367"/>
-      <c r="AA4" s="367"/>
-      <c r="AB4" s="367"/>
-      <c r="AC4" s="367"/>
-      <c r="AD4" s="367"/>
-      <c r="AE4" s="367"/>
-      <c r="AF4" s="367"/>
-      <c r="AG4" s="367"/>
-      <c r="AH4" s="367"/>
-      <c r="AI4" s="367"/>
-      <c r="AJ4" s="367"/>
-      <c r="AK4" s="368"/>
-      <c r="AL4" s="369" t="s">
+      <c r="W4" s="417"/>
+      <c r="X4" s="417"/>
+      <c r="Y4" s="417"/>
+      <c r="Z4" s="417"/>
+      <c r="AA4" s="417"/>
+      <c r="AB4" s="417"/>
+      <c r="AC4" s="417"/>
+      <c r="AD4" s="417"/>
+      <c r="AE4" s="417"/>
+      <c r="AF4" s="417"/>
+      <c r="AG4" s="417"/>
+      <c r="AH4" s="417"/>
+      <c r="AI4" s="417"/>
+      <c r="AJ4" s="417"/>
+      <c r="AK4" s="418"/>
+      <c r="AL4" s="419" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="370"/>
-      <c r="AN4" s="371"/>
-      <c r="AO4" s="238">
+      <c r="AM4" s="420"/>
+      <c r="AN4" s="421"/>
+      <c r="AO4" s="288">
         <v>45425</v>
       </c>
-      <c r="AP4" s="239"/>
-      <c r="AQ4" s="239"/>
-      <c r="AR4" s="239"/>
-      <c r="AS4" s="239"/>
-      <c r="AT4" s="239"/>
-      <c r="AU4" s="369" t="s">
+      <c r="AP4" s="289"/>
+      <c r="AQ4" s="289"/>
+      <c r="AR4" s="289"/>
+      <c r="AS4" s="289"/>
+      <c r="AT4" s="289"/>
+      <c r="AU4" s="419" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="370"/>
-      <c r="AW4" s="371"/>
-      <c r="AX4" s="377" t="s">
+      <c r="AV4" s="420"/>
+      <c r="AW4" s="421"/>
+      <c r="AX4" s="427" t="s">
         <v>55</v>
       </c>
-      <c r="AY4" s="239"/>
-      <c r="AZ4" s="239"/>
-      <c r="BA4" s="239"/>
-      <c r="BB4" s="239"/>
-      <c r="BC4" s="378"/>
+      <c r="AY4" s="289"/>
+      <c r="AZ4" s="289"/>
+      <c r="BA4" s="289"/>
+      <c r="BB4" s="289"/>
+      <c r="BC4" s="428"/>
     </row>
     <row r="5" spans="1:55" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="249" t="s">
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="246" t="s">
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
-      <c r="V5" s="251"/>
-      <c r="W5" s="252"/>
-      <c r="X5" s="252"/>
-      <c r="Y5" s="252"/>
-      <c r="Z5" s="252"/>
-      <c r="AA5" s="252"/>
-      <c r="AB5" s="252"/>
-      <c r="AC5" s="252"/>
-      <c r="AD5" s="252"/>
-      <c r="AE5" s="252"/>
-      <c r="AF5" s="252"/>
-      <c r="AG5" s="252"/>
-      <c r="AH5" s="252"/>
-      <c r="AI5" s="252"/>
-      <c r="AJ5" s="252"/>
-      <c r="AK5" s="253"/>
-      <c r="AL5" s="254" t="s">
+      <c r="Q5" s="297"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="297"/>
+      <c r="U5" s="298"/>
+      <c r="V5" s="301"/>
+      <c r="W5" s="302"/>
+      <c r="X5" s="302"/>
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="302"/>
+      <c r="AA5" s="302"/>
+      <c r="AB5" s="302"/>
+      <c r="AC5" s="302"/>
+      <c r="AD5" s="302"/>
+      <c r="AE5" s="302"/>
+      <c r="AF5" s="302"/>
+      <c r="AG5" s="302"/>
+      <c r="AH5" s="302"/>
+      <c r="AI5" s="302"/>
+      <c r="AJ5" s="302"/>
+      <c r="AK5" s="303"/>
+      <c r="AL5" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="255"/>
-      <c r="AN5" s="256"/>
-      <c r="AO5" s="255"/>
-      <c r="AP5" s="255"/>
-      <c r="AQ5" s="255"/>
-      <c r="AR5" s="255"/>
-      <c r="AS5" s="255"/>
-      <c r="AT5" s="255"/>
-      <c r="AU5" s="254" t="s">
+      <c r="AM5" s="305"/>
+      <c r="AN5" s="306"/>
+      <c r="AO5" s="305"/>
+      <c r="AP5" s="305"/>
+      <c r="AQ5" s="305"/>
+      <c r="AR5" s="305"/>
+      <c r="AS5" s="305"/>
+      <c r="AT5" s="305"/>
+      <c r="AU5" s="304" t="s">
         <v>17</v>
       </c>
-      <c r="AV5" s="255"/>
-      <c r="AW5" s="256"/>
-      <c r="AX5" s="251"/>
-      <c r="AY5" s="252"/>
-      <c r="AZ5" s="252"/>
-      <c r="BA5" s="252"/>
-      <c r="BB5" s="252"/>
-      <c r="BC5" s="253"/>
+      <c r="AV5" s="305"/>
+      <c r="AW5" s="306"/>
+      <c r="AX5" s="301"/>
+      <c r="AY5" s="302"/>
+      <c r="AZ5" s="302"/>
+      <c r="BA5" s="302"/>
+      <c r="BB5" s="302"/>
+      <c r="BC5" s="303"/>
     </row>
     <row r="6" spans="1:55" s="35" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
@@ -15710,125 +15756,125 @@
       <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="374" t="s">
+      <c r="B7" s="424" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="374"/>
-      <c r="D7" s="374"/>
-      <c r="E7" s="374"/>
-      <c r="F7" s="374"/>
-      <c r="G7" s="374"/>
-      <c r="H7" s="374"/>
-      <c r="I7" s="374"/>
-      <c r="J7" s="374"/>
-      <c r="K7" s="374"/>
-      <c r="L7" s="374"/>
-      <c r="M7" s="374"/>
-      <c r="N7" s="374"/>
-      <c r="O7" s="374"/>
-      <c r="P7" s="374" t="s">
+      <c r="C7" s="424"/>
+      <c r="D7" s="424"/>
+      <c r="E7" s="424"/>
+      <c r="F7" s="424"/>
+      <c r="G7" s="424"/>
+      <c r="H7" s="424"/>
+      <c r="I7" s="424"/>
+      <c r="J7" s="424"/>
+      <c r="K7" s="424"/>
+      <c r="L7" s="424"/>
+      <c r="M7" s="424"/>
+      <c r="N7" s="424"/>
+      <c r="O7" s="424"/>
+      <c r="P7" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="374"/>
-      <c r="R7" s="374"/>
-      <c r="S7" s="374"/>
-      <c r="T7" s="374"/>
-      <c r="U7" s="374"/>
-      <c r="V7" s="374"/>
-      <c r="W7" s="374"/>
-      <c r="X7" s="374"/>
-      <c r="Y7" s="374"/>
-      <c r="Z7" s="374"/>
-      <c r="AA7" s="374"/>
-      <c r="AB7" s="374"/>
-      <c r="AC7" s="374"/>
-      <c r="AD7" s="374"/>
-      <c r="AE7" s="374"/>
-      <c r="AF7" s="374"/>
-      <c r="AG7" s="374"/>
-      <c r="AH7" s="374" t="s">
+      <c r="Q7" s="424"/>
+      <c r="R7" s="424"/>
+      <c r="S7" s="424"/>
+      <c r="T7" s="424"/>
+      <c r="U7" s="424"/>
+      <c r="V7" s="424"/>
+      <c r="W7" s="424"/>
+      <c r="X7" s="424"/>
+      <c r="Y7" s="424"/>
+      <c r="Z7" s="424"/>
+      <c r="AA7" s="424"/>
+      <c r="AB7" s="424"/>
+      <c r="AC7" s="424"/>
+      <c r="AD7" s="424"/>
+      <c r="AE7" s="424"/>
+      <c r="AF7" s="424"/>
+      <c r="AG7" s="424"/>
+      <c r="AH7" s="424" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="374"/>
-      <c r="AJ7" s="374"/>
-      <c r="AK7" s="374"/>
-      <c r="AL7" s="374"/>
-      <c r="AM7" s="374"/>
-      <c r="AN7" s="374"/>
-      <c r="AO7" s="374"/>
-      <c r="AP7" s="374"/>
-      <c r="AQ7" s="374"/>
-      <c r="AR7" s="374"/>
-      <c r="AS7" s="374"/>
-      <c r="AT7" s="374"/>
-      <c r="AU7" s="374"/>
-      <c r="AV7" s="374"/>
-      <c r="AW7" s="374"/>
-      <c r="AX7" s="374"/>
-      <c r="AY7" s="374"/>
-      <c r="AZ7" s="374"/>
-      <c r="BA7" s="374"/>
-      <c r="BB7" s="374"/>
-      <c r="BC7" s="374"/>
+      <c r="AI7" s="424"/>
+      <c r="AJ7" s="424"/>
+      <c r="AK7" s="424"/>
+      <c r="AL7" s="424"/>
+      <c r="AM7" s="424"/>
+      <c r="AN7" s="424"/>
+      <c r="AO7" s="424"/>
+      <c r="AP7" s="424"/>
+      <c r="AQ7" s="424"/>
+      <c r="AR7" s="424"/>
+      <c r="AS7" s="424"/>
+      <c r="AT7" s="424"/>
+      <c r="AU7" s="424"/>
+      <c r="AV7" s="424"/>
+      <c r="AW7" s="424"/>
+      <c r="AX7" s="424"/>
+      <c r="AY7" s="424"/>
+      <c r="AZ7" s="424"/>
+      <c r="BA7" s="424"/>
+      <c r="BB7" s="424"/>
+      <c r="BC7" s="424"/>
     </row>
     <row r="8" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
-      <c r="B8" s="375" t="s">
+      <c r="B8" s="425" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="376"/>
-      <c r="D8" s="376"/>
-      <c r="E8" s="376"/>
-      <c r="F8" s="376"/>
-      <c r="G8" s="376"/>
-      <c r="H8" s="376"/>
-      <c r="I8" s="376"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="376"/>
-      <c r="L8" s="376"/>
-      <c r="M8" s="376"/>
-      <c r="N8" s="376"/>
-      <c r="O8" s="376"/>
-      <c r="P8" s="376"/>
-      <c r="Q8" s="376"/>
-      <c r="R8" s="376"/>
-      <c r="S8" s="376"/>
-      <c r="T8" s="376"/>
-      <c r="U8" s="376"/>
-      <c r="V8" s="376"/>
-      <c r="W8" s="376"/>
-      <c r="X8" s="376"/>
-      <c r="Y8" s="376"/>
-      <c r="Z8" s="376"/>
-      <c r="AA8" s="376"/>
-      <c r="AB8" s="376"/>
-      <c r="AC8" s="376"/>
-      <c r="AD8" s="376"/>
-      <c r="AE8" s="376"/>
-      <c r="AF8" s="376"/>
-      <c r="AG8" s="376"/>
-      <c r="AH8" s="376"/>
-      <c r="AI8" s="376"/>
-      <c r="AJ8" s="376"/>
-      <c r="AK8" s="376"/>
-      <c r="AL8" s="376"/>
-      <c r="AM8" s="376"/>
-      <c r="AN8" s="376"/>
-      <c r="AO8" s="376"/>
-      <c r="AP8" s="376"/>
-      <c r="AQ8" s="376"/>
-      <c r="AR8" s="376"/>
-      <c r="AS8" s="376"/>
-      <c r="AT8" s="376"/>
-      <c r="AU8" s="376"/>
-      <c r="AV8" s="376"/>
-      <c r="AW8" s="376"/>
-      <c r="AX8" s="376"/>
-      <c r="AY8" s="376"/>
-      <c r="AZ8" s="376"/>
-      <c r="BA8" s="376"/>
-      <c r="BB8" s="376"/>
-      <c r="BC8" s="376"/>
+      <c r="C8" s="426"/>
+      <c r="D8" s="426"/>
+      <c r="E8" s="426"/>
+      <c r="F8" s="426"/>
+      <c r="G8" s="426"/>
+      <c r="H8" s="426"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="426"/>
+      <c r="K8" s="426"/>
+      <c r="L8" s="426"/>
+      <c r="M8" s="426"/>
+      <c r="N8" s="426"/>
+      <c r="O8" s="426"/>
+      <c r="P8" s="426"/>
+      <c r="Q8" s="426"/>
+      <c r="R8" s="426"/>
+      <c r="S8" s="426"/>
+      <c r="T8" s="426"/>
+      <c r="U8" s="426"/>
+      <c r="V8" s="426"/>
+      <c r="W8" s="426"/>
+      <c r="X8" s="426"/>
+      <c r="Y8" s="426"/>
+      <c r="Z8" s="426"/>
+      <c r="AA8" s="426"/>
+      <c r="AB8" s="426"/>
+      <c r="AC8" s="426"/>
+      <c r="AD8" s="426"/>
+      <c r="AE8" s="426"/>
+      <c r="AF8" s="426"/>
+      <c r="AG8" s="426"/>
+      <c r="AH8" s="426"/>
+      <c r="AI8" s="426"/>
+      <c r="AJ8" s="426"/>
+      <c r="AK8" s="426"/>
+      <c r="AL8" s="426"/>
+      <c r="AM8" s="426"/>
+      <c r="AN8" s="426"/>
+      <c r="AO8" s="426"/>
+      <c r="AP8" s="426"/>
+      <c r="AQ8" s="426"/>
+      <c r="AR8" s="426"/>
+      <c r="AS8" s="426"/>
+      <c r="AT8" s="426"/>
+      <c r="AU8" s="426"/>
+      <c r="AV8" s="426"/>
+      <c r="AW8" s="426"/>
+      <c r="AX8" s="426"/>
+      <c r="AY8" s="426"/>
+      <c r="AZ8" s="426"/>
+      <c r="BA8" s="426"/>
+      <c r="BB8" s="426"/>
+      <c r="BC8" s="426"/>
     </row>
   </sheetData>
   <mergeCells count="21">
